--- a/SimulationStudyData/Model5/SimCase32_Yobs_SimRun1.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Yobs_SimRun1.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.2993449354926</v>
+        <v>2.5507784918148</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0994885918091</v>
+        <v>3.55299325697487</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6194107033943</v>
+        <v>4.03800741759922</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2384012545789</v>
+        <v>3.79423829763465</v>
       </c>
       <c r="E2" t="n">
-        <v>15.172257359022</v>
+        <v>4.58822128177542</v>
       </c>
       <c r="F2" t="n">
-        <v>14.956696299425</v>
+        <v>4.09753867979816</v>
       </c>
       <c r="G2" t="n">
-        <v>16.4558426261478</v>
+        <v>5.94458400509079</v>
       </c>
       <c r="H2" t="n">
-        <v>16.8927917593571</v>
+        <v>6.03494578859165</v>
       </c>
       <c r="I2" t="n">
-        <v>18.6044192141734</v>
+        <v>6.34831818636059</v>
       </c>
       <c r="J2" t="n">
-        <v>19.3267907524123</v>
+        <v>6.21295093297555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.62637679861473</v>
+        <v>10.2397496940458</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6089089362396</v>
+        <v>11.281615418988</v>
       </c>
       <c r="C3" t="n">
-        <v>2.50587740095722</v>
+        <v>12.2385550064243</v>
       </c>
       <c r="D3" t="n">
-        <v>3.52483072144222</v>
+        <v>14.7155785612412</v>
       </c>
       <c r="E3" t="n">
-        <v>3.48138403377942</v>
+        <v>14.1964335713844</v>
       </c>
       <c r="F3" t="n">
-        <v>4.91728507023176</v>
+        <v>16.7153317770941</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9427027791945</v>
+        <v>16.2377083784308</v>
       </c>
       <c r="H3" t="n">
-        <v>6.12127873149472</v>
+        <v>17.1105642866774</v>
       </c>
       <c r="I3" t="n">
-        <v>6.53220146903131</v>
+        <v>18.3002429331966</v>
       </c>
       <c r="J3" t="n">
-        <v>7.15443158744457</v>
+        <v>18.461902563485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.71748809133021</v>
+        <v>-4.98111884751254</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4843885886057</v>
+        <v>-5.19337345400621</v>
       </c>
       <c r="C4" t="n">
-        <v>13.039222143102</v>
+        <v>-6.27740824293109</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6322296902628</v>
+        <v>-6.94295316181073</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9939297992577</v>
+        <v>-6.56200756713793</v>
       </c>
       <c r="F4" t="n">
-        <v>16.5359091971412</v>
+        <v>-7.69802709939232</v>
       </c>
       <c r="G4" t="n">
-        <v>16.635034236653</v>
+        <v>-8.12296003215355</v>
       </c>
       <c r="H4" t="n">
-        <v>16.7474623089084</v>
+        <v>-8.7916921034558</v>
       </c>
       <c r="I4" t="n">
-        <v>17.7633500375176</v>
+        <v>-8.84981573431192</v>
       </c>
       <c r="J4" t="n">
-        <v>19.6756275735462</v>
+        <v>-9.46736691237843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.95086219240605</v>
+        <v>3.03450938370769</v>
       </c>
       <c r="B5" t="n">
-        <v>3.09462327982103</v>
+        <v>2.56357283580099</v>
       </c>
       <c r="C5" t="n">
-        <v>3.427870363133</v>
+        <v>2.60345971864294</v>
       </c>
       <c r="D5" t="n">
-        <v>5.08416055575446</v>
+        <v>4.34759811224433</v>
       </c>
       <c r="E5" t="n">
-        <v>4.54551304822747</v>
+        <v>4.84231979804297</v>
       </c>
       <c r="F5" t="n">
-        <v>5.18338007723299</v>
+        <v>5.9078023843399</v>
       </c>
       <c r="G5" t="n">
-        <v>5.02601551532887</v>
+        <v>5.78053306224499</v>
       </c>
       <c r="H5" t="n">
-        <v>7.01651287558658</v>
+        <v>5.61804346384019</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6476563072766</v>
+        <v>5.98268882588904</v>
       </c>
       <c r="J5" t="n">
-        <v>7.63048446612851</v>
+        <v>7.33052550817913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.89811582691165</v>
+        <v>-4.93183986317694</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.5671704646216</v>
+        <v>-5.86276130264197</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.13365788393701</v>
+        <v>-5.93099127698365</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.35487936446573</v>
+        <v>-6.36378962465215</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.88421784684245</v>
+        <v>-6.74661363723132</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.06696689610162</v>
+        <v>-7.51293950570672</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.2338175306295</v>
+        <v>-7.68565348950277</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.14833803035806</v>
+        <v>-8.21482848260958</v>
       </c>
       <c r="I6" t="n">
-        <v>17.7621856673285</v>
+        <v>-9.1443745521732</v>
       </c>
       <c r="J6" t="n">
-        <v>18.7966069997833</v>
+        <v>-9.05352173662995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.70232778928426</v>
+        <v>10.0543917563811</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4835639213008</v>
+        <v>11.1871465404242</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8578818576624</v>
+        <v>11.3698937112207</v>
       </c>
       <c r="D7" t="n">
-        <v>13.0444876884625</v>
+        <v>11.6494986796338</v>
       </c>
       <c r="E7" t="n">
-        <v>14.413461699766</v>
+        <v>13.0509199432428</v>
       </c>
       <c r="F7" t="n">
-        <v>17.1333166868577</v>
+        <v>15.6790392324893</v>
       </c>
       <c r="G7" t="n">
-        <v>15.4825809960986</v>
+        <v>5.74680336816728</v>
       </c>
       <c r="H7" t="n">
-        <v>15.1553228884053</v>
+        <v>5.57284268074281</v>
       </c>
       <c r="I7" t="n">
-        <v>16.2278301381622</v>
+        <v>6.57250430880952</v>
       </c>
       <c r="J7" t="n">
-        <v>19.5105397666266</v>
+        <v>6.1676209967912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.82379165380339</v>
+        <v>-4.9744528137528</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.65985269180064</v>
+        <v>-5.62515588227243</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.68989105216833</v>
+        <v>-6.47762004119982</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.19562466771145</v>
+        <v>12.4898478356099</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.21499779747784</v>
+        <v>14.7073490139496</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.18585296500232</v>
+        <v>13.8737975377779</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.85608511493767</v>
+        <v>16.1734771416113</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.39846235225505</v>
+        <v>17.9580950212615</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.92288326808836</v>
+        <v>7.122228518573</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.9900079658887</v>
+        <v>6.96638446750705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.93140658220013</v>
+        <v>-5.29072460836084</v>
       </c>
       <c r="B9" t="n">
-        <v>3.13335043451727</v>
+        <v>-5.83231399370114</v>
       </c>
       <c r="C9" t="n">
-        <v>3.57406597705081</v>
+        <v>-5.50986953075245</v>
       </c>
       <c r="D9" t="n">
-        <v>4.0406016544535</v>
+        <v>-6.18008682479463</v>
       </c>
       <c r="E9" t="n">
-        <v>4.55988030883949</v>
+        <v>-7.10664087620366</v>
       </c>
       <c r="F9" t="n">
-        <v>4.80794026618103</v>
+        <v>5.93259768551372</v>
       </c>
       <c r="G9" t="n">
-        <v>5.26682623512783</v>
+        <v>5.33919246385855</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4057485646278</v>
+        <v>5.85817210902267</v>
       </c>
       <c r="I9" t="n">
-        <v>6.03335215432347</v>
+        <v>7.26247919988702</v>
       </c>
       <c r="J9" t="n">
-        <v>6.58859163096224</v>
+        <v>7.08959255626814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.29747633775907</v>
+        <v>1.82337218523164</v>
       </c>
       <c r="B10" t="n">
-        <v>4.39405234544515</v>
+        <v>3.07235516023987</v>
       </c>
       <c r="C10" t="n">
-        <v>3.4502351427048</v>
+        <v>3.79497095032641</v>
       </c>
       <c r="D10" t="n">
-        <v>4.64646048830433</v>
+        <v>4.9151928222059</v>
       </c>
       <c r="E10" t="n">
-        <v>4.90540627775502</v>
+        <v>4.77486620645438</v>
       </c>
       <c r="F10" t="n">
-        <v>4.22787444515379</v>
+        <v>5.05531150818862</v>
       </c>
       <c r="G10" t="n">
-        <v>4.69232751433761</v>
+        <v>5.59603128840555</v>
       </c>
       <c r="H10" t="n">
-        <v>7.18624679207887</v>
+        <v>5.92821536963579</v>
       </c>
       <c r="I10" t="n">
-        <v>6.22182984417877</v>
+        <v>6.28274987309374</v>
       </c>
       <c r="J10" t="n">
-        <v>7.37535414573289</v>
+        <v>7.20300861615433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.68194041535519</v>
+        <v>10.3881445859585</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.98157535757316</v>
+        <v>11.1533484648236</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1497077819399</v>
+        <v>11.971243398733</v>
       </c>
       <c r="D11" t="n">
-        <v>13.5253590614327</v>
+        <v>13.5363673574519</v>
       </c>
       <c r="E11" t="n">
-        <v>13.4655803237864</v>
+        <v>14.5785186998784</v>
       </c>
       <c r="F11" t="n">
-        <v>14.598606979436</v>
+        <v>14.9598905456407</v>
       </c>
       <c r="G11" t="n">
-        <v>15.7134940853409</v>
+        <v>16.7795108139216</v>
       </c>
       <c r="H11" t="n">
-        <v>18.4094586023439</v>
+        <v>17.5476856291787</v>
       </c>
       <c r="I11" t="n">
-        <v>17.9161659992418</v>
+        <v>17.742056515248</v>
       </c>
       <c r="J11" t="n">
-        <v>6.7013173810114</v>
+        <v>19.6042727140338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.99215726776467</v>
+        <v>-5.20939270575681</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.16722893808029</v>
+        <v>-5.57062062538297</v>
       </c>
       <c r="C12" t="n">
-        <v>11.3413879074998</v>
+        <v>-6.16709342802654</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2989122802996</v>
+        <v>-6.69967535099107</v>
       </c>
       <c r="E12" t="n">
-        <v>13.7342542110334</v>
+        <v>-6.46200324322553</v>
       </c>
       <c r="F12" t="n">
-        <v>15.9834364699929</v>
+        <v>-7.4295545307983</v>
       </c>
       <c r="G12" t="n">
-        <v>14.82869345834</v>
+        <v>-7.90404284008619</v>
       </c>
       <c r="H12" t="n">
-        <v>17.287930534694</v>
+        <v>-8.82525758966445</v>
       </c>
       <c r="I12" t="n">
-        <v>18.1775535008179</v>
+        <v>-8.80696445833743</v>
       </c>
       <c r="J12" t="n">
-        <v>19.75731455068</v>
+        <v>-9.00844814793897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.01484770178209</v>
+        <v>-4.88066269614899</v>
       </c>
       <c r="B13" t="n">
-        <v>2.83052348346502</v>
+        <v>-5.00150503011503</v>
       </c>
       <c r="C13" t="n">
-        <v>3.4915789819274</v>
+        <v>-5.86881745291998</v>
       </c>
       <c r="D13" t="n">
-        <v>3.41432286099887</v>
+        <v>-6.33716494005367</v>
       </c>
       <c r="E13" t="n">
-        <v>4.90814719150648</v>
+        <v>-6.87494829447765</v>
       </c>
       <c r="F13" t="n">
-        <v>5.69056275376705</v>
+        <v>-7.48797273192939</v>
       </c>
       <c r="G13" t="n">
-        <v>5.33836083182291</v>
+        <v>-7.96563674776236</v>
       </c>
       <c r="H13" t="n">
-        <v>5.35609729513662</v>
+        <v>-8.98922214044542</v>
       </c>
       <c r="I13" t="n">
-        <v>5.82749221298579</v>
+        <v>-9.39257462767222</v>
       </c>
       <c r="J13" t="n">
-        <v>6.24634974264201</v>
+        <v>-9.33771146886664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.55801250759052</v>
+        <v>2.95936583015086</v>
       </c>
       <c r="B14" t="n">
-        <v>2.15546469848337</v>
+        <v>3.16008338659474</v>
       </c>
       <c r="C14" t="n">
-        <v>3.46087125909782</v>
+        <v>3.42430113849978</v>
       </c>
       <c r="D14" t="n">
-        <v>4.41512121830343</v>
+        <v>3.41212606560721</v>
       </c>
       <c r="E14" t="n">
-        <v>4.03204293688678</v>
+        <v>4.64084852573183</v>
       </c>
       <c r="F14" t="n">
-        <v>5.09200211746377</v>
+        <v>5.20787090746365</v>
       </c>
       <c r="G14" t="n">
-        <v>5.84595541148339</v>
+        <v>5.76108583347851</v>
       </c>
       <c r="H14" t="n">
-        <v>5.91253740023553</v>
+        <v>5.61741605830437</v>
       </c>
       <c r="I14" t="n">
-        <v>6.08080736772887</v>
+        <v>6.81244660788727</v>
       </c>
       <c r="J14" t="n">
-        <v>7.14424399603921</v>
+        <v>6.31783806253601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.2292715183077</v>
+        <v>10.4341929208896</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4747472195536</v>
+        <v>9.96284031746396</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4007924351416</v>
+        <v>11.6811671624265</v>
       </c>
       <c r="D15" t="n">
-        <v>13.1446259848892</v>
+        <v>12.245666463169</v>
       </c>
       <c r="E15" t="n">
-        <v>14.2550661413365</v>
+        <v>13.664636476062</v>
       </c>
       <c r="F15" t="n">
-        <v>14.8795207293487</v>
+        <v>14.1799742265381</v>
       </c>
       <c r="G15" t="n">
-        <v>16.5281937659598</v>
+        <v>16.8315171759401</v>
       </c>
       <c r="H15" t="n">
-        <v>15.768454239236</v>
+        <v>16.5901993708994</v>
       </c>
       <c r="I15" t="n">
-        <v>18.3670222155393</v>
+        <v>17.496978153016</v>
       </c>
       <c r="J15" t="n">
-        <v>19.8722002757461</v>
+        <v>19.1641926733497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.98611815703539</v>
+        <v>10.7022725193788</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.38899401555488</v>
+        <v>12.0403251180318</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.0881088518177</v>
+        <v>10.9847767766277</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.75889429552043</v>
+        <v>12.9716968544639</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.9129600376832</v>
+        <v>13.8955636313175</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.20626239525117</v>
+        <v>13.9554871442151</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.8784111484953</v>
+        <v>16.0374929909368</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.38881424279107</v>
+        <v>17.8518937328408</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.97792876388035</v>
+        <v>17.1970932346679</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.41006398173642</v>
+        <v>19.6490056058415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.1109086883985</v>
+        <v>10.0807499982961</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0446242059085</v>
+        <v>8.35553485978291</v>
       </c>
       <c r="C17" t="n">
-        <v>11.731885342108</v>
+        <v>12.747749646404</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2848884043703</v>
+        <v>12.5241640114605</v>
       </c>
       <c r="E17" t="n">
-        <v>13.8265968069273</v>
+        <v>14.0595685259887</v>
       </c>
       <c r="F17" t="n">
-        <v>16.9055528428029</v>
+        <v>16.1488612437767</v>
       </c>
       <c r="G17" t="n">
-        <v>17.0174378968294</v>
+        <v>15.9426171353039</v>
       </c>
       <c r="H17" t="n">
-        <v>16.5233281009389</v>
+        <v>16.5888309419063</v>
       </c>
       <c r="I17" t="n">
-        <v>6.88907991656862</v>
+        <v>19.876971676867</v>
       </c>
       <c r="J17" t="n">
-        <v>6.56225124646643</v>
+        <v>18.6218432992131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.93583422071327</v>
+        <v>9.3127281316691</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.55912724760644</v>
+        <v>10.8548980254836</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.79646661257267</v>
+        <v>11.0016350472274</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.59894052541631</v>
+        <v>11.9287899368318</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.75748457647457</v>
+        <v>14.1993867645585</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.90664125045976</v>
+        <v>14.2417047036081</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.61385827192646</v>
+        <v>15.6193273748338</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.57214514748663</v>
+        <v>17.2202391449065</v>
       </c>
       <c r="I18" t="n">
-        <v>-9.38445929418474</v>
+        <v>18.3637941162911</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.15214955960877</v>
+        <v>19.3366920456568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.57004333054992</v>
+        <v>9.81819511858522</v>
       </c>
       <c r="B19" t="n">
-        <v>3.29795487666926</v>
+        <v>11.4774522922187</v>
       </c>
       <c r="C19" t="n">
-        <v>2.97577819524767</v>
+        <v>11.9044479840166</v>
       </c>
       <c r="D19" t="n">
-        <v>2.79203993891384</v>
+        <v>13.3242084211969</v>
       </c>
       <c r="E19" t="n">
-        <v>5.40413967972393</v>
+        <v>15.6584112365796</v>
       </c>
       <c r="F19" t="n">
-        <v>5.0836467583022</v>
+        <v>13.7921345341272</v>
       </c>
       <c r="G19" t="n">
-        <v>5.29399332593178</v>
+        <v>15.1284364385566</v>
       </c>
       <c r="H19" t="n">
-        <v>5.50431526491498</v>
+        <v>17.4026589494884</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8862377373396</v>
+        <v>17.5291313785414</v>
       </c>
       <c r="J19" t="n">
-        <v>6.67558890777395</v>
+        <v>19.4671437180437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.2789855694687</v>
+        <v>9.80695212754101</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.32258318751176</v>
+        <v>9.86786353212327</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.89234893297574</v>
+        <v>11.2867657696691</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.10416560286497</v>
+        <v>13.4328551029926</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.88877685782802</v>
+        <v>12.9783627887159</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.29361026277536</v>
+        <v>16.4986849236964</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.99427355601078</v>
+        <v>15.8025292888716</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.54022030957436</v>
+        <v>18.9713196586436</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.02980545320113</v>
+        <v>16.802900165432</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.89022065619009</v>
+        <v>19.1446077199974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.7965069703483</v>
+        <v>10.8354946318173</v>
       </c>
       <c r="B21" t="n">
-        <v>11.1250771533424</v>
+        <v>11.5327306461086</v>
       </c>
       <c r="C21" t="n">
-        <v>12.994062083951</v>
+        <v>12.0583946591795</v>
       </c>
       <c r="D21" t="n">
-        <v>13.7847011599989</v>
+        <v>13.6736621874576</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5103943042622</v>
+        <v>12.2575217777436</v>
       </c>
       <c r="F21" t="n">
-        <v>14.2037001206576</v>
+        <v>16.6009385845936</v>
       </c>
       <c r="G21" t="n">
-        <v>16.0006079442577</v>
+        <v>15.6897353595689</v>
       </c>
       <c r="H21" t="n">
-        <v>17.5405131173246</v>
+        <v>17.534630219748</v>
       </c>
       <c r="I21" t="n">
-        <v>19.1947378549718</v>
+        <v>17.6675973265386</v>
       </c>
       <c r="J21" t="n">
-        <v>19.075077966228</v>
+        <v>20.6434014454487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.1201307833223</v>
+        <v>10.1542591556796</v>
       </c>
       <c r="B22" t="n">
-        <v>3.87869146977567</v>
+        <v>10.9384498168815</v>
       </c>
       <c r="C22" t="n">
-        <v>4.06888328288348</v>
+        <v>12.2280856817462</v>
       </c>
       <c r="D22" t="n">
-        <v>4.20208086051014</v>
+        <v>14.9396704966228</v>
       </c>
       <c r="E22" t="n">
-        <v>4.51704980418551</v>
+        <v>15.0306989480435</v>
       </c>
       <c r="F22" t="n">
-        <v>4.53365207537848</v>
+        <v>14.6225604928404</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2233015474513</v>
+        <v>17.5483821117983</v>
       </c>
       <c r="H22" t="n">
-        <v>6.34720148866045</v>
+        <v>16.2777060463372</v>
       </c>
       <c r="I22" t="n">
-        <v>6.09108804872901</v>
+        <v>16.9356826972805</v>
       </c>
       <c r="J22" t="n">
-        <v>7.13864351370757</v>
+        <v>20.5470125934511</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.07019530933343</v>
+        <v>3.23697193110826</v>
       </c>
       <c r="B23" t="n">
-        <v>3.00810911116757</v>
+        <v>3.03237359496727</v>
       </c>
       <c r="C23" t="n">
-        <v>3.77686282677811</v>
+        <v>12.7202468203251</v>
       </c>
       <c r="D23" t="n">
-        <v>3.10779959514621</v>
+        <v>14.4747204730505</v>
       </c>
       <c r="E23" t="n">
-        <v>4.23464081476222</v>
+        <v>12.5341676702155</v>
       </c>
       <c r="F23" t="n">
-        <v>4.27708626106909</v>
+        <v>15.7399398570233</v>
       </c>
       <c r="G23" t="n">
-        <v>5.19997755009912</v>
+        <v>14.5542288431036</v>
       </c>
       <c r="H23" t="n">
-        <v>6.04277896386293</v>
+        <v>17.1429438558985</v>
       </c>
       <c r="I23" t="n">
-        <v>6.063582731261</v>
+        <v>18.0581792464639</v>
       </c>
       <c r="J23" t="n">
-        <v>6.56306277005241</v>
+        <v>20.0337347400652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.46960965770213</v>
+        <v>1.85396231195879</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.15171718808194</v>
+        <v>3.31932555190703</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.92852281188534</v>
+        <v>3.93644983883079</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.97658272942532</v>
+        <v>5.09622881685349</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.9048590256424</v>
+        <v>4.49790616539772</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.42754993948857</v>
+        <v>5.57841548047745</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.95112843280565</v>
+        <v>-7.97708064281345</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.42138468939519</v>
+        <v>-8.08571220007993</v>
       </c>
       <c r="I24" t="n">
-        <v>18.9832167970926</v>
+        <v>-8.89095080202822</v>
       </c>
       <c r="J24" t="n">
-        <v>19.9911538704072</v>
+        <v>-9.96020903235855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.99759260263871</v>
+        <v>9.21768208610963</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.76323306192927</v>
+        <v>11.3165030793974</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.11428703835101</v>
+        <v>12.0886693948341</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.50899970571458</v>
+        <v>12.1701785770762</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.13255373229693</v>
+        <v>14.1854104542719</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.29375261788896</v>
+        <v>14.7559923911206</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.93825774012802</v>
+        <v>15.7495548037345</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.56370270439229</v>
+        <v>17.0780187803018</v>
       </c>
       <c r="I25" t="n">
-        <v>-8.80754224991981</v>
+        <v>17.2346831358716</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.09174963801116</v>
+        <v>19.2381260224895</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.97077521692963</v>
+        <v>-5.21952354867173</v>
       </c>
       <c r="B26" t="n">
-        <v>10.1666673578443</v>
+        <v>-5.48297765498571</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4539115679865</v>
+        <v>-5.56946161569144</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.27135635169457</v>
+        <v>-6.14102263978211</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.71827714423772</v>
+        <v>-6.79506178336273</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.55567066189122</v>
+        <v>-7.35794714692137</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.16597727568037</v>
+        <v>-7.86890297734973</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.59738811282043</v>
+        <v>-8.63653631938909</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.71274430430439</v>
+        <v>-9.4549865158463</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.57954425949286</v>
+        <v>-9.59773207675669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-5.17315893399392</v>
+        <v>10.5549995774271</v>
       </c>
       <c r="B27" t="n">
-        <v>2.768843059695</v>
+        <v>10.5835658158207</v>
       </c>
       <c r="C27" t="n">
-        <v>3.74184249186252</v>
+        <v>9.66739020314187</v>
       </c>
       <c r="D27" t="n">
-        <v>3.66837510459054</v>
+        <v>13.1434659427664</v>
       </c>
       <c r="E27" t="n">
-        <v>4.32018905188712</v>
+        <v>14.1635308956926</v>
       </c>
       <c r="F27" t="n">
-        <v>4.9301351649999</v>
+        <v>15.5874444703658</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2062817585849</v>
+        <v>14.6929800865761</v>
       </c>
       <c r="H27" t="n">
-        <v>5.82284397744607</v>
+        <v>16.8964579626036</v>
       </c>
       <c r="I27" t="n">
-        <v>6.56146137782287</v>
+        <v>18.0642837256394</v>
       </c>
       <c r="J27" t="n">
-        <v>7.02842595667831</v>
+        <v>20.1992412605906</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-4.68801416028951</v>
+        <v>2.32372937807006</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.90923187334832</v>
+        <v>3.07664156889497</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.73514727713004</v>
+        <v>2.5650105582707</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.36333488953089</v>
+        <v>3.89060124675233</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.96584543531295</v>
+        <v>4.27908286804034</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.73837587215409</v>
+        <v>3.75968207179554</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.01852485580447</v>
+        <v>4.79659369505962</v>
       </c>
       <c r="H28" t="n">
-        <v>-8.40944154043408</v>
+        <v>6.47535560150277</v>
       </c>
       <c r="I28" t="n">
-        <v>18.8485749187228</v>
+        <v>5.73989209328054</v>
       </c>
       <c r="J28" t="n">
-        <v>19.4071879363475</v>
+        <v>6.06020531551991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.4084351282375</v>
+        <v>9.47297268925192</v>
       </c>
       <c r="B29" t="n">
-        <v>10.5170775672806</v>
+        <v>11.9154489140627</v>
       </c>
       <c r="C29" t="n">
-        <v>12.0285293228712</v>
+        <v>11.80552411715</v>
       </c>
       <c r="D29" t="n">
-        <v>12.4971706257777</v>
+        <v>13.1163414112667</v>
       </c>
       <c r="E29" t="n">
-        <v>13.8252881176575</v>
+        <v>14.1707600167369</v>
       </c>
       <c r="F29" t="n">
-        <v>15.7836501893406</v>
+        <v>15.1835451496916</v>
       </c>
       <c r="G29" t="n">
-        <v>15.7591165232777</v>
+        <v>16.058578857767</v>
       </c>
       <c r="H29" t="n">
-        <v>16.6034976356187</v>
+        <v>17.0074244244792</v>
       </c>
       <c r="I29" t="n">
-        <v>19.0700016161388</v>
+        <v>17.3791473104433</v>
       </c>
       <c r="J29" t="n">
-        <v>18.7439621380038</v>
+        <v>19.524623498086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.4191429670254</v>
+        <v>-5.01136648483758</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.91095555329038</v>
+        <v>-5.76624323915146</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.93375717493384</v>
+        <v>-6.20111534570341</v>
       </c>
       <c r="D30" t="n">
-        <v>13.2189009840987</v>
+        <v>-6.56846348252632</v>
       </c>
       <c r="E30" t="n">
-        <v>4.71898342721006</v>
+        <v>-6.76014672657439</v>
       </c>
       <c r="F30" t="n">
-        <v>4.7407360779609</v>
+        <v>-7.68135813414624</v>
       </c>
       <c r="G30" t="n">
-        <v>5.34824809911545</v>
+        <v>-7.93626295747115</v>
       </c>
       <c r="H30" t="n">
-        <v>6.10036761025273</v>
+        <v>-8.99370389724647</v>
       </c>
       <c r="I30" t="n">
-        <v>6.69519543326322</v>
+        <v>-9.00238828257014</v>
       </c>
       <c r="J30" t="n">
-        <v>7.05555044128252</v>
+        <v>-9.63695631388557</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.0727068389348</v>
+        <v>2.08771031531922</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.95495072513689</v>
+        <v>2.87466075258112</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.10839720667104</v>
+        <v>2.62686726930237</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.5663573141243</v>
+        <v>3.5659734625884</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.32223795647538</v>
+        <v>3.90338224002274</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.55066555588475</v>
+        <v>5.29958787716259</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.03185165129186</v>
+        <v>5.43929744864225</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.69949542882847</v>
+        <v>5.6111634797782</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.04282521945198</v>
+        <v>6.15599399405793</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.76779107474036</v>
+        <v>7.14431681896346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.15734826530853</v>
+        <v>2.33050087849776</v>
       </c>
       <c r="B32" t="n">
-        <v>2.26824196691947</v>
+        <v>2.07565701268978</v>
       </c>
       <c r="C32" t="n">
-        <v>3.50089451807148</v>
+        <v>3.29406723773089</v>
       </c>
       <c r="D32" t="n">
-        <v>4.11992759651526</v>
+        <v>3.52939956410119</v>
       </c>
       <c r="E32" t="n">
-        <v>5.05477202289718</v>
+        <v>4.86012455995686</v>
       </c>
       <c r="F32" t="n">
-        <v>4.61360391765338</v>
+        <v>5.36162432216812</v>
       </c>
       <c r="G32" t="n">
-        <v>4.4899899225339</v>
+        <v>5.63602026525921</v>
       </c>
       <c r="H32" t="n">
-        <v>6.38470988346841</v>
+        <v>5.90363846590169</v>
       </c>
       <c r="I32" t="n">
-        <v>7.11022865901997</v>
+        <v>6.69911308736555</v>
       </c>
       <c r="J32" t="n">
-        <v>6.88994079761027</v>
+        <v>7.16064177902848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.64070003699844</v>
+        <v>2.94535606877258</v>
       </c>
       <c r="B33" t="n">
-        <v>12.8983952846473</v>
+        <v>3.17297836341715</v>
       </c>
       <c r="C33" t="n">
-        <v>11.8934461602582</v>
+        <v>4.12274030699446</v>
       </c>
       <c r="D33" t="n">
-        <v>11.4910518988392</v>
+        <v>2.93738586467412</v>
       </c>
       <c r="E33" t="n">
-        <v>14.6308905121691</v>
+        <v>4.5813943331207</v>
       </c>
       <c r="F33" t="n">
-        <v>14.7444420904107</v>
+        <v>4.6219810915254</v>
       </c>
       <c r="G33" t="n">
-        <v>18.1514044530228</v>
+        <v>5.72331067183348</v>
       </c>
       <c r="H33" t="n">
-        <v>17.7799726559664</v>
+        <v>6.6682039483079</v>
       </c>
       <c r="I33" t="n">
-        <v>19.9559442556873</v>
+        <v>6.67877280005076</v>
       </c>
       <c r="J33" t="n">
-        <v>-9.33257954646703</v>
+        <v>6.84810258180788</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-4.97662614945499</v>
+        <v>10.0473062414581</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.50185440354759</v>
+        <v>11.7289453873524</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.90252754417981</v>
+        <v>13.1450748927001</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.48303372406645</v>
+        <v>13.1683113834953</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.46750590419253</v>
+        <v>14.3391795140023</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.96371927594249</v>
+        <v>15.4623047579486</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.24281591327105</v>
+        <v>16.434878276216</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.58456250250554</v>
+        <v>17.0768437110586</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.16503038707583</v>
+        <v>17.3398048395954</v>
       </c>
       <c r="J34" t="n">
-        <v>-9.15500003813519</v>
+        <v>20.0071575926848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.94472121112859</v>
+        <v>10.3053425311664</v>
       </c>
       <c r="B35" t="n">
-        <v>3.58795135305437</v>
+        <v>11.1276259704155</v>
       </c>
       <c r="C35" t="n">
-        <v>3.39718578301623</v>
+        <v>11.4911088474738</v>
       </c>
       <c r="D35" t="n">
-        <v>4.21015165861978</v>
+        <v>12.434279600617</v>
       </c>
       <c r="E35" t="n">
-        <v>4.08722396832082</v>
+        <v>13.8361932393627</v>
       </c>
       <c r="F35" t="n">
-        <v>4.40465323318637</v>
+        <v>15.0552352946999</v>
       </c>
       <c r="G35" t="n">
-        <v>4.80794017936078</v>
+        <v>5.0277160330036</v>
       </c>
       <c r="H35" t="n">
-        <v>6.12956015394472</v>
+        <v>6.78927038196777</v>
       </c>
       <c r="I35" t="n">
-        <v>6.18818326298813</v>
+        <v>6.09400568622819</v>
       </c>
       <c r="J35" t="n">
-        <v>6.89540127153314</v>
+        <v>7.42362338137911</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.44320918700134</v>
+        <v>-5.1979622879777</v>
       </c>
       <c r="B36" t="n">
-        <v>2.41272291292666</v>
+        <v>-5.57888687013003</v>
       </c>
       <c r="C36" t="n">
-        <v>3.29713487924539</v>
+        <v>-6.06066717597196</v>
       </c>
       <c r="D36" t="n">
-        <v>3.79080533009066</v>
+        <v>-6.43360675898188</v>
       </c>
       <c r="E36" t="n">
-        <v>4.72067837330122</v>
+        <v>-6.67405032645617</v>
       </c>
       <c r="F36" t="n">
-        <v>4.85661174589792</v>
+        <v>-7.65719017470334</v>
       </c>
       <c r="G36" t="n">
-        <v>5.06129082146014</v>
+        <v>-8.17844251850861</v>
       </c>
       <c r="H36" t="n">
-        <v>5.63905273471242</v>
+        <v>-8.34745726834684</v>
       </c>
       <c r="I36" t="n">
-        <v>6.4750435459675</v>
+        <v>-8.44912054734749</v>
       </c>
       <c r="J36" t="n">
-        <v>6.6553014019148</v>
+        <v>-9.20498688476973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.84571120917223</v>
+        <v>-4.60582256692214</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.67333435010496</v>
+        <v>8.71774186245044</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.07429251124231</v>
+        <v>3.87583432299232</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.4364962622126</v>
+        <v>3.56602122578012</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.07701607257461</v>
+        <v>5.05117724755747</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.6333300663245</v>
+        <v>4.18291306611454</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.09527502619948</v>
+        <v>5.92351338228854</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.74787207438049</v>
+        <v>6.19237314754547</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.96607841192313</v>
+        <v>5.76820898254689</v>
       </c>
       <c r="J37" t="n">
-        <v>-9.250015389214</v>
+        <v>7.70511361009676</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.47201049612012</v>
+        <v>9.50715731265967</v>
       </c>
       <c r="B38" t="n">
-        <v>2.67424496727563</v>
+        <v>12.3168134740909</v>
       </c>
       <c r="C38" t="n">
-        <v>3.08196212164795</v>
+        <v>10.6555681065823</v>
       </c>
       <c r="D38" t="n">
-        <v>3.43685986205368</v>
+        <v>12.1048658470775</v>
       </c>
       <c r="E38" t="n">
-        <v>4.91689696076532</v>
+        <v>14.8552161286841</v>
       </c>
       <c r="F38" t="n">
-        <v>5.0595984509605</v>
+        <v>15.5417090050075</v>
       </c>
       <c r="G38" t="n">
-        <v>5.40642314848854</v>
+        <v>15.6208924580132</v>
       </c>
       <c r="H38" t="n">
-        <v>6.00319790297408</v>
+        <v>15.6256249203078</v>
       </c>
       <c r="I38" t="n">
-        <v>6.85293174450505</v>
+        <v>17.2287020262754</v>
       </c>
       <c r="J38" t="n">
-        <v>6.49382130482053</v>
+        <v>17.6483558549591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.0025880338137</v>
+        <v>9.41105208336855</v>
       </c>
       <c r="B39" t="n">
-        <v>10.9207894770327</v>
+        <v>10.7957874102457</v>
       </c>
       <c r="C39" t="n">
-        <v>10.6488769388</v>
+        <v>4.56083608683754</v>
       </c>
       <c r="D39" t="n">
-        <v>13.3880506456398</v>
+        <v>4.60910667511969</v>
       </c>
       <c r="E39" t="n">
-        <v>5.11909525115872</v>
+        <v>4.42464811398244</v>
       </c>
       <c r="F39" t="n">
-        <v>4.90849791028289</v>
+        <v>5.0179946907466</v>
       </c>
       <c r="G39" t="n">
-        <v>5.45736520569692</v>
+        <v>6.31940472479424</v>
       </c>
       <c r="H39" t="n">
-        <v>5.41954233899621</v>
+        <v>6.73888720144546</v>
       </c>
       <c r="I39" t="n">
-        <v>7.4265961111895</v>
+        <v>6.28353156953201</v>
       </c>
       <c r="J39" t="n">
-        <v>6.78304149532303</v>
+        <v>7.13876091877372</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.79732853218868</v>
+        <v>10.5255906233523</v>
       </c>
       <c r="B40" t="n">
-        <v>2.81054411557133</v>
+        <v>10.1039117456902</v>
       </c>
       <c r="C40" t="n">
-        <v>4.17747912058374</v>
+        <v>12.115630645614</v>
       </c>
       <c r="D40" t="n">
-        <v>4.09053638582928</v>
+        <v>13.1747922063555</v>
       </c>
       <c r="E40" t="n">
-        <v>4.78307313375706</v>
+        <v>15.2046320729129</v>
       </c>
       <c r="F40" t="n">
-        <v>5.13538050661703</v>
+        <v>15.7021909666339</v>
       </c>
       <c r="G40" t="n">
-        <v>5.51464176094954</v>
+        <v>15.6624570627055</v>
       </c>
       <c r="H40" t="n">
-        <v>5.3897252841093</v>
+        <v>17.1416045328812</v>
       </c>
       <c r="I40" t="n">
-        <v>6.38118888210894</v>
+        <v>17.0425448118213</v>
       </c>
       <c r="J40" t="n">
-        <v>6.78488750463252</v>
+        <v>18.9648995513208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.1626166193107</v>
+        <v>2.33962665237916</v>
       </c>
       <c r="B41" t="n">
-        <v>3.15534432047913</v>
+        <v>3.6432391396941</v>
       </c>
       <c r="C41" t="n">
-        <v>3.79696130021064</v>
+        <v>3.45896150650403</v>
       </c>
       <c r="D41" t="n">
-        <v>3.57507365946889</v>
+        <v>3.97843678618538</v>
       </c>
       <c r="E41" t="n">
-        <v>3.79766905422923</v>
+        <v>4.46690179753854</v>
       </c>
       <c r="F41" t="n">
-        <v>5.0556841409259</v>
+        <v>5.73180979638033</v>
       </c>
       <c r="G41" t="n">
-        <v>4.981748003448</v>
+        <v>5.53361937542693</v>
       </c>
       <c r="H41" t="n">
-        <v>6.53606885520798</v>
+        <v>5.9263942455795</v>
       </c>
       <c r="I41" t="n">
-        <v>6.86819919307269</v>
+        <v>7.0773668366504</v>
       </c>
       <c r="J41" t="n">
-        <v>6.76505704471267</v>
+        <v>7.24128606310706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.6430771028936</v>
+        <v>-4.70820807426717</v>
       </c>
       <c r="B42" t="n">
-        <v>10.5248046062039</v>
+        <v>-5.27014175976526</v>
       </c>
       <c r="C42" t="n">
-        <v>11.8962285260705</v>
+        <v>-5.89942964531055</v>
       </c>
       <c r="D42" t="n">
-        <v>3.86354046537057</v>
+        <v>-6.38744393216335</v>
       </c>
       <c r="E42" t="n">
-        <v>4.35379354418828</v>
+        <v>-7.00739682123154</v>
       </c>
       <c r="F42" t="n">
-        <v>5.75131046526645</v>
+        <v>-7.63330211979412</v>
       </c>
       <c r="G42" t="n">
-        <v>5.00034629054393</v>
+        <v>-8.04585767814774</v>
       </c>
       <c r="H42" t="n">
-        <v>6.49091441547226</v>
+        <v>-8.29888307157238</v>
       </c>
       <c r="I42" t="n">
-        <v>5.97556279955043</v>
+        <v>-8.70384748371152</v>
       </c>
       <c r="J42" t="n">
-        <v>6.49681549463908</v>
+        <v>-9.70974159234595</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.9537377838929</v>
+        <v>9.5030095881688</v>
       </c>
       <c r="B43" t="n">
-        <v>11.3829622433774</v>
+        <v>11.7527010087081</v>
       </c>
       <c r="C43" t="n">
-        <v>11.2003701077054</v>
+        <v>12.9616174505626</v>
       </c>
       <c r="D43" t="n">
-        <v>12.4410275426938</v>
+        <v>12.8731738375388</v>
       </c>
       <c r="E43" t="n">
-        <v>15.1677984949439</v>
+        <v>13.7370555225559</v>
       </c>
       <c r="F43" t="n">
-        <v>15.5462774987317</v>
+        <v>14.6976374923031</v>
       </c>
       <c r="G43" t="n">
-        <v>15.6842063161428</v>
+        <v>15.489444863652</v>
       </c>
       <c r="H43" t="n">
-        <v>16.6814666395999</v>
+        <v>16.8828618005705</v>
       </c>
       <c r="I43" t="n">
-        <v>-8.8112065918518</v>
+        <v>18.3358895977432</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.00012626439712</v>
+        <v>19.7830938036365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.24286469327213</v>
+        <v>10.8963251057038</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.51399503878362</v>
+        <v>10.9690887880154</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.01293443760747</v>
+        <v>12.3864420070171</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.60967800889467</v>
+        <v>14.3323165958098</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.71592114308679</v>
+        <v>13.1411676782246</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.65840575724007</v>
+        <v>13.7718658431943</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.66485183060625</v>
+        <v>15.1761176203773</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.26924979207823</v>
+        <v>17.6448505014137</v>
       </c>
       <c r="I44" t="n">
-        <v>-8.78687303618251</v>
+        <v>18.0145875721792</v>
       </c>
       <c r="J44" t="n">
-        <v>-10.1385814151147</v>
+        <v>6.5092444490878</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.484072171225</v>
+        <v>9.65158774416375</v>
       </c>
       <c r="B45" t="n">
-        <v>11.401230984389</v>
+        <v>10.9464095942615</v>
       </c>
       <c r="C45" t="n">
-        <v>11.999478636114</v>
+        <v>10.6710412562025</v>
       </c>
       <c r="D45" t="n">
-        <v>13.5984025309119</v>
+        <v>14.6069353594304</v>
       </c>
       <c r="E45" t="n">
-        <v>14.2505908224095</v>
+        <v>14.2270993438385</v>
       </c>
       <c r="F45" t="n">
-        <v>14.4669113228785</v>
+        <v>15.5535390887565</v>
       </c>
       <c r="G45" t="n">
-        <v>16.2950729756431</v>
+        <v>16.6614713523427</v>
       </c>
       <c r="H45" t="n">
-        <v>16.7875894409567</v>
+        <v>16.7614855623443</v>
       </c>
       <c r="I45" t="n">
-        <v>17.9468393484706</v>
+        <v>17.480984714083</v>
       </c>
       <c r="J45" t="n">
-        <v>19.8113797758435</v>
+        <v>19.1254576426424</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.76799478843128</v>
+        <v>7.96989477835387</v>
       </c>
       <c r="B46" t="n">
-        <v>2.90891272672851</v>
+        <v>10.5105374753686</v>
       </c>
       <c r="C46" t="n">
-        <v>3.44391509980108</v>
+        <v>10.7739440950114</v>
       </c>
       <c r="D46" t="n">
-        <v>3.82653947077378</v>
+        <v>12.6200183379054</v>
       </c>
       <c r="E46" t="n">
-        <v>4.54771410324158</v>
+        <v>13.0760365728596</v>
       </c>
       <c r="F46" t="n">
-        <v>4.85416356143305</v>
+        <v>15.2267767287935</v>
       </c>
       <c r="G46" t="n">
-        <v>4.21348970176438</v>
+        <v>15.5832246717447</v>
       </c>
       <c r="H46" t="n">
-        <v>6.48666305114739</v>
+        <v>18.0792334073947</v>
       </c>
       <c r="I46" t="n">
-        <v>6.33195508315887</v>
+        <v>18.6196818395846</v>
       </c>
       <c r="J46" t="n">
-        <v>6.4391955879524</v>
+        <v>18.6108186353226</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.88416698316101</v>
+        <v>9.20227525503585</v>
       </c>
       <c r="B47" t="n">
-        <v>11.2522973175826</v>
+        <v>10.9587166768261</v>
       </c>
       <c r="C47" t="n">
-        <v>4.01200851526021</v>
+        <v>12.838943661786</v>
       </c>
       <c r="D47" t="n">
-        <v>4.88388324930009</v>
+        <v>11.9961980150914</v>
       </c>
       <c r="E47" t="n">
-        <v>4.52084842277357</v>
+        <v>12.6682942867086</v>
       </c>
       <c r="F47" t="n">
-        <v>4.64857088758204</v>
+        <v>15.1202205339993</v>
       </c>
       <c r="G47" t="n">
-        <v>6.98740689539487</v>
+        <v>14.0370745775629</v>
       </c>
       <c r="H47" t="n">
-        <v>6.59998385252984</v>
+        <v>15.8720728522704</v>
       </c>
       <c r="I47" t="n">
-        <v>6.47560910426688</v>
+        <v>17.8676626452967</v>
       </c>
       <c r="J47" t="n">
-        <v>7.18717625149122</v>
+        <v>18.942367609539</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.3192784275499</v>
+        <v>3.24977435757116</v>
       </c>
       <c r="B48" t="n">
-        <v>3.63781473515724</v>
+        <v>2.93980496308251</v>
       </c>
       <c r="C48" t="n">
-        <v>4.05112519724987</v>
+        <v>3.31207156391516</v>
       </c>
       <c r="D48" t="n">
-        <v>4.26045800015452</v>
+        <v>3.96245281838448</v>
       </c>
       <c r="E48" t="n">
-        <v>4.93597450280059</v>
+        <v>4.34107095291883</v>
       </c>
       <c r="F48" t="n">
-        <v>4.90625726420005</v>
+        <v>4.60595463007688</v>
       </c>
       <c r="G48" t="n">
-        <v>5.27520526572429</v>
+        <v>5.64621467653288</v>
       </c>
       <c r="H48" t="n">
-        <v>6.41365854135897</v>
+        <v>6.00085623690925</v>
       </c>
       <c r="I48" t="n">
-        <v>7.51850500875443</v>
+        <v>5.84560413328488</v>
       </c>
       <c r="J48" t="n">
-        <v>6.1667183210572</v>
+        <v>7.16904274492157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-5.15366472920442</v>
+        <v>-5.42211317789575</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.644277303651</v>
+        <v>-4.96375253098776</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.44683994629795</v>
+        <v>-6.32816474067776</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.75356393541017</v>
+        <v>-6.65652963926316</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.45616259173666</v>
+        <v>-7.1230669977907</v>
       </c>
       <c r="F49" t="n">
-        <v>-7.2367000358694</v>
+        <v>-7.66382324377762</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.12597250543956</v>
+        <v>-7.77188653448332</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.42182643806443</v>
+        <v>-8.32730083208222</v>
       </c>
       <c r="I49" t="n">
-        <v>-9.03434331451891</v>
+        <v>-8.77137995474631</v>
       </c>
       <c r="J49" t="n">
-        <v>-10.137503929103</v>
+        <v>-9.36827998586869</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.1824286152911</v>
+        <v>-5.23903468031181</v>
       </c>
       <c r="B50" t="n">
-        <v>10.2698195415697</v>
+        <v>-5.51577695672793</v>
       </c>
       <c r="C50" t="n">
-        <v>13.1251497974773</v>
+        <v>-6.01270886688587</v>
       </c>
       <c r="D50" t="n">
-        <v>13.1820769409253</v>
+        <v>-6.23728835712945</v>
       </c>
       <c r="E50" t="n">
-        <v>13.2856552475684</v>
+        <v>-6.93416735775784</v>
       </c>
       <c r="F50" t="n">
-        <v>15.2696398595207</v>
+        <v>-7.5128048616394</v>
       </c>
       <c r="G50" t="n">
-        <v>14.409574967719</v>
+        <v>-8.01238665395459</v>
       </c>
       <c r="H50" t="n">
-        <v>17.0629052933</v>
+        <v>-8.21044434981672</v>
       </c>
       <c r="I50" t="n">
-        <v>18.2933653556975</v>
+        <v>-8.96549414026189</v>
       </c>
       <c r="J50" t="n">
-        <v>19.8511961932636</v>
+        <v>-9.33687838171653</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11.0415658389099</v>
+        <v>9.53766001724427</v>
       </c>
       <c r="B51" t="n">
-        <v>11.7530851243975</v>
+        <v>11.2020948380208</v>
       </c>
       <c r="C51" t="n">
-        <v>11.3292337714076</v>
+        <v>11.7408975443501</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.19569738774287</v>
+        <v>13.0846338399087</v>
       </c>
       <c r="E51" t="n">
-        <v>4.78608319979035</v>
+        <v>11.8922538352309</v>
       </c>
       <c r="F51" t="n">
-        <v>5.24041293845136</v>
+        <v>15.6380164331328</v>
       </c>
       <c r="G51" t="n">
-        <v>4.77516782050108</v>
+        <v>15.8705335362676</v>
       </c>
       <c r="H51" t="n">
-        <v>6.56007538260192</v>
+        <v>17.7818156059599</v>
       </c>
       <c r="I51" t="n">
-        <v>17.1123303422813</v>
+        <v>18.9091289425633</v>
       </c>
       <c r="J51" t="n">
-        <v>19.6464818247926</v>
+        <v>18.5502460492855</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.84156456186157</v>
+        <v>10.808907197877</v>
       </c>
       <c r="B52" t="n">
-        <v>3.35169564086159</v>
+        <v>11.2106579983079</v>
       </c>
       <c r="C52" t="n">
-        <v>2.7549527493195</v>
+        <v>11.9828444158728</v>
       </c>
       <c r="D52" t="n">
-        <v>4.28002407653653</v>
+        <v>13.1045478297461</v>
       </c>
       <c r="E52" t="n">
-        <v>4.28315428412468</v>
+        <v>12.9984984274053</v>
       </c>
       <c r="F52" t="n">
-        <v>5.5681403536056</v>
+        <v>15.4155732280191</v>
       </c>
       <c r="G52" t="n">
-        <v>4.56201896846441</v>
+        <v>15.1973268893756</v>
       </c>
       <c r="H52" t="n">
-        <v>6.47215447903998</v>
+        <v>15.7543229005474</v>
       </c>
       <c r="I52" t="n">
-        <v>7.03298422302676</v>
+        <v>19.2081553398089</v>
       </c>
       <c r="J52" t="n">
-        <v>6.37408324519893</v>
+        <v>18.6021557641466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.03709166601567</v>
+        <v>-4.82447661814012</v>
       </c>
       <c r="B53" t="n">
-        <v>10.0771435050992</v>
+        <v>-5.68856401603482</v>
       </c>
       <c r="C53" t="n">
-        <v>11.4541555485363</v>
+        <v>-5.8834386274371</v>
       </c>
       <c r="D53" t="n">
-        <v>14.0788215518563</v>
+        <v>-6.60776919243418</v>
       </c>
       <c r="E53" t="n">
-        <v>15.5635121631303</v>
+        <v>-7.23148770347396</v>
       </c>
       <c r="F53" t="n">
-        <v>16.4289458970858</v>
+        <v>-7.9263739923602</v>
       </c>
       <c r="G53" t="n">
-        <v>15.8952586119485</v>
+        <v>-8.25837039941316</v>
       </c>
       <c r="H53" t="n">
-        <v>17.9700384896072</v>
+        <v>-8.83186092673235</v>
       </c>
       <c r="I53" t="n">
-        <v>17.4064926331696</v>
+        <v>-8.64393959543237</v>
       </c>
       <c r="J53" t="n">
-        <v>19.5000523223605</v>
+        <v>-9.30802449397381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.97047325812126</v>
+        <v>10.7017709329752</v>
       </c>
       <c r="B54" t="n">
-        <v>3.09161139336955</v>
+        <v>10.6733612241691</v>
       </c>
       <c r="C54" t="n">
-        <v>11.5395446761246</v>
+        <v>10.965210529967</v>
       </c>
       <c r="D54" t="n">
-        <v>12.408634807759</v>
+        <v>12.0611962327738</v>
       </c>
       <c r="E54" t="n">
-        <v>13.5069690992618</v>
+        <v>-6.74019672191928</v>
       </c>
       <c r="F54" t="n">
-        <v>13.1072983265927</v>
+        <v>-7.70171382394156</v>
       </c>
       <c r="G54" t="n">
-        <v>14.2583485476731</v>
+        <v>16.2311036218449</v>
       </c>
       <c r="H54" t="n">
-        <v>16.430213188549</v>
+        <v>16.8758004876121</v>
       </c>
       <c r="I54" t="n">
-        <v>6.87598905154251</v>
+        <v>17.9091030248942</v>
       </c>
       <c r="J54" t="n">
-        <v>6.82301363906758</v>
+        <v>20.4479349787679</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.4048886037729</v>
+        <v>10.2367999131449</v>
       </c>
       <c r="B55" t="n">
-        <v>10.7433338804059</v>
+        <v>10.1465546206746</v>
       </c>
       <c r="C55" t="n">
-        <v>11.2187012695263</v>
+        <v>12.563341576104</v>
       </c>
       <c r="D55" t="n">
-        <v>12.417231653978</v>
+        <v>13.1855308612866</v>
       </c>
       <c r="E55" t="n">
-        <v>12.611746058197</v>
+        <v>14.0836360384264</v>
       </c>
       <c r="F55" t="n">
-        <v>16.8026643923845</v>
+        <v>15.0965597225605</v>
       </c>
       <c r="G55" t="n">
-        <v>15.6207698952086</v>
+        <v>17.2207429162987</v>
       </c>
       <c r="H55" t="n">
-        <v>17.0212202775313</v>
+        <v>16.516168112745</v>
       </c>
       <c r="I55" t="n">
-        <v>19.1957980580919</v>
+        <v>17.8556256969154</v>
       </c>
       <c r="J55" t="n">
-        <v>18.7343534188049</v>
+        <v>19.0006913113911</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.56826789841097</v>
+        <v>10.573159125538</v>
       </c>
       <c r="B56" t="n">
-        <v>11.8555466783488</v>
+        <v>10.8397699650658</v>
       </c>
       <c r="C56" t="n">
-        <v>12.8219308295658</v>
+        <v>11.608565030874</v>
       </c>
       <c r="D56" t="n">
-        <v>13.957561881833</v>
+        <v>13.8550701266986</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.1583863718195</v>
+        <v>13.5387609519449</v>
       </c>
       <c r="F56" t="n">
-        <v>-7.2001384847073</v>
+        <v>16.1256060379766</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.21309684485166</v>
+        <v>15.1091041046772</v>
       </c>
       <c r="H56" t="n">
-        <v>-8.10546788479728</v>
+        <v>17.7498705584962</v>
       </c>
       <c r="I56" t="n">
-        <v>-9.31459553958822</v>
+        <v>17.2547271511163</v>
       </c>
       <c r="J56" t="n">
-        <v>-9.72947706490754</v>
+        <v>17.9449901372425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-4.93987784603642</v>
+        <v>10.4612905106618</v>
       </c>
       <c r="B57" t="n">
-        <v>-6.1083648185995</v>
+        <v>10.0047691843751</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.07875069713076</v>
+        <v>10.0100608777041</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.05469175414721</v>
+        <v>12.7805591701246</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.21237601221368</v>
+        <v>15.0574643847422</v>
       </c>
       <c r="F57" t="n">
-        <v>-7.44141021590328</v>
+        <v>14.8841033217929</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.84165240238848</v>
+        <v>15.1270408787892</v>
       </c>
       <c r="H57" t="n">
-        <v>-8.24550300443209</v>
+        <v>17.9576014971704</v>
       </c>
       <c r="I57" t="n">
-        <v>-9.14273181628987</v>
+        <v>18.6509193305041</v>
       </c>
       <c r="J57" t="n">
-        <v>-9.38756944803684</v>
+        <v>18.7634276443756</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-4.71124788945744</v>
+        <v>9.71425787250041</v>
       </c>
       <c r="B58" t="n">
-        <v>-6.14505876046908</v>
+        <v>9.79671985741016</v>
       </c>
       <c r="C58" t="n">
-        <v>-6.19147273711876</v>
+        <v>12.3800616651015</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.91886017112486</v>
+        <v>12.4756975413528</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.72410167197293</v>
+        <v>-6.91431356789186</v>
       </c>
       <c r="F58" t="n">
-        <v>-7.74653824896373</v>
+        <v>-7.40981110220968</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.95830469298183</v>
+        <v>-7.93707985754536</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.12002541539906</v>
+        <v>-8.73331408289363</v>
       </c>
       <c r="I58" t="n">
-        <v>-9.07634670889856</v>
+        <v>-9.01501232510677</v>
       </c>
       <c r="J58" t="n">
-        <v>-9.49960502467536</v>
+        <v>-9.16561417608838</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.23090978023422</v>
+        <v>1.89885570477937</v>
       </c>
       <c r="B59" t="n">
-        <v>10.336189009478</v>
+        <v>11.1269034729255</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5500108007881</v>
+        <v>13.0074709966748</v>
       </c>
       <c r="D59" t="n">
-        <v>14.2026605634855</v>
+        <v>12.7587333141117</v>
       </c>
       <c r="E59" t="n">
-        <v>12.3985899370276</v>
+        <v>-7.34234678996002</v>
       </c>
       <c r="F59" t="n">
-        <v>15.0117206982935</v>
+        <v>-7.87300618067468</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.9816678076019</v>
+        <v>-7.34519770998463</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.42115302789163</v>
+        <v>-8.40605913278494</v>
       </c>
       <c r="I59" t="n">
-        <v>-8.83709778145682</v>
+        <v>-8.94011575270099</v>
       </c>
       <c r="J59" t="n">
-        <v>-9.74186864947769</v>
+        <v>-9.03299492660906</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11.1186750711025</v>
+        <v>10.2065592016581</v>
       </c>
       <c r="B60" t="n">
-        <v>10.4272430446009</v>
+        <v>10.8439898264977</v>
       </c>
       <c r="C60" t="n">
-        <v>12.3263919879327</v>
+        <v>12.9022444260199</v>
       </c>
       <c r="D60" t="n">
-        <v>-6.57296598021159</v>
+        <v>13.809186554406</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.8096451565386</v>
+        <v>14.2998609683256</v>
       </c>
       <c r="F60" t="n">
-        <v>-7.31309128379984</v>
+        <v>-8.12860367599557</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.28788277081467</v>
+        <v>-8.21108227014712</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.6955208795785</v>
+        <v>-8.85148159578876</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.76097194747977</v>
+        <v>-9.01960049037513</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.7282974759787</v>
+        <v>-9.43989183159267</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.62895531106584</v>
+        <v>9.9750255176599</v>
       </c>
       <c r="B61" t="n">
-        <v>11.5968373106833</v>
+        <v>10.177560741974</v>
       </c>
       <c r="C61" t="n">
-        <v>12.0532194439415</v>
+        <v>11.9508202176105</v>
       </c>
       <c r="D61" t="n">
-        <v>14.2101577430345</v>
+        <v>12.1962301855677</v>
       </c>
       <c r="E61" t="n">
-        <v>14.5979619055717</v>
+        <v>14.7883575566709</v>
       </c>
       <c r="F61" t="n">
-        <v>15.9370770903513</v>
+        <v>14.1943829660255</v>
       </c>
       <c r="G61" t="n">
-        <v>15.0847398898498</v>
+        <v>16.1700202847134</v>
       </c>
       <c r="H61" t="n">
-        <v>18.0248231421245</v>
+        <v>6.07329712293695</v>
       </c>
       <c r="I61" t="n">
-        <v>17.8273875357695</v>
+        <v>6.13911835025051</v>
       </c>
       <c r="J61" t="n">
-        <v>19.7141438366922</v>
+        <v>7.45346440203312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.37495593432795</v>
+        <v>-4.60805394590661</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.52705888560936</v>
+        <v>-5.30171304269407</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.79996974438665</v>
+        <v>-6.2154809755146</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.68623574398286</v>
+        <v>-6.16696114651583</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.97630016852965</v>
+        <v>-7.44352404467098</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.99781617013438</v>
+        <v>-7.67152953555988</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.17304747068894</v>
+        <v>-8.18303345728908</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.12772767058865</v>
+        <v>-8.54809588083408</v>
       </c>
       <c r="I62" t="n">
-        <v>-9.05192808583114</v>
+        <v>-8.72659929501935</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.24150324075169</v>
+        <v>-9.95091164428861</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.0815844398917</v>
+        <v>2.32272172548798</v>
       </c>
       <c r="B63" t="n">
-        <v>1.62739063610384</v>
+        <v>2.70634615983698</v>
       </c>
       <c r="C63" t="n">
-        <v>2.58346975091512</v>
+        <v>3.76831869109395</v>
       </c>
       <c r="D63" t="n">
-        <v>3.87238667624422</v>
+        <v>3.72654071810721</v>
       </c>
       <c r="E63" t="n">
-        <v>5.21065061309343</v>
+        <v>4.41580989675583</v>
       </c>
       <c r="F63" t="n">
-        <v>4.30476590973565</v>
+        <v>5.03137634336011</v>
       </c>
       <c r="G63" t="n">
-        <v>5.45693558294912</v>
+        <v>4.46963433594945</v>
       </c>
       <c r="H63" t="n">
-        <v>5.08625204556494</v>
+        <v>6.51975435584799</v>
       </c>
       <c r="I63" t="n">
-        <v>6.58695809181358</v>
+        <v>6.54560041308745</v>
       </c>
       <c r="J63" t="n">
-        <v>6.59317469422143</v>
+        <v>6.67746404007299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.83905616925883</v>
+        <v>9.91060498556203</v>
       </c>
       <c r="B64" t="n">
-        <v>9.4977886569322</v>
+        <v>3.02328788106407</v>
       </c>
       <c r="C64" t="n">
-        <v>10.5061300398833</v>
+        <v>3.6608273109063</v>
       </c>
       <c r="D64" t="n">
-        <v>13.9766498018262</v>
+        <v>2.73591290339847</v>
       </c>
       <c r="E64" t="n">
-        <v>13.8400222894527</v>
+        <v>4.80901842351157</v>
       </c>
       <c r="F64" t="n">
-        <v>15.1418530243031</v>
+        <v>5.36167617374343</v>
       </c>
       <c r="G64" t="n">
-        <v>15.6299938786324</v>
+        <v>5.62562639727453</v>
       </c>
       <c r="H64" t="n">
-        <v>5.99523406018616</v>
+        <v>6.17838660789731</v>
       </c>
       <c r="I64" t="n">
-        <v>7.11866951673887</v>
+        <v>6.12692369010468</v>
       </c>
       <c r="J64" t="n">
-        <v>7.26866264340255</v>
+        <v>7.17674636304401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.06595514209774</v>
+        <v>9.98018653319226</v>
       </c>
       <c r="B65" t="n">
-        <v>3.63425968830819</v>
+        <v>10.3667526162984</v>
       </c>
       <c r="C65" t="n">
-        <v>3.53448770772349</v>
+        <v>12.1354527382549</v>
       </c>
       <c r="D65" t="n">
-        <v>3.56175822101809</v>
+        <v>12.7184548155036</v>
       </c>
       <c r="E65" t="n">
-        <v>4.94134578491288</v>
+        <v>13.9965530531013</v>
       </c>
       <c r="F65" t="n">
-        <v>5.41647591458618</v>
+        <v>16.4076003536652</v>
       </c>
       <c r="G65" t="n">
-        <v>5.61442119831013</v>
+        <v>15.8659537071303</v>
       </c>
       <c r="H65" t="n">
-        <v>5.07342540961686</v>
+        <v>16.7535466167888</v>
       </c>
       <c r="I65" t="n">
-        <v>6.32783375200512</v>
+        <v>18.939860200582</v>
       </c>
       <c r="J65" t="n">
-        <v>6.53151025758569</v>
+        <v>19.5090726156246</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-5.0331536690835</v>
+        <v>1.61568576260136</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.65803079577191</v>
+        <v>3.55860455614548</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.42628966462278</v>
+        <v>3.96498890136669</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.62579190578065</v>
+        <v>3.82320600188967</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.27752779237977</v>
+        <v>4.46464830090061</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.84578467662655</v>
+        <v>5.20941844100649</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.77223224731268</v>
+        <v>5.84260272847665</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.63643924808949</v>
+        <v>6.46496712808747</v>
       </c>
       <c r="I66" t="n">
-        <v>-9.01753402212125</v>
+        <v>6.51578457993689</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.20215344792051</v>
+        <v>7.32756677710276</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.94985709361471</v>
+        <v>10.1062763260377</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.49468988338523</v>
+        <v>10.015056119378</v>
       </c>
       <c r="C67" t="n">
-        <v>-6.08674383508171</v>
+        <v>12.4966959975</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.48949687293986</v>
+        <v>13.4393531083219</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.28542858288007</v>
+        <v>13.5107122859706</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.67841543541099</v>
+        <v>15.4019636122339</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.99165952759718</v>
+        <v>-7.86349857749118</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.43307754669251</v>
+        <v>-8.50698996774009</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.30066193771627</v>
+        <v>-9.26017772636882</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.50801106954375</v>
+        <v>-8.99151853581627</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.76823023281369</v>
+        <v>-4.76881757742773</v>
       </c>
       <c r="B68" t="n">
-        <v>11.6993594356639</v>
+        <v>-6.22956010146505</v>
       </c>
       <c r="C68" t="n">
-        <v>11.6599282624762</v>
+        <v>-6.39778485596241</v>
       </c>
       <c r="D68" t="n">
-        <v>13.4628073446072</v>
+        <v>-6.20820972305678</v>
       </c>
       <c r="E68" t="n">
-        <v>14.5942286137654</v>
+        <v>-7.20346696931441</v>
       </c>
       <c r="F68" t="n">
-        <v>16.2921085448089</v>
+        <v>-7.59036176639339</v>
       </c>
       <c r="G68" t="n">
-        <v>15.774001903579</v>
+        <v>-7.67754275386325</v>
       </c>
       <c r="H68" t="n">
-        <v>15.6054200951162</v>
+        <v>-8.71299779766728</v>
       </c>
       <c r="I68" t="n">
-        <v>18.6153045471078</v>
+        <v>18.2392030143164</v>
       </c>
       <c r="J68" t="n">
-        <v>19.2560124852998</v>
+        <v>18.8826728510192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.237728013491</v>
+        <v>3.13508826278323</v>
       </c>
       <c r="B69" t="n">
-        <v>10.103588151557</v>
+        <v>2.61589836840675</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4125097339232</v>
+        <v>3.95255985351451</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.47481966968454</v>
+        <v>4.23839640407138</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.02472408536504</v>
+        <v>5.52075969584102</v>
       </c>
       <c r="F69" t="n">
-        <v>-7.13322358029103</v>
+        <v>4.77957009346694</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.73127518030948</v>
+        <v>5.32332419835852</v>
       </c>
       <c r="H69" t="n">
-        <v>-8.34181822898708</v>
+        <v>6.00201831758484</v>
       </c>
       <c r="I69" t="n">
-        <v>-8.7725697499782</v>
+        <v>6.54468855423099</v>
       </c>
       <c r="J69" t="n">
-        <v>-9.37603107759298</v>
+        <v>6.55265726653488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.87188894109164</v>
+        <v>-5.27693599476974</v>
       </c>
       <c r="B70" t="n">
-        <v>11.3176187746834</v>
+        <v>-5.41557294654718</v>
       </c>
       <c r="C70" t="n">
-        <v>10.5345068037659</v>
+        <v>-6.11401242717764</v>
       </c>
       <c r="D70" t="n">
-        <v>12.7683273754916</v>
+        <v>-6.81521861484046</v>
       </c>
       <c r="E70" t="n">
-        <v>4.59508668105392</v>
+        <v>-7.15060151586382</v>
       </c>
       <c r="F70" t="n">
-        <v>3.79903181128728</v>
+        <v>-7.37950538061475</v>
       </c>
       <c r="G70" t="n">
-        <v>6.04229479675184</v>
+        <v>-7.90326978947447</v>
       </c>
       <c r="H70" t="n">
-        <v>7.55507666540324</v>
+        <v>-8.49960269298366</v>
       </c>
       <c r="I70" t="n">
-        <v>7.27417363474626</v>
+        <v>-9.06604406401531</v>
       </c>
       <c r="J70" t="n">
-        <v>7.39257582299894</v>
+        <v>-9.49124054782636</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.75793358950502</v>
+        <v>-5.46358552851653</v>
       </c>
       <c r="B71" t="n">
-        <v>10.5927876343505</v>
+        <v>-5.4456082242037</v>
       </c>
       <c r="C71" t="n">
-        <v>12.2522846337522</v>
+        <v>-5.90216263374259</v>
       </c>
       <c r="D71" t="n">
-        <v>14.1626137192163</v>
+        <v>-6.19916480740987</v>
       </c>
       <c r="E71" t="n">
-        <v>13.7560198914645</v>
+        <v>-6.64055422694869</v>
       </c>
       <c r="F71" t="n">
-        <v>14.646238096853</v>
+        <v>-7.89381385275651</v>
       </c>
       <c r="G71" t="n">
-        <v>16.6821502333145</v>
+        <v>-7.75661716152505</v>
       </c>
       <c r="H71" t="n">
-        <v>16.4551543184133</v>
+        <v>-8.12347021084971</v>
       </c>
       <c r="I71" t="n">
-        <v>18.5975793798308</v>
+        <v>-9.20292742974043</v>
       </c>
       <c r="J71" t="n">
-        <v>18.7776339237859</v>
+        <v>-9.46953944786431</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-4.77099198475095</v>
+        <v>2.122779455769</v>
       </c>
       <c r="B72" t="n">
-        <v>3.56430980005605</v>
+        <v>3.30693614616084</v>
       </c>
       <c r="C72" t="n">
-        <v>4.12422213642817</v>
+        <v>3.18092793098872</v>
       </c>
       <c r="D72" t="n">
-        <v>4.07502291593808</v>
+        <v>3.86981782238615</v>
       </c>
       <c r="E72" t="n">
-        <v>4.58323680339678</v>
+        <v>4.75078699521086</v>
       </c>
       <c r="F72" t="n">
-        <v>4.75448602960388</v>
+        <v>4.18731818823936</v>
       </c>
       <c r="G72" t="n">
-        <v>4.79429881754448</v>
+        <v>5.21153383814863</v>
       </c>
       <c r="H72" t="n">
-        <v>5.1536346910629</v>
+        <v>5.97145942523055</v>
       </c>
       <c r="I72" t="n">
-        <v>6.66051050088185</v>
+        <v>7.29636821553983</v>
       </c>
       <c r="J72" t="n">
-        <v>6.95768927084082</v>
+        <v>7.13796400581183</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.98820259781274</v>
+        <v>2.83377297902994</v>
       </c>
       <c r="B73" t="n">
-        <v>4.07066398595219</v>
+        <v>3.18868142761503</v>
       </c>
       <c r="C73" t="n">
-        <v>3.75384523786696</v>
+        <v>3.76699010089879</v>
       </c>
       <c r="D73" t="n">
-        <v>4.10835433367785</v>
+        <v>3.34992338684708</v>
       </c>
       <c r="E73" t="n">
-        <v>4.01553242782796</v>
+        <v>4.38569848233131</v>
       </c>
       <c r="F73" t="n">
-        <v>5.14597923276279</v>
+        <v>5.05999702981776</v>
       </c>
       <c r="G73" t="n">
-        <v>6.22370661317047</v>
+        <v>6.06397643591532</v>
       </c>
       <c r="H73" t="n">
-        <v>5.51829664206364</v>
+        <v>6.12058777427031</v>
       </c>
       <c r="I73" t="n">
-        <v>6.3582874062383</v>
+        <v>6.25842639781818</v>
       </c>
       <c r="J73" t="n">
-        <v>7.99122402063069</v>
+        <v>7.11707844970418</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.48457827939752</v>
+        <v>-4.53836679060418</v>
       </c>
       <c r="B74" t="n">
-        <v>2.68572436677314</v>
+        <v>-5.62638901516298</v>
       </c>
       <c r="C74" t="n">
-        <v>3.74386064680969</v>
+        <v>-6.10006933227621</v>
       </c>
       <c r="D74" t="n">
-        <v>4.06713535300888</v>
+        <v>-6.48690290455802</v>
       </c>
       <c r="E74" t="n">
-        <v>4.47786415027037</v>
+        <v>-7.47813434306735</v>
       </c>
       <c r="F74" t="n">
-        <v>4.74594070084448</v>
+        <v>-7.80176217084229</v>
       </c>
       <c r="G74" t="n">
-        <v>7.07150011017906</v>
+        <v>-8.42439122183436</v>
       </c>
       <c r="H74" t="n">
-        <v>5.51204449009765</v>
+        <v>-8.71903654349255</v>
       </c>
       <c r="I74" t="n">
-        <v>6.53601649266466</v>
+        <v>-9.05936590177266</v>
       </c>
       <c r="J74" t="n">
-        <v>7.58549327952432</v>
+        <v>-9.28704417769448</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-5.3320714353788</v>
+        <v>10.4148607358566</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.66650791295665</v>
+        <v>10.4093237964967</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.74138676319541</v>
+        <v>11.7029883561479</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.60563808683666</v>
+        <v>12.2018353148293</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.32402160169802</v>
+        <v>14.2829173968884</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.66018543282726</v>
+        <v>14.4261758487176</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.07392331076016</v>
+        <v>17.7013697152664</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.36782119003318</v>
+        <v>17.8399279838867</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.01766297567391</v>
+        <v>18.5469050179002</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.41523464534847</v>
+        <v>18.2648126926264</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-5.63338724188477</v>
+        <v>9.99346650827903</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.57802121311132</v>
+        <v>10.4592836659117</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.82826561518552</v>
+        <v>11.9930522010107</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.49382029705318</v>
+        <v>13.3272645845051</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.39798144670405</v>
+        <v>13.0884065774888</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.3178522278871</v>
+        <v>15.1604593164437</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.62314403216748</v>
+        <v>16.720994842848</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.50869652477189</v>
+        <v>16.5774717548392</v>
       </c>
       <c r="I76" t="n">
-        <v>-8.65215448804702</v>
+        <v>17.7215368456625</v>
       </c>
       <c r="J76" t="n">
-        <v>-9.20727992879716</v>
+        <v>18.2812357328255</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.8979915358964</v>
+        <v>-4.58432121560297</v>
       </c>
       <c r="B77" t="n">
-        <v>10.9871772542773</v>
+        <v>-5.56400057743631</v>
       </c>
       <c r="C77" t="n">
-        <v>12.4759474218955</v>
+        <v>-5.85754380729376</v>
       </c>
       <c r="D77" t="n">
-        <v>12.2437559542773</v>
+        <v>-6.55803705564023</v>
       </c>
       <c r="E77" t="n">
-        <v>12.4580361108816</v>
+        <v>-6.95507179997371</v>
       </c>
       <c r="F77" t="n">
-        <v>14.6327538630681</v>
+        <v>-7.49104487600204</v>
       </c>
       <c r="G77" t="n">
-        <v>14.6868644808936</v>
+        <v>-7.89427771149759</v>
       </c>
       <c r="H77" t="n">
-        <v>16.223372960364</v>
+        <v>-8.25244858163774</v>
       </c>
       <c r="I77" t="n">
-        <v>18.5291034085902</v>
+        <v>-8.98928818330278</v>
       </c>
       <c r="J77" t="n">
-        <v>18.4511673976163</v>
+        <v>-9.49768509935723</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.57160614434476</v>
+        <v>-4.81058254234718</v>
       </c>
       <c r="B78" t="n">
-        <v>3.09611741715806</v>
+        <v>-4.90700614608542</v>
       </c>
       <c r="C78" t="n">
-        <v>3.68548613951867</v>
+        <v>-5.7583672227798</v>
       </c>
       <c r="D78" t="n">
-        <v>3.56647174453014</v>
+        <v>-6.93005833530328</v>
       </c>
       <c r="E78" t="n">
-        <v>4.61617821291897</v>
+        <v>14.3315474691615</v>
       </c>
       <c r="F78" t="n">
-        <v>5.04785998679262</v>
+        <v>14.9099280185316</v>
       </c>
       <c r="G78" t="n">
-        <v>5.49810380774275</v>
+        <v>16.0112194112892</v>
       </c>
       <c r="H78" t="n">
-        <v>5.30207823496378</v>
+        <v>17.0481130913638</v>
       </c>
       <c r="I78" t="n">
-        <v>6.24432294086242</v>
+        <v>18.3010856551863</v>
       </c>
       <c r="J78" t="n">
-        <v>6.34835900928702</v>
+        <v>18.4759569768881</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.14073745043313</v>
+        <v>8.29609689335848</v>
       </c>
       <c r="B79" t="n">
-        <v>2.4739539763488</v>
+        <v>11.3564987712654</v>
       </c>
       <c r="C79" t="n">
-        <v>3.21333887977215</v>
+        <v>11.9057884402399</v>
       </c>
       <c r="D79" t="n">
-        <v>3.64376971360772</v>
+        <v>13.0417897115179</v>
       </c>
       <c r="E79" t="n">
-        <v>4.45693673024663</v>
+        <v>13.7072576378017</v>
       </c>
       <c r="F79" t="n">
-        <v>5.15646223945201</v>
+        <v>14.6123165783949</v>
       </c>
       <c r="G79" t="n">
-        <v>5.37603616195414</v>
+        <v>16.7552454282441</v>
       </c>
       <c r="H79" t="n">
-        <v>6.04093028715089</v>
+        <v>17.759972434054</v>
       </c>
       <c r="I79" t="n">
-        <v>6.46812506426949</v>
+        <v>17.4517827597415</v>
       </c>
       <c r="J79" t="n">
-        <v>6.44635527823255</v>
+        <v>18.4457065800752</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.9325605573419</v>
+        <v>9.98127452301285</v>
       </c>
       <c r="B80" t="n">
-        <v>12.2720975344673</v>
+        <v>10.6032177949756</v>
       </c>
       <c r="C80" t="n">
-        <v>11.4122342988114</v>
+        <v>12.2442042704296</v>
       </c>
       <c r="D80" t="n">
-        <v>3.69893744602825</v>
+        <v>12.638490061124</v>
       </c>
       <c r="E80" t="n">
-        <v>4.74766397286439</v>
+        <v>14.8209885085456</v>
       </c>
       <c r="F80" t="n">
-        <v>5.57508291319099</v>
+        <v>14.9377594313537</v>
       </c>
       <c r="G80" t="n">
-        <v>5.31501049937273</v>
+        <v>13.796841719377</v>
       </c>
       <c r="H80" t="n">
-        <v>6.39265298954297</v>
+        <v>16.2365838182835</v>
       </c>
       <c r="I80" t="n">
-        <v>6.54384148876859</v>
+        <v>18.4111181369235</v>
       </c>
       <c r="J80" t="n">
-        <v>6.66208979569794</v>
+        <v>19.6962491027625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.90502045836997</v>
+        <v>9.13455259898645</v>
       </c>
       <c r="B81" t="n">
-        <v>3.78539001813839</v>
+        <v>10.6873386763252</v>
       </c>
       <c r="C81" t="n">
-        <v>4.30198084871261</v>
+        <v>12.1427329732829</v>
       </c>
       <c r="D81" t="n">
-        <v>4.42590064848968</v>
+        <v>12.2205862401019</v>
       </c>
       <c r="E81" t="n">
-        <v>3.91779488370904</v>
+        <v>14.1237592635299</v>
       </c>
       <c r="F81" t="n">
-        <v>5.88047396705945</v>
+        <v>15.6921248485266</v>
       </c>
       <c r="G81" t="n">
-        <v>5.78592368898015</v>
+        <v>15.5527060267237</v>
       </c>
       <c r="H81" t="n">
-        <v>6.01323547019046</v>
+        <v>16.9308128315932</v>
       </c>
       <c r="I81" t="n">
-        <v>6.08840550032511</v>
+        <v>17.6895137454644</v>
       </c>
       <c r="J81" t="n">
-        <v>7.43526592760072</v>
+        <v>19.5944009470217</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.99725067598559</v>
+        <v>-5.23072515866875</v>
       </c>
       <c r="B82" t="n">
-        <v>10.384061670627</v>
+        <v>-5.17188692047808</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7822238475608</v>
+        <v>-6.15634242728003</v>
       </c>
       <c r="D82" t="n">
-        <v>13.0293996038522</v>
+        <v>-6.35671861869312</v>
       </c>
       <c r="E82" t="n">
-        <v>13.6653578482734</v>
+        <v>-7.23272310134025</v>
       </c>
       <c r="F82" t="n">
-        <v>14.5719950092905</v>
+        <v>-7.65579240056941</v>
       </c>
       <c r="G82" t="n">
-        <v>16.4661312189062</v>
+        <v>-7.9114950261684</v>
       </c>
       <c r="H82" t="n">
-        <v>18.4883659744011</v>
+        <v>-8.45582146024245</v>
       </c>
       <c r="I82" t="n">
-        <v>19.1641590142749</v>
+        <v>-9.26496178945222</v>
       </c>
       <c r="J82" t="n">
-        <v>18.4324101417925</v>
+        <v>-9.44078888816368</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.07276647793526</v>
+        <v>-4.98200726251129</v>
       </c>
       <c r="B83" t="n">
-        <v>1.98160168574713</v>
+        <v>-5.73186605795307</v>
       </c>
       <c r="C83" t="n">
-        <v>2.72258632981788</v>
+        <v>-6.34877181252218</v>
       </c>
       <c r="D83" t="n">
-        <v>4.17307375617961</v>
+        <v>-6.47659848383478</v>
       </c>
       <c r="E83" t="n">
-        <v>4.72687654258237</v>
+        <v>-7.33031493477001</v>
       </c>
       <c r="F83" t="n">
-        <v>5.70228879666239</v>
+        <v>-7.48317034666052</v>
       </c>
       <c r="G83" t="n">
-        <v>4.75752977937533</v>
+        <v>-7.71640993583473</v>
       </c>
       <c r="H83" t="n">
-        <v>6.60091008484868</v>
+        <v>-8.56659935595976</v>
       </c>
       <c r="I83" t="n">
-        <v>6.61847575780699</v>
+        <v>-9.2582990358333</v>
       </c>
       <c r="J83" t="n">
-        <v>6.98364833546417</v>
+        <v>-9.39087590505926</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11.9324347734175</v>
+        <v>10.1290978091971</v>
       </c>
       <c r="B84" t="n">
-        <v>11.4409975501266</v>
+        <v>10.9591081509423</v>
       </c>
       <c r="C84" t="n">
-        <v>10.9092027496467</v>
+        <v>11.1143409771204</v>
       </c>
       <c r="D84" t="n">
-        <v>13.6572497566682</v>
+        <v>13.749575642859</v>
       </c>
       <c r="E84" t="n">
-        <v>12.9199926676401</v>
+        <v>12.4568229696062</v>
       </c>
       <c r="F84" t="n">
-        <v>14.4622199024183</v>
+        <v>15.5478605003301</v>
       </c>
       <c r="G84" t="n">
-        <v>15.7493067909863</v>
+        <v>17.0566673021569</v>
       </c>
       <c r="H84" t="n">
-        <v>16.7872480483092</v>
+        <v>16.3560424772056</v>
       </c>
       <c r="I84" t="n">
-        <v>18.0904956121701</v>
+        <v>18.2747787710956</v>
       </c>
       <c r="J84" t="n">
-        <v>-9.71320296663744</v>
+        <v>19.6154263706571</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-4.85277826492241</v>
+        <v>10.7400453173223</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.6799181902973</v>
+        <v>10.9795982855187</v>
       </c>
       <c r="C85" t="n">
-        <v>-6.28772287153058</v>
+        <v>12.0458732071148</v>
       </c>
       <c r="D85" t="n">
-        <v>-6.52240145860333</v>
+        <v>12.0385218059116</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.04060821321151</v>
+        <v>13.0972268909721</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.30092506249864</v>
+        <v>5.22019737137534</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.60574197589528</v>
+        <v>4.86682230083599</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.28620209108109</v>
+        <v>6.07448659712037</v>
       </c>
       <c r="I85" t="n">
-        <v>-8.85515085261452</v>
+        <v>6.27750820580696</v>
       </c>
       <c r="J85" t="n">
-        <v>-9.67442747907969</v>
+        <v>6.84388534984929</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10.8967322245856</v>
+        <v>10.6770638003617</v>
       </c>
       <c r="B86" t="n">
-        <v>10.5680685570818</v>
+        <v>11.9986295333173</v>
       </c>
       <c r="C86" t="n">
-        <v>12.0938966302546</v>
+        <v>11.1600155255102</v>
       </c>
       <c r="D86" t="n">
-        <v>4.25640018160056</v>
+        <v>13.6421162273883</v>
       </c>
       <c r="E86" t="n">
-        <v>4.72002041152788</v>
+        <v>13.8470675882154</v>
       </c>
       <c r="F86" t="n">
-        <v>5.11781716989201</v>
+        <v>14.2049452433397</v>
       </c>
       <c r="G86" t="n">
-        <v>6.12702218726348</v>
+        <v>15.6107682037075</v>
       </c>
       <c r="H86" t="n">
-        <v>5.61248085137398</v>
+        <v>15.1214636071751</v>
       </c>
       <c r="I86" t="n">
-        <v>6.80503675121824</v>
+        <v>17.6382971374096</v>
       </c>
       <c r="J86" t="n">
-        <v>7.84231519280284</v>
+        <v>17.8494661423582</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.83802390756913</v>
+        <v>-4.8028545521773</v>
       </c>
       <c r="B87" t="n">
-        <v>10.3646883656187</v>
+        <v>-5.17203552008662</v>
       </c>
       <c r="C87" t="n">
-        <v>12.6065527908973</v>
+        <v>-5.61964357442818</v>
       </c>
       <c r="D87" t="n">
-        <v>13.5310949359299</v>
+        <v>-6.49291246114809</v>
       </c>
       <c r="E87" t="n">
-        <v>14.4295545726405</v>
+        <v>-6.81269057064361</v>
       </c>
       <c r="F87" t="n">
-        <v>4.52854725778944</v>
+        <v>-8.04873680854814</v>
       </c>
       <c r="G87" t="n">
-        <v>5.38964031487803</v>
+        <v>-8.17653289263709</v>
       </c>
       <c r="H87" t="n">
-        <v>5.9683785335044</v>
+        <v>-8.19727897905299</v>
       </c>
       <c r="I87" t="n">
-        <v>7.34744383068498</v>
+        <v>-9.22805482126462</v>
       </c>
       <c r="J87" t="n">
-        <v>7.08667954156972</v>
+        <v>-9.71032973850203</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.16648436806919</v>
+        <v>2.07223902020323</v>
       </c>
       <c r="B88" t="n">
-        <v>2.63686168099179</v>
+        <v>2.90961598443506</v>
       </c>
       <c r="C88" t="n">
-        <v>3.70766657133006</v>
+        <v>3.82782355349066</v>
       </c>
       <c r="D88" t="n">
-        <v>4.77924915887249</v>
+        <v>13.1209719214994</v>
       </c>
       <c r="E88" t="n">
-        <v>4.65953694945527</v>
+        <v>14.4963017513704</v>
       </c>
       <c r="F88" t="n">
-        <v>5.56300591645732</v>
+        <v>14.2212929157734</v>
       </c>
       <c r="G88" t="n">
-        <v>5.51403937842631</v>
+        <v>16.5150272962626</v>
       </c>
       <c r="H88" t="n">
-        <v>6.41667051107735</v>
+        <v>16.0929960620556</v>
       </c>
       <c r="I88" t="n">
-        <v>6.46074048068819</v>
+        <v>18.2387248508949</v>
       </c>
       <c r="J88" t="n">
-        <v>6.58738887365901</v>
+        <v>18.1901595281088</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.88912274107406</v>
+        <v>11.2995889695957</v>
       </c>
       <c r="B89" t="n">
-        <v>10.5054730178595</v>
+        <v>11.264202754736</v>
       </c>
       <c r="C89" t="n">
-        <v>12.0527529668343</v>
+        <v>11.0969596090219</v>
       </c>
       <c r="D89" t="n">
-        <v>13.1785244603914</v>
+        <v>12.8780823754284</v>
       </c>
       <c r="E89" t="n">
-        <v>15.3125718971787</v>
+        <v>13.6725323831769</v>
       </c>
       <c r="F89" t="n">
-        <v>4.99843833840344</v>
+        <v>14.9887730173929</v>
       </c>
       <c r="G89" t="n">
-        <v>5.66816996607384</v>
+        <v>15.4898848214339</v>
       </c>
       <c r="H89" t="n">
-        <v>6.56138119525538</v>
+        <v>16.2524751783936</v>
       </c>
       <c r="I89" t="n">
-        <v>6.24599280925729</v>
+        <v>16.28660442237</v>
       </c>
       <c r="J89" t="n">
-        <v>6.85696234317924</v>
+        <v>19.4578987590238</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-5.14478020011139</v>
+        <v>10.8275488392282</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.48751123884283</v>
+        <v>10.632435393289</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.87389432793728</v>
+        <v>10.7238985250282</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.59592569468177</v>
+        <v>11.9276905971097</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.4699902673</v>
+        <v>14.2748974331446</v>
       </c>
       <c r="F90" t="n">
-        <v>-7.75929325864103</v>
+        <v>15.0906563516886</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.82583480950803</v>
+        <v>15.6902988379876</v>
       </c>
       <c r="H90" t="n">
-        <v>17.4739181548197</v>
+        <v>17.567840911762</v>
       </c>
       <c r="I90" t="n">
-        <v>17.4262980461616</v>
+        <v>19.2500710412634</v>
       </c>
       <c r="J90" t="n">
-        <v>17.9444578485004</v>
+        <v>18.9530589971633</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.59539003641152</v>
+        <v>10.4158789630206</v>
       </c>
       <c r="B91" t="n">
-        <v>3.02717514804106</v>
+        <v>2.21471970665382</v>
       </c>
       <c r="C91" t="n">
-        <v>3.83219529708272</v>
+        <v>3.31677937632785</v>
       </c>
       <c r="D91" t="n">
-        <v>3.74567865174506</v>
+        <v>4.44764890916832</v>
       </c>
       <c r="E91" t="n">
-        <v>4.48858420522356</v>
+        <v>4.48191266906735</v>
       </c>
       <c r="F91" t="n">
-        <v>5.16226028171614</v>
+        <v>4.21410031503528</v>
       </c>
       <c r="G91" t="n">
-        <v>5.68888540974719</v>
+        <v>5.8838807508091</v>
       </c>
       <c r="H91" t="n">
-        <v>5.17867340380467</v>
+        <v>5.8682751211405</v>
       </c>
       <c r="I91" t="n">
-        <v>6.30019165705529</v>
+        <v>6.81453552432369</v>
       </c>
       <c r="J91" t="n">
-        <v>6.40370058179389</v>
+        <v>6.26466680539875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11.4452146255956</v>
+        <v>2.65757483594995</v>
       </c>
       <c r="B92" t="n">
-        <v>10.6423932795612</v>
+        <v>4.36792493731109</v>
       </c>
       <c r="C92" t="n">
-        <v>10.9564381574146</v>
+        <v>3.74584621926891</v>
       </c>
       <c r="D92" t="n">
-        <v>12.7370492182348</v>
+        <v>4.31672715268504</v>
       </c>
       <c r="E92" t="n">
-        <v>14.3139301199051</v>
+        <v>4.58056120440563</v>
       </c>
       <c r="F92" t="n">
-        <v>5.38792494971997</v>
+        <v>4.4925025892906</v>
       </c>
       <c r="G92" t="n">
-        <v>5.88565936476162</v>
+        <v>4.80787131961567</v>
       </c>
       <c r="H92" t="n">
-        <v>6.28513668452755</v>
+        <v>5.83066496382559</v>
       </c>
       <c r="I92" t="n">
-        <v>6.58702336310238</v>
+        <v>6.19059672422869</v>
       </c>
       <c r="J92" t="n">
-        <v>8.35324805371982</v>
+        <v>6.64723370558192</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.1917476920689</v>
+        <v>-5.54963710278751</v>
       </c>
       <c r="B93" t="n">
-        <v>10.3066045423111</v>
+        <v>-5.29170129757756</v>
       </c>
       <c r="C93" t="n">
-        <v>12.5194451118446</v>
+        <v>-6.35927774717081</v>
       </c>
       <c r="D93" t="n">
-        <v>13.2749169727965</v>
+        <v>13.041252869293</v>
       </c>
       <c r="E93" t="n">
-        <v>4.61228793162652</v>
+        <v>15.3680484424257</v>
       </c>
       <c r="F93" t="n">
-        <v>5.82134783403191</v>
+        <v>16.7856447285418</v>
       </c>
       <c r="G93" t="n">
-        <v>5.23100344191351</v>
+        <v>15.9799962978095</v>
       </c>
       <c r="H93" t="n">
-        <v>5.94133041177969</v>
+        <v>16.1782906490557</v>
       </c>
       <c r="I93" t="n">
-        <v>6.67477005348961</v>
+        <v>17.5403412357826</v>
       </c>
       <c r="J93" t="n">
-        <v>7.01496478640532</v>
+        <v>19.0497415379458</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.1340029915283</v>
+        <v>-5.204897086681</v>
       </c>
       <c r="B94" t="n">
-        <v>10.9951386351571</v>
+        <v>-5.35032592527736</v>
       </c>
       <c r="C94" t="n">
-        <v>11.3961069155135</v>
+        <v>-6.05370877884437</v>
       </c>
       <c r="D94" t="n">
-        <v>12.7034104406599</v>
+        <v>-6.6478000642405</v>
       </c>
       <c r="E94" t="n">
-        <v>14.5280492512415</v>
+        <v>-6.63101588895803</v>
       </c>
       <c r="F94" t="n">
-        <v>15.1000809282733</v>
+        <v>-7.51301549205239</v>
       </c>
       <c r="G94" t="n">
-        <v>17.2446906312849</v>
+        <v>-8.27029928771229</v>
       </c>
       <c r="H94" t="n">
-        <v>17.2598187649726</v>
+        <v>-8.86096332922468</v>
       </c>
       <c r="I94" t="n">
-        <v>5.94218340594873</v>
+        <v>-8.96828774157972</v>
       </c>
       <c r="J94" t="n">
-        <v>8.26979480649254</v>
+        <v>-9.80565138678312</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.84551171162194</v>
+        <v>9.80717937537831</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.80945169990678</v>
+        <v>10.365689342408</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.870127700061</v>
+        <v>12.2383540037057</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.64034218485153</v>
+        <v>12.7804633803031</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.07968788961069</v>
+        <v>14.4745857805829</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.04276706222594</v>
+        <v>15.0609153143686</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.92684469313114</v>
+        <v>16.490156724967</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.24552518508352</v>
+        <v>17.5157670693864</v>
       </c>
       <c r="I95" t="n">
-        <v>-9.34970365787824</v>
+        <v>18.4095565897428</v>
       </c>
       <c r="J95" t="n">
-        <v>-9.16281933521454</v>
+        <v>18.6853974144906</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.4965736561715</v>
+        <v>2.45904617354453</v>
       </c>
       <c r="B96" t="n">
-        <v>10.7269441371127</v>
+        <v>3.38173620409443</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9918912633538</v>
+        <v>3.69906185853386</v>
       </c>
       <c r="D96" t="n">
-        <v>13.1338317313163</v>
+        <v>4.16025761545102</v>
       </c>
       <c r="E96" t="n">
-        <v>13.9591894417261</v>
+        <v>5.00301131632045</v>
       </c>
       <c r="F96" t="n">
-        <v>15.3936186349677</v>
+        <v>4.90032342601398</v>
       </c>
       <c r="G96" t="n">
-        <v>16.5951859873571</v>
+        <v>5.57166945067075</v>
       </c>
       <c r="H96" t="n">
-        <v>16.3650444847954</v>
+        <v>5.83416182732429</v>
       </c>
       <c r="I96" t="n">
-        <v>18.6375292363502</v>
+        <v>17.4623143915286</v>
       </c>
       <c r="J96" t="n">
-        <v>19.9026707529224</v>
+        <v>20.2015600479378</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-5.23077973100049</v>
+        <v>-5.0278686881462</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.44784311897318</v>
+        <v>-5.22906162373804</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.35085010041178</v>
+        <v>-5.73849213541146</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.29966860563211</v>
+        <v>-6.36266315093429</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.09119997863217</v>
+        <v>-7.10290451042625</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.66227209117531</v>
+        <v>-7.68126721421321</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.3625084039183</v>
+        <v>-7.87948282291925</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.72128928704849</v>
+        <v>-8.28601574817548</v>
       </c>
       <c r="I97" t="n">
-        <v>-8.56413884820476</v>
+        <v>-9.07064733152769</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.60678582323504</v>
+        <v>-9.51581725490974</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.38459171869537</v>
+        <v>8.68078412420071</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2741065855336</v>
+        <v>11.5356111466769</v>
       </c>
       <c r="C98" t="n">
-        <v>12.5738106292731</v>
+        <v>11.8288632868803</v>
       </c>
       <c r="D98" t="n">
-        <v>13.1097380180695</v>
+        <v>12.8960293467612</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.29726809243679</v>
+        <v>14.5519507558429</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.36544103394671</v>
+        <v>14.7624245638416</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.87426959926672</v>
+        <v>16.1627348792199</v>
       </c>
       <c r="H98" t="n">
-        <v>-8.39548400662953</v>
+        <v>17.1101401810076</v>
       </c>
       <c r="I98" t="n">
-        <v>-9.15118184585818</v>
+        <v>18.692448381724</v>
       </c>
       <c r="J98" t="n">
-        <v>6.62375367755404</v>
+        <v>18.5889382306992</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.46041794580026</v>
+        <v>10.0432679487212</v>
       </c>
       <c r="B99" t="n">
-        <v>11.7251079768531</v>
+        <v>11.5023806352758</v>
       </c>
       <c r="C99" t="n">
-        <v>11.6385263047437</v>
+        <v>12.5361470650201</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5975731448342</v>
+        <v>3.25439047000661</v>
       </c>
       <c r="E99" t="n">
-        <v>14.7634684633281</v>
+        <v>4.91596344732663</v>
       </c>
       <c r="F99" t="n">
-        <v>14.8602201740643</v>
+        <v>4.77666906200672</v>
       </c>
       <c r="G99" t="n">
-        <v>17.315798684997</v>
+        <v>5.5474391182027</v>
       </c>
       <c r="H99" t="n">
-        <v>16.6752402969237</v>
+        <v>6.15399385903759</v>
       </c>
       <c r="I99" t="n">
-        <v>19.0475538260916</v>
+        <v>7.38046143589549</v>
       </c>
       <c r="J99" t="n">
-        <v>19.8321088850674</v>
+        <v>7.01902917311718</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-5.23437912544047</v>
+        <v>-5.14040214057204</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.79657559675179</v>
+        <v>-5.58367311596794</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.31793456915583</v>
+        <v>-6.42173887085488</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.4707604983487</v>
+        <v>14.1802538096894</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.11636371948853</v>
+        <v>13.5453714769564</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.69827352718671</v>
+        <v>14.9791754959629</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.95720023374123</v>
+        <v>15.8485172003173</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.59963950135548</v>
+        <v>17.1818546721305</v>
       </c>
       <c r="I100" t="n">
-        <v>-9.16044943852792</v>
+        <v>17.1625420042927</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.87454758041745</v>
+        <v>-9.16118522348916</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.5467407680157</v>
+        <v>8.55899497601978</v>
       </c>
       <c r="B101" t="n">
-        <v>2.41400307965859</v>
+        <v>11.0521839003055</v>
       </c>
       <c r="C101" t="n">
-        <v>3.39682647738515</v>
+        <v>12.6546541573807</v>
       </c>
       <c r="D101" t="n">
-        <v>3.65695927823614</v>
+        <v>11.7869044363421</v>
       </c>
       <c r="E101" t="n">
-        <v>4.07388315682331</v>
+        <v>15.4110796817224</v>
       </c>
       <c r="F101" t="n">
-        <v>5.28710091278026</v>
+        <v>13.9368756635029</v>
       </c>
       <c r="G101" t="n">
-        <v>4.2255076243521</v>
+        <v>15.9293316748586</v>
       </c>
       <c r="H101" t="n">
-        <v>5.89772170422503</v>
+        <v>17.8818173042493</v>
       </c>
       <c r="I101" t="n">
-        <v>5.96957782910924</v>
+        <v>18.2495736562513</v>
       </c>
       <c r="J101" t="n">
-        <v>6.73468797078385</v>
+        <v>19.1440430770627</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.8712531039322</v>
+        <v>1.98793769619685</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21119771440992</v>
+        <v>2.87486356985176</v>
       </c>
       <c r="C102" t="n">
-        <v>3.16528138597246</v>
+        <v>3.94780216923552</v>
       </c>
       <c r="D102" t="n">
-        <v>4.39193743530043</v>
+        <v>3.14090307024599</v>
       </c>
       <c r="E102" t="n">
-        <v>4.36757234957301</v>
+        <v>4.56965062079056</v>
       </c>
       <c r="F102" t="n">
-        <v>4.75974280569006</v>
+        <v>4.4953226758149</v>
       </c>
       <c r="G102" t="n">
-        <v>4.98650871389079</v>
+        <v>5.31848536785564</v>
       </c>
       <c r="H102" t="n">
-        <v>7.14036482439146</v>
+        <v>5.5083211257692</v>
       </c>
       <c r="I102" t="n">
-        <v>5.7020149366697</v>
+        <v>6.31992700966806</v>
       </c>
       <c r="J102" t="n">
-        <v>7.25759377479192</v>
+        <v>7.18855590198428</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.67778247967743</v>
+        <v>8.37034127703299</v>
       </c>
       <c r="B103" t="n">
-        <v>11.7718826047063</v>
+        <v>10.5727592496736</v>
       </c>
       <c r="C103" t="n">
-        <v>11.2473915705372</v>
+        <v>10.1079338386215</v>
       </c>
       <c r="D103" t="n">
-        <v>13.0245565882027</v>
+        <v>13.5280571310826</v>
       </c>
       <c r="E103" t="n">
-        <v>4.97720582526551</v>
+        <v>13.9175398670653</v>
       </c>
       <c r="F103" t="n">
-        <v>5.01484225185348</v>
+        <v>14.774124493107</v>
       </c>
       <c r="G103" t="n">
-        <v>6.02704168021647</v>
+        <v>16.1358128279166</v>
       </c>
       <c r="H103" t="n">
-        <v>6.01546573357529</v>
+        <v>17.9313666788672</v>
       </c>
       <c r="I103" t="n">
-        <v>5.95290097716003</v>
+        <v>17.6130933900799</v>
       </c>
       <c r="J103" t="n">
-        <v>6.56018423134145</v>
+        <v>-9.80137922906178</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-5.1414659134538</v>
+        <v>9.9371237981045</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.39831164039892</v>
+        <v>11.5792427026891</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.73135797425076</v>
+        <v>12.0977596406511</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.07816969871584</v>
+        <v>13.7593231887843</v>
       </c>
       <c r="E104" t="n">
-        <v>-6.71346057581053</v>
+        <v>14.8388321370944</v>
       </c>
       <c r="F104" t="n">
-        <v>4.23077172217606</v>
+        <v>14.7462052144415</v>
       </c>
       <c r="G104" t="n">
-        <v>5.69706113002781</v>
+        <v>18.1271412379964</v>
       </c>
       <c r="H104" t="n">
-        <v>6.36650357568895</v>
+        <v>15.6874640461285</v>
       </c>
       <c r="I104" t="n">
-        <v>7.16462948966182</v>
+        <v>19.2650584510199</v>
       </c>
       <c r="J104" t="n">
-        <v>6.66618995446569</v>
+        <v>19.411680075582</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.51307601787862</v>
+        <v>2.85715466858762</v>
       </c>
       <c r="B105" t="n">
-        <v>11.6805737435809</v>
+        <v>2.53197081874719</v>
       </c>
       <c r="C105" t="n">
-        <v>11.8671791054197</v>
+        <v>3.56452862497903</v>
       </c>
       <c r="D105" t="n">
-        <v>12.9924631239606</v>
+        <v>3.90646692808396</v>
       </c>
       <c r="E105" t="n">
-        <v>13.4149868691988</v>
+        <v>5.02658996888643</v>
       </c>
       <c r="F105" t="n">
-        <v>5.15063563057247</v>
+        <v>5.09858533036944</v>
       </c>
       <c r="G105" t="n">
-        <v>6.41080518361378</v>
+        <v>5.22998088896501</v>
       </c>
       <c r="H105" t="n">
-        <v>5.82039963448073</v>
+        <v>5.93471494503337</v>
       </c>
       <c r="I105" t="n">
-        <v>6.74700895579916</v>
+        <v>6.7923888200271</v>
       </c>
       <c r="J105" t="n">
-        <v>6.85209907375631</v>
+        <v>6.85769307541235</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.18067072464543</v>
+        <v>-5.14258754691212</v>
       </c>
       <c r="B106" t="n">
-        <v>11.8937061659539</v>
+        <v>-5.07113713393812</v>
       </c>
       <c r="C106" t="n">
-        <v>11.6443444049813</v>
+        <v>-5.83606568027102</v>
       </c>
       <c r="D106" t="n">
-        <v>12.5041519156046</v>
+        <v>-6.79397709011975</v>
       </c>
       <c r="E106" t="n">
-        <v>15.2766388370154</v>
+        <v>-7.03083622911101</v>
       </c>
       <c r="F106" t="n">
-        <v>15.1539566975143</v>
+        <v>-7.83649371754602</v>
       </c>
       <c r="G106" t="n">
-        <v>16.2913428233711</v>
+        <v>-7.39762754415981</v>
       </c>
       <c r="H106" t="n">
-        <v>17.6387855195234</v>
+        <v>6.73736545513394</v>
       </c>
       <c r="I106" t="n">
-        <v>18.6776238625466</v>
+        <v>5.98313654886503</v>
       </c>
       <c r="J106" t="n">
-        <v>19.5777678781538</v>
+        <v>7.14378497482023</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.02137113383112</v>
+        <v>10.0486521482686</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.42096329213538</v>
+        <v>12.802435905201</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.75151400525561</v>
+        <v>11.9295410621959</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.81501915632536</v>
+        <v>12.9969698750421</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.04330931100494</v>
+        <v>13.9256450813213</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.52455403623192</v>
+        <v>15.3663293501132</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.65396626688101</v>
+        <v>16.9187005325386</v>
       </c>
       <c r="H107" t="n">
-        <v>-8.65252409082737</v>
+        <v>17.4185056765726</v>
       </c>
       <c r="I107" t="n">
-        <v>-8.95840988307327</v>
+        <v>17.7077781666126</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.57092389428831</v>
+        <v>19.9544676553025</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.44869275371843</v>
+        <v>9.35103769839964</v>
       </c>
       <c r="B108" t="n">
-        <v>2.11980377687207</v>
+        <v>9.51103183623699</v>
       </c>
       <c r="C108" t="n">
-        <v>4.69106335445023</v>
+        <v>12.5735043919248</v>
       </c>
       <c r="D108" t="n">
-        <v>4.04402560605718</v>
+        <v>14.1420370848381</v>
       </c>
       <c r="E108" t="n">
-        <v>4.32761801830673</v>
+        <v>13.7862668638035</v>
       </c>
       <c r="F108" t="n">
-        <v>5.77093242107509</v>
+        <v>15.6539920059437</v>
       </c>
       <c r="G108" t="n">
-        <v>5.13101016422655</v>
+        <v>15.9438617095204</v>
       </c>
       <c r="H108" t="n">
-        <v>5.71656626737841</v>
+        <v>16.6603580997257</v>
       </c>
       <c r="I108" t="n">
-        <v>6.5139679860679</v>
+        <v>18.3075676251399</v>
       </c>
       <c r="J108" t="n">
-        <v>7.3135952827059</v>
+        <v>19.0955137161349</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-4.78458506160425</v>
+        <v>1.13258159022661</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.08096732485412</v>
+        <v>2.18344841314163</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.98901606978693</v>
+        <v>3.97314211167539</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.09069387295138</v>
+        <v>2.53092921636504</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.07309773609429</v>
+        <v>4.03666825427448</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.32266972077732</v>
+        <v>5.08999915341834</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.6971168885407</v>
+        <v>4.53466840727075</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.73425412074632</v>
+        <v>5.79978569040976</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.72509538215867</v>
+        <v>6.35313230855501</v>
       </c>
       <c r="J109" t="n">
-        <v>-9.10882127611282</v>
+        <v>6.00309958464136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.62943394934358</v>
+        <v>2.84105909500156</v>
       </c>
       <c r="B110" t="n">
-        <v>3.2122509360358</v>
+        <v>2.51593991478172</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04319329976129</v>
+        <v>2.86984039587337</v>
       </c>
       <c r="D110" t="n">
-        <v>4.12134784419536</v>
+        <v>2.72218768561015</v>
       </c>
       <c r="E110" t="n">
-        <v>4.5028698179225</v>
+        <v>5.6927438636748</v>
       </c>
       <c r="F110" t="n">
-        <v>4.70879144785168</v>
+        <v>5.2263124366685</v>
       </c>
       <c r="G110" t="n">
-        <v>5.23121425767077</v>
+        <v>5.95887199809959</v>
       </c>
       <c r="H110" t="n">
-        <v>5.9069158922699</v>
+        <v>6.45165972590699</v>
       </c>
       <c r="I110" t="n">
-        <v>6.44602746161746</v>
+        <v>6.31428496244425</v>
       </c>
       <c r="J110" t="n">
-        <v>17.9947144837296</v>
+        <v>7.84644750831941</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9.60057791579494</v>
+        <v>9.66946260839984</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.7533909933934</v>
+        <v>10.7286061906735</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.02239936027967</v>
+        <v>12.2994294285772</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.50007754571637</v>
+        <v>13.3406577180921</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.28560850951799</v>
+        <v>12.5167488423993</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.42277835388349</v>
+        <v>14.615512825037</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.42646964697644</v>
+        <v>15.8357562304981</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.32368004529534</v>
+        <v>15.9893803184032</v>
       </c>
       <c r="I111" t="n">
-        <v>-9.39275393602817</v>
+        <v>17.0961528546293</v>
       </c>
       <c r="J111" t="n">
-        <v>18.476925244633</v>
+        <v>17.4088261806281</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.47619380905336</v>
+        <v>2.79711587344692</v>
       </c>
       <c r="B112" t="n">
-        <v>3.39231607614614</v>
+        <v>3.65789720303204</v>
       </c>
       <c r="C112" t="n">
-        <v>3.7407977592558</v>
+        <v>3.12030600695013</v>
       </c>
       <c r="D112" t="n">
-        <v>4.03525465253715</v>
+        <v>3.879656517975</v>
       </c>
       <c r="E112" t="n">
-        <v>4.07758479298346</v>
+        <v>4.73157981679974</v>
       </c>
       <c r="F112" t="n">
-        <v>4.87650680818061</v>
+        <v>4.54921544631467</v>
       </c>
       <c r="G112" t="n">
-        <v>5.25075936390476</v>
+        <v>5.69161136602601</v>
       </c>
       <c r="H112" t="n">
-        <v>5.45163301366917</v>
+        <v>5.53711973873879</v>
       </c>
       <c r="I112" t="n">
-        <v>5.70103529420411</v>
+        <v>5.6178580648224</v>
       </c>
       <c r="J112" t="n">
-        <v>7.19545456965269</v>
+        <v>6.31471010786768</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.0110583363179</v>
+        <v>-5.30100869464173</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.57616457359096</v>
+        <v>-5.70939679939213</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.59551536241398</v>
+        <v>-6.18087209230044</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.33322510907315</v>
+        <v>-6.2419697438693</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.09173238506495</v>
+        <v>-6.92025466821519</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.97782020717348</v>
+        <v>-7.49444497204278</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.91130153566044</v>
+        <v>-8.30620243741508</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.58622036394076</v>
+        <v>-8.55903838866391</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.08831957507866</v>
+        <v>-8.91910098088419</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.52883938732819</v>
+        <v>-9.47324564036083</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.79496667915729</v>
+        <v>10.3507244333553</v>
       </c>
       <c r="B114" t="n">
-        <v>11.9248797654295</v>
+        <v>10.8985163083247</v>
       </c>
       <c r="C114" t="n">
-        <v>10.1576114409926</v>
+        <v>11.5363590389257</v>
       </c>
       <c r="D114" t="n">
-        <v>12.4864249701921</v>
+        <v>13.4123683016841</v>
       </c>
       <c r="E114" t="n">
-        <v>12.7866760079061</v>
+        <v>13.6367168461426</v>
       </c>
       <c r="F114" t="n">
-        <v>5.07944935357725</v>
+        <v>15.6133684058798</v>
       </c>
       <c r="G114" t="n">
-        <v>5.66553299729445</v>
+        <v>15.4439935797521</v>
       </c>
       <c r="H114" t="n">
-        <v>6.46596313107537</v>
+        <v>17.3935235252801</v>
       </c>
       <c r="I114" t="n">
-        <v>5.85369291927113</v>
+        <v>18.5899966770053</v>
       </c>
       <c r="J114" t="n">
-        <v>7.3803374276271</v>
+        <v>18.1156634729461</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.4180981878007</v>
+        <v>9.38174426394399</v>
       </c>
       <c r="B115" t="n">
-        <v>11.3132835796775</v>
+        <v>12.1956380404925</v>
       </c>
       <c r="C115" t="n">
-        <v>12.8637455611698</v>
+        <v>12.9779645506122</v>
       </c>
       <c r="D115" t="n">
-        <v>13.0559882885165</v>
+        <v>12.0847705717967</v>
       </c>
       <c r="E115" t="n">
-        <v>13.1190827293697</v>
+        <v>14.1906649895891</v>
       </c>
       <c r="F115" t="n">
-        <v>14.1336551417587</v>
+        <v>13.7664875677881</v>
       </c>
       <c r="G115" t="n">
-        <v>14.1354676335084</v>
+        <v>16.4556270886561</v>
       </c>
       <c r="H115" t="n">
-        <v>17.8700452691165</v>
+        <v>17.9023797525094</v>
       </c>
       <c r="I115" t="n">
-        <v>6.43193067763392</v>
+        <v>-8.91202437733199</v>
       </c>
       <c r="J115" t="n">
-        <v>8.0382194569699</v>
+        <v>-9.78395118965342</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.71458427935676</v>
+        <v>10.2528869480691</v>
       </c>
       <c r="B116" t="n">
-        <v>2.39078560013597</v>
+        <v>11.2524290552115</v>
       </c>
       <c r="C116" t="n">
-        <v>3.8965310780629</v>
+        <v>12.5088067762946</v>
       </c>
       <c r="D116" t="n">
-        <v>4.13877411268102</v>
+        <v>13.0970985581541</v>
       </c>
       <c r="E116" t="n">
-        <v>3.76797982202255</v>
+        <v>13.2177492283589</v>
       </c>
       <c r="F116" t="n">
-        <v>5.62385050038749</v>
+        <v>14.7910814827883</v>
       </c>
       <c r="G116" t="n">
-        <v>6.06456241983268</v>
+        <v>16.3700798384109</v>
       </c>
       <c r="H116" t="n">
-        <v>5.84300408490839</v>
+        <v>17.8815830134392</v>
       </c>
       <c r="I116" t="n">
-        <v>6.71104112465143</v>
+        <v>17.9753758503909</v>
       </c>
       <c r="J116" t="n">
-        <v>7.2280336937724</v>
+        <v>18.6777913188625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.14202453656434</v>
+        <v>11.5637367149127</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.5556973988094</v>
+        <v>11.013205807678</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.1825930432751</v>
+        <v>11.9663147679446</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.53928651804066</v>
+        <v>12.6392763380738</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.02972317163603</v>
+        <v>14.0347933837882</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.39853969633811</v>
+        <v>4.41641461995938</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.24630397252578</v>
+        <v>5.75707189652633</v>
       </c>
       <c r="H117" t="n">
-        <v>-8.77923575333822</v>
+        <v>6.01249349509634</v>
       </c>
       <c r="I117" t="n">
-        <v>-8.73022011028571</v>
+        <v>6.90776618971545</v>
       </c>
       <c r="J117" t="n">
-        <v>-9.55072317683239</v>
+        <v>7.42596758539733</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.95531324255803</v>
+        <v>2.56703895970559</v>
       </c>
       <c r="B118" t="n">
-        <v>10.7941525168027</v>
+        <v>2.61488551242293</v>
       </c>
       <c r="C118" t="n">
-        <v>11.6055916443504</v>
+        <v>3.1917880843603</v>
       </c>
       <c r="D118" t="n">
-        <v>13.2850017635667</v>
+        <v>3.5566731880766</v>
       </c>
       <c r="E118" t="n">
-        <v>14.4805958556367</v>
+        <v>5.06727622805419</v>
       </c>
       <c r="F118" t="n">
-        <v>13.7264160313011</v>
+        <v>4.1426516181087</v>
       </c>
       <c r="G118" t="n">
-        <v>6.52340909232342</v>
+        <v>6.01674198455237</v>
       </c>
       <c r="H118" t="n">
-        <v>6.77974414882635</v>
+        <v>5.71098340757946</v>
       </c>
       <c r="I118" t="n">
-        <v>7.41704024703004</v>
+        <v>6.69585405462512</v>
       </c>
       <c r="J118" t="n">
-        <v>6.95173129230158</v>
+        <v>7.28286301107682</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.68581511252535</v>
+        <v>-5.144074983092</v>
       </c>
       <c r="B119" t="n">
-        <v>3.44403849947455</v>
+        <v>-5.37474535041129</v>
       </c>
       <c r="C119" t="n">
-        <v>3.42008007659905</v>
+        <v>-6.24441302836008</v>
       </c>
       <c r="D119" t="n">
-        <v>5.01877234779466</v>
+        <v>-6.32055847516994</v>
       </c>
       <c r="E119" t="n">
-        <v>4.99844796603372</v>
+        <v>-7.29435259402652</v>
       </c>
       <c r="F119" t="n">
-        <v>5.25424827295743</v>
+        <v>-7.4283138307293</v>
       </c>
       <c r="G119" t="n">
-        <v>5.75314334381382</v>
+        <v>-7.9065936284422</v>
       </c>
       <c r="H119" t="n">
-        <v>6.66762020827085</v>
+        <v>-8.2777063238569</v>
       </c>
       <c r="I119" t="n">
-        <v>6.49077486411043</v>
+        <v>-9.25337412282412</v>
       </c>
       <c r="J119" t="n">
-        <v>6.39123953578596</v>
+        <v>-9.68942554733611</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.64089093479535</v>
+        <v>-5.11689651092712</v>
       </c>
       <c r="B120" t="n">
-        <v>11.3061917880888</v>
+        <v>-5.23383515918534</v>
       </c>
       <c r="C120" t="n">
-        <v>12.8667667781184</v>
+        <v>-6.49294622343445</v>
       </c>
       <c r="D120" t="n">
-        <v>11.8276902988077</v>
+        <v>-5.75529569218421</v>
       </c>
       <c r="E120" t="n">
-        <v>12.7545182887065</v>
+        <v>-7.31460192854847</v>
       </c>
       <c r="F120" t="n">
-        <v>14.6482541902236</v>
+        <v>-7.97269233722183</v>
       </c>
       <c r="G120" t="n">
-        <v>16.2799227603809</v>
+        <v>-7.81314365611897</v>
       </c>
       <c r="H120" t="n">
-        <v>17.1066400577208</v>
+        <v>-8.475704521714</v>
       </c>
       <c r="I120" t="n">
-        <v>17.2805639149624</v>
+        <v>-8.97463560522006</v>
       </c>
       <c r="J120" t="n">
-        <v>19.4733626907889</v>
+        <v>-9.40894978898181</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.8251190720047</v>
+        <v>10.3933699574619</v>
       </c>
       <c r="B121" t="n">
-        <v>10.2806780366014</v>
+        <v>11.2347154439173</v>
       </c>
       <c r="C121" t="n">
-        <v>11.42254854258</v>
+        <v>12.171888849832</v>
       </c>
       <c r="D121" t="n">
-        <v>12.5762451846737</v>
+        <v>-6.91209586042438</v>
       </c>
       <c r="E121" t="n">
-        <v>13.9428217300364</v>
+        <v>-6.79352786840013</v>
       </c>
       <c r="F121" t="n">
-        <v>14.976950509576</v>
+        <v>15.0584911713593</v>
       </c>
       <c r="G121" t="n">
-        <v>15.5484225186182</v>
+        <v>16.4482774859043</v>
       </c>
       <c r="H121" t="n">
-        <v>15.9388994914504</v>
+        <v>17.9596025146175</v>
       </c>
       <c r="I121" t="n">
-        <v>18.9237311025626</v>
+        <v>18.0504072067474</v>
       </c>
       <c r="J121" t="n">
-        <v>19.1068312039299</v>
+        <v>19.5819348663768</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.94691146029968</v>
+        <v>-4.92698450897695</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.14019468958263</v>
+        <v>-5.68052719354933</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.01906075619331</v>
+        <v>12.208759073247</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.47326464144945</v>
+        <v>13.0557614504891</v>
       </c>
       <c r="E122" t="n">
-        <v>-6.82257741668557</v>
+        <v>13.8037447677293</v>
       </c>
       <c r="F122" t="n">
-        <v>15.9206707315825</v>
+        <v>16.3603232131514</v>
       </c>
       <c r="G122" t="n">
-        <v>15.6233859037986</v>
+        <v>17.0342698414097</v>
       </c>
       <c r="H122" t="n">
-        <v>17.3888205919971</v>
+        <v>16.9160495940848</v>
       </c>
       <c r="I122" t="n">
-        <v>17.462843128447</v>
+        <v>7.21574892549632</v>
       </c>
       <c r="J122" t="n">
-        <v>19.6086176321897</v>
+        <v>6.54745741489414</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.9392625090258</v>
+        <v>-4.90296717790687</v>
       </c>
       <c r="B123" t="n">
-        <v>10.7012579467131</v>
+        <v>-5.57170396022311</v>
       </c>
       <c r="C123" t="n">
-        <v>13.1687855433588</v>
+        <v>-6.28823074429039</v>
       </c>
       <c r="D123" t="n">
-        <v>13.8831434880305</v>
+        <v>-6.48448287743061</v>
       </c>
       <c r="E123" t="n">
-        <v>14.9404354136299</v>
+        <v>-6.41759820278786</v>
       </c>
       <c r="F123" t="n">
-        <v>15.1370528023835</v>
+        <v>-7.41967963953027</v>
       </c>
       <c r="G123" t="n">
-        <v>16.8611732717087</v>
+        <v>-7.77494021000935</v>
       </c>
       <c r="H123" t="n">
-        <v>17.7878368597927</v>
+        <v>-8.53808147318062</v>
       </c>
       <c r="I123" t="n">
-        <v>19.2148924692089</v>
+        <v>-8.86216093390501</v>
       </c>
       <c r="J123" t="n">
-        <v>19.6372722055763</v>
+        <v>-9.35447465789742</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.0758455724992</v>
+        <v>10.4051270528388</v>
       </c>
       <c r="B124" t="n">
-        <v>-5.68094798459215</v>
+        <v>11.4654418533092</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.80306140814708</v>
+        <v>3.55935730524295</v>
       </c>
       <c r="D124" t="n">
-        <v>-6.22558472964202</v>
+        <v>4.26167555846384</v>
       </c>
       <c r="E124" t="n">
-        <v>-6.82078979101744</v>
+        <v>4.73459939384512</v>
       </c>
       <c r="F124" t="n">
-        <v>-7.64872292768311</v>
+        <v>6.16799413832435</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.82930574348038</v>
+        <v>5.08311614900347</v>
       </c>
       <c r="H124" t="n">
-        <v>-8.42206476227684</v>
+        <v>5.29493470729599</v>
       </c>
       <c r="I124" t="n">
-        <v>-8.98876942043572</v>
+        <v>6.10013687979666</v>
       </c>
       <c r="J124" t="n">
-        <v>-9.68109328676929</v>
+        <v>7.12058353406751</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.0933704253324</v>
+        <v>9.52243153356217</v>
       </c>
       <c r="B125" t="n">
-        <v>10.9711435633764</v>
+        <v>9.30952660148923</v>
       </c>
       <c r="C125" t="n">
-        <v>11.3166783204618</v>
+        <v>11.6156563376695</v>
       </c>
       <c r="D125" t="n">
-        <v>13.2445937964429</v>
+        <v>13.0075028959775</v>
       </c>
       <c r="E125" t="n">
-        <v>13.9663232962948</v>
+        <v>13.327859053616</v>
       </c>
       <c r="F125" t="n">
-        <v>15.615526489176</v>
+        <v>13.9419692041013</v>
       </c>
       <c r="G125" t="n">
-        <v>15.5585695165571</v>
+        <v>16.348813815818</v>
       </c>
       <c r="H125" t="n">
-        <v>16.7270153029441</v>
+        <v>17.4101679366814</v>
       </c>
       <c r="I125" t="n">
-        <v>16.8362662484354</v>
+        <v>18.2362592856852</v>
       </c>
       <c r="J125" t="n">
-        <v>7.72673713331088</v>
+        <v>18.3238932337996</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.8360607169574</v>
+        <v>-4.83715011548102</v>
       </c>
       <c r="B126" t="n">
-        <v>11.0073273490734</v>
+        <v>-6.12054906466875</v>
       </c>
       <c r="C126" t="n">
-        <v>12.3118979753317</v>
+        <v>-6.1016557033295</v>
       </c>
       <c r="D126" t="n">
-        <v>13.7686234511539</v>
+        <v>-6.25800897241968</v>
       </c>
       <c r="E126" t="n">
-        <v>13.6309390954818</v>
+        <v>-7.13196152263429</v>
       </c>
       <c r="F126" t="n">
-        <v>14.4875872119515</v>
+        <v>-7.33096612458277</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.93443150146792</v>
+        <v>-8.09712894690982</v>
       </c>
       <c r="H126" t="n">
-        <v>-8.57588686501998</v>
+        <v>-8.69008644119702</v>
       </c>
       <c r="I126" t="n">
-        <v>-9.08923890073591</v>
+        <v>-9.06120601674794</v>
       </c>
       <c r="J126" t="n">
-        <v>-9.4904896374713</v>
+        <v>-9.22764285811474</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.8602629976753</v>
+        <v>-4.9601456234035</v>
       </c>
       <c r="B127" t="n">
-        <v>10.9305543632893</v>
+        <v>-5.62562358149713</v>
       </c>
       <c r="C127" t="n">
-        <v>11.1798279977449</v>
+        <v>-5.51802237159569</v>
       </c>
       <c r="D127" t="n">
-        <v>14.1747532500371</v>
+        <v>-6.64332592254874</v>
       </c>
       <c r="E127" t="n">
-        <v>14.1073549026819</v>
+        <v>-7.06697240885789</v>
       </c>
       <c r="F127" t="n">
-        <v>4.51665364776779</v>
+        <v>-7.2713257245424</v>
       </c>
       <c r="G127" t="n">
-        <v>4.98313949490771</v>
+        <v>-7.71026503419216</v>
       </c>
       <c r="H127" t="n">
-        <v>6.14824059971951</v>
+        <v>-8.24580601328436</v>
       </c>
       <c r="I127" t="n">
-        <v>6.11032224558901</v>
+        <v>-8.97171164005629</v>
       </c>
       <c r="J127" t="n">
-        <v>7.98857270805262</v>
+        <v>-9.48862955890557</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.25585800321165</v>
+        <v>-4.39366885775762</v>
       </c>
       <c r="B128" t="n">
-        <v>2.75949136310396</v>
+        <v>-5.4666556222593</v>
       </c>
       <c r="C128" t="n">
-        <v>3.72843547859918</v>
+        <v>-6.05966113120987</v>
       </c>
       <c r="D128" t="n">
-        <v>3.8228908956521</v>
+        <v>-6.71384849636288</v>
       </c>
       <c r="E128" t="n">
-        <v>3.93954671368205</v>
+        <v>-7.45163511256357</v>
       </c>
       <c r="F128" t="n">
-        <v>4.65890208311975</v>
+        <v>-6.97439436179005</v>
       </c>
       <c r="G128" t="n">
-        <v>5.62206824191285</v>
+        <v>-7.9726049056942</v>
       </c>
       <c r="H128" t="n">
-        <v>6.16180342880493</v>
+        <v>-8.97271439178768</v>
       </c>
       <c r="I128" t="n">
-        <v>7.11070832543161</v>
+        <v>-8.70097203784448</v>
       </c>
       <c r="J128" t="n">
-        <v>7.26842653759361</v>
+        <v>-9.57784373398439</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.68148710750257</v>
+        <v>10.244335082283</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.5428287037573</v>
+        <v>11.8735195086061</v>
       </c>
       <c r="C129" t="n">
-        <v>11.46962146192</v>
+        <v>11.9695946785191</v>
       </c>
       <c r="D129" t="n">
-        <v>11.8996257711613</v>
+        <v>14.1192927191137</v>
       </c>
       <c r="E129" t="n">
-        <v>13.8098923452735</v>
+        <v>13.9872900045287</v>
       </c>
       <c r="F129" t="n">
-        <v>-7.35695702123926</v>
+        <v>13.9472795374181</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.93413597697827</v>
+        <v>16.6164397474564</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.58032159310033</v>
+        <v>17.0348530710074</v>
       </c>
       <c r="I129" t="n">
-        <v>-8.95972710189229</v>
+        <v>17.7056566409524</v>
       </c>
       <c r="J129" t="n">
-        <v>-9.86184767934662</v>
+        <v>18.2886752025465</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.40355893075489</v>
+        <v>-4.54448198410474</v>
       </c>
       <c r="B130" t="n">
-        <v>11.5980435063968</v>
+        <v>-5.4436180573975</v>
       </c>
       <c r="C130" t="n">
-        <v>11.8216827011679</v>
+        <v>-5.88110408586938</v>
       </c>
       <c r="D130" t="n">
-        <v>12.3523022389631</v>
+        <v>-6.73518506844588</v>
       </c>
       <c r="E130" t="n">
-        <v>5.39780794164514</v>
+        <v>-6.92641545455369</v>
       </c>
       <c r="F130" t="n">
-        <v>4.88332727656787</v>
+        <v>-7.52861055351943</v>
       </c>
       <c r="G130" t="n">
-        <v>5.41365048300822</v>
+        <v>-8.08886788447284</v>
       </c>
       <c r="H130" t="n">
-        <v>6.84602665310097</v>
+        <v>-8.79824666982735</v>
       </c>
       <c r="I130" t="n">
-        <v>6.62205125754261</v>
+        <v>-9.26435270375002</v>
       </c>
       <c r="J130" t="n">
-        <v>7.25525189089148</v>
+        <v>-9.31794657676629</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.57797480390686</v>
+        <v>9.89853062601115</v>
       </c>
       <c r="B131" t="n">
-        <v>3.43622061720228</v>
+        <v>11.8521915804066</v>
       </c>
       <c r="C131" t="n">
-        <v>3.87852358691162</v>
+        <v>12.1872585564222</v>
       </c>
       <c r="D131" t="n">
-        <v>4.11830950705201</v>
+        <v>13.6874412084941</v>
       </c>
       <c r="E131" t="n">
-        <v>4.33216955394936</v>
+        <v>13.0662760852153</v>
       </c>
       <c r="F131" t="n">
-        <v>5.82188767347021</v>
+        <v>15.9240802848375</v>
       </c>
       <c r="G131" t="n">
-        <v>6.02469044438367</v>
+        <v>15.6138133352574</v>
       </c>
       <c r="H131" t="n">
-        <v>6.52712349178363</v>
+        <v>-8.8230938956606</v>
       </c>
       <c r="I131" t="n">
-        <v>6.628899538688</v>
+        <v>16.7006402724082</v>
       </c>
       <c r="J131" t="n">
-        <v>7.46723987066153</v>
+        <v>18.705513968153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.40585822277316</v>
+        <v>11.3519422683088</v>
       </c>
       <c r="B132" t="n">
-        <v>3.26037426797705</v>
+        <v>11.0202657809366</v>
       </c>
       <c r="C132" t="n">
-        <v>2.40058359194384</v>
+        <v>12.1887122989842</v>
       </c>
       <c r="D132" t="n">
-        <v>3.47082994101463</v>
+        <v>12.714213000062</v>
       </c>
       <c r="E132" t="n">
-        <v>4.98584959695338</v>
+        <v>14.4295867770377</v>
       </c>
       <c r="F132" t="n">
-        <v>5.37977320492328</v>
+        <v>15.0694670497531</v>
       </c>
       <c r="G132" t="n">
-        <v>5.65343351574065</v>
+        <v>15.419888377128</v>
       </c>
       <c r="H132" t="n">
-        <v>6.22644739498381</v>
+        <v>17.6287777449948</v>
       </c>
       <c r="I132" t="n">
-        <v>6.66836237823559</v>
+        <v>5.86788653812685</v>
       </c>
       <c r="J132" t="n">
-        <v>6.80282268742029</v>
+        <v>6.26513232661908</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.84452275558122</v>
+        <v>2.37350665914496</v>
       </c>
       <c r="B133" t="n">
-        <v>-6.25981935235162</v>
+        <v>3.44841712856572</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.90575050268747</v>
+        <v>3.8823764672105</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.33036216303895</v>
+        <v>4.46781484517086</v>
       </c>
       <c r="E133" t="n">
-        <v>-6.85344517296475</v>
+        <v>3.25421077875695</v>
       </c>
       <c r="F133" t="n">
-        <v>-8.05611645207028</v>
+        <v>5.13186184532816</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.4385371652901</v>
+        <v>5.10998864665265</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.39642910031499</v>
+        <v>5.59460518053042</v>
       </c>
       <c r="I133" t="n">
-        <v>19.1861719352913</v>
+        <v>6.85235171390227</v>
       </c>
       <c r="J133" t="n">
-        <v>20.5003577364067</v>
+        <v>7.14625832939033</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.85671678276959</v>
+        <v>-5.26138827627414</v>
       </c>
       <c r="B134" t="n">
-        <v>10.1094323676594</v>
+        <v>-5.1504082248168</v>
       </c>
       <c r="C134" t="n">
-        <v>10.9909890213965</v>
+        <v>-5.36585132158967</v>
       </c>
       <c r="D134" t="n">
-        <v>13.1754620206009</v>
+        <v>-6.57632166250721</v>
       </c>
       <c r="E134" t="n">
-        <v>14.3766123404213</v>
+        <v>-7.16090245372398</v>
       </c>
       <c r="F134" t="n">
-        <v>14.3403482768395</v>
+        <v>-7.76044115385473</v>
       </c>
       <c r="G134" t="n">
-        <v>16.0313013998306</v>
+        <v>-8.42624370177064</v>
       </c>
       <c r="H134" t="n">
-        <v>16.1304997052569</v>
+        <v>-8.67228694644315</v>
       </c>
       <c r="I134" t="n">
-        <v>18.1777933565773</v>
+        <v>-9.02233735790124</v>
       </c>
       <c r="J134" t="n">
-        <v>18.8483822937661</v>
+        <v>-9.18532702803007</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.22254327945397</v>
+        <v>-5.06744016266596</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.19925397014113</v>
+        <v>-5.21019720590762</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.79421145480421</v>
+        <v>-6.09336638882607</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.75295240811705</v>
+        <v>-6.26647885114437</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.07092879782026</v>
+        <v>-7.12223369110657</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.65402720355481</v>
+        <v>-7.76037529815786</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.8392898852622</v>
+        <v>-7.67147208119846</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.79710110669731</v>
+        <v>-8.31976781345091</v>
       </c>
       <c r="I135" t="n">
-        <v>-8.82840824232576</v>
+        <v>-8.8865663486671</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.64601274747196</v>
+        <v>-9.36255497151825</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.32312439856253</v>
+        <v>9.7166153151762</v>
       </c>
       <c r="B136" t="n">
-        <v>10.6404088798601</v>
+        <v>11.6706035905164</v>
       </c>
       <c r="C136" t="n">
-        <v>12.3648435425554</v>
+        <v>11.7841319780085</v>
       </c>
       <c r="D136" t="n">
-        <v>13.4980353642714</v>
+        <v>12.4756521897167</v>
       </c>
       <c r="E136" t="n">
-        <v>14.7516756864497</v>
+        <v>14.4633634167593</v>
       </c>
       <c r="F136" t="n">
-        <v>15.6549360181741</v>
+        <v>14.7828586990002</v>
       </c>
       <c r="G136" t="n">
-        <v>15.6415117318889</v>
+        <v>15.8330777129247</v>
       </c>
       <c r="H136" t="n">
-        <v>18.0715145825193</v>
+        <v>16.5059610039984</v>
       </c>
       <c r="I136" t="n">
-        <v>18.4379106219404</v>
+        <v>18.5878731211979</v>
       </c>
       <c r="J136" t="n">
-        <v>7.8742862429708</v>
+        <v>19.0631965134366</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8.53129627147645</v>
+        <v>-5.00527526173017</v>
       </c>
       <c r="B137" t="n">
-        <v>3.71798251242023</v>
+        <v>-5.3270308427974</v>
       </c>
       <c r="C137" t="n">
-        <v>3.90153821577569</v>
+        <v>-6.29603849884638</v>
       </c>
       <c r="D137" t="n">
-        <v>4.99481149102442</v>
+        <v>-6.59845019567179</v>
       </c>
       <c r="E137" t="n">
-        <v>5.05177016639472</v>
+        <v>-6.90627522099812</v>
       </c>
       <c r="F137" t="n">
-        <v>4.7396574808455</v>
+        <v>-8.01050042763522</v>
       </c>
       <c r="G137" t="n">
-        <v>5.79224175442116</v>
+        <v>-7.84235615451592</v>
       </c>
       <c r="H137" t="n">
-        <v>5.61062896614471</v>
+        <v>-8.67014957576241</v>
       </c>
       <c r="I137" t="n">
-        <v>6.66014341883269</v>
+        <v>-8.74118188802277</v>
       </c>
       <c r="J137" t="n">
-        <v>6.69956444021758</v>
+        <v>-9.14562261542019</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.61528600368179</v>
+        <v>9.67593263463998</v>
       </c>
       <c r="B138" t="n">
-        <v>10.9497545762053</v>
+        <v>9.8434937396759</v>
       </c>
       <c r="C138" t="n">
-        <v>12.5912628453482</v>
+        <v>11.1481715914406</v>
       </c>
       <c r="D138" t="n">
-        <v>13.0313786722399</v>
+        <v>12.594253009923</v>
       </c>
       <c r="E138" t="n">
-        <v>14.0504750161925</v>
+        <v>13.5358311295433</v>
       </c>
       <c r="F138" t="n">
-        <v>16.0693079161855</v>
+        <v>15.4498486411238</v>
       </c>
       <c r="G138" t="n">
-        <v>16.5445787796894</v>
+        <v>15.0767195527339</v>
       </c>
       <c r="H138" t="n">
-        <v>6.53579790406972</v>
+        <v>18.4139329116345</v>
       </c>
       <c r="I138" t="n">
-        <v>6.76081828497333</v>
+        <v>18.7135328827338</v>
       </c>
       <c r="J138" t="n">
-        <v>7.65205460201287</v>
+        <v>19.1005469122608</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.0288716945518</v>
+        <v>9.92292273105928</v>
       </c>
       <c r="B139" t="n">
-        <v>10.8389730143193</v>
+        <v>3.32875876407799</v>
       </c>
       <c r="C139" t="n">
-        <v>12.539240528586</v>
+        <v>3.03561391055579</v>
       </c>
       <c r="D139" t="n">
-        <v>12.0307025862118</v>
+        <v>3.86631319392091</v>
       </c>
       <c r="E139" t="n">
-        <v>13.4227055660723</v>
+        <v>4.52418861629349</v>
       </c>
       <c r="F139" t="n">
-        <v>14.9486914981714</v>
+        <v>6.07250976267817</v>
       </c>
       <c r="G139" t="n">
-        <v>5.70427542571448</v>
+        <v>5.70912525411235</v>
       </c>
       <c r="H139" t="n">
-        <v>6.39555046197343</v>
+        <v>7.0456154373203</v>
       </c>
       <c r="I139" t="n">
-        <v>6.82165000962656</v>
+        <v>7.33841370111147</v>
       </c>
       <c r="J139" t="n">
-        <v>6.91687122928201</v>
+        <v>6.86531410257804</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.86074556217167</v>
+        <v>8.94296383949029</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.16565152642963</v>
+        <v>11.2082820141308</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.7264398577493</v>
+        <v>12.1353312877417</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.57294040837958</v>
+        <v>12.3322403483926</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.52944451193359</v>
+        <v>14.723345722896</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.7052271318083</v>
+        <v>14.4191966586903</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.49553841753029</v>
+        <v>16.8360620758954</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.71903606926463</v>
+        <v>16.8743136747582</v>
       </c>
       <c r="I140" t="n">
-        <v>17.3102561799338</v>
+        <v>18.1246055706267</v>
       </c>
       <c r="J140" t="n">
-        <v>18.7739178087298</v>
+        <v>18.82156168124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-5.17888613549853</v>
+        <v>2.42124779404482</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.17778599346173</v>
+        <v>2.63783950742722</v>
       </c>
       <c r="C141" t="n">
-        <v>-5.97447831737086</v>
+        <v>3.21514621271101</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.89767339198047</v>
+        <v>4.07885096320091</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.93420496975879</v>
+        <v>13.7110365884579</v>
       </c>
       <c r="F141" t="n">
-        <v>-7.16881513366802</v>
+        <v>14.1135869262006</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.18955921454621</v>
+        <v>15.6504768224476</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.58530087180378</v>
+        <v>17.1455722765172</v>
       </c>
       <c r="I141" t="n">
-        <v>-9.44388693986119</v>
+        <v>17.9134157280382</v>
       </c>
       <c r="J141" t="n">
-        <v>-9.59650521323223</v>
+        <v>18.540145034339</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.2276384518356</v>
+        <v>2.25182979035271</v>
       </c>
       <c r="B142" t="n">
-        <v>10.5184130765908</v>
+        <v>2.83357551613874</v>
       </c>
       <c r="C142" t="n">
-        <v>11.3335329630267</v>
+        <v>4.11948752513611</v>
       </c>
       <c r="D142" t="n">
-        <v>12.7100350884179</v>
+        <v>4.07092281995176</v>
       </c>
       <c r="E142" t="n">
-        <v>14.1013179571405</v>
+        <v>4.03330082591454</v>
       </c>
       <c r="F142" t="n">
-        <v>16.1561972687743</v>
+        <v>5.09923227211527</v>
       </c>
       <c r="G142" t="n">
-        <v>15.3333456073288</v>
+        <v>5.6909012006384</v>
       </c>
       <c r="H142" t="n">
-        <v>16.3026137911206</v>
+        <v>5.66884223377641</v>
       </c>
       <c r="I142" t="n">
-        <v>16.8061109388158</v>
+        <v>6.48063104185837</v>
       </c>
       <c r="J142" t="n">
-        <v>18.0544915888904</v>
+        <v>7.93832996710311</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.0702244782021</v>
+        <v>-5.18659434449851</v>
       </c>
       <c r="B143" t="n">
-        <v>10.7376555763272</v>
+        <v>-5.53628008001387</v>
       </c>
       <c r="C143" t="n">
-        <v>10.7870588927317</v>
+        <v>-6.19456152369991</v>
       </c>
       <c r="D143" t="n">
-        <v>13.0206267359415</v>
+        <v>-6.27848950333296</v>
       </c>
       <c r="E143" t="n">
-        <v>15.1335844086421</v>
+        <v>-6.74632328094055</v>
       </c>
       <c r="F143" t="n">
-        <v>5.00311444024009</v>
+        <v>-7.23088624412111</v>
       </c>
       <c r="G143" t="n">
-        <v>5.0248325828413</v>
+        <v>-8.02649602154097</v>
       </c>
       <c r="H143" t="n">
-        <v>6.59211632507132</v>
+        <v>-8.33052485258076</v>
       </c>
       <c r="I143" t="n">
-        <v>6.96765530131221</v>
+        <v>17.1502840193463</v>
       </c>
       <c r="J143" t="n">
-        <v>6.97254721314863</v>
+        <v>19.3119959819356</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.65663211234811</v>
+        <v>9.64099840151061</v>
       </c>
       <c r="B144" t="n">
-        <v>10.9075048810614</v>
+        <v>10.884435965258</v>
       </c>
       <c r="C144" t="n">
-        <v>12.9967048302429</v>
+        <v>12.6732235256164</v>
       </c>
       <c r="D144" t="n">
-        <v>12.6390792676195</v>
+        <v>13.4716409308766</v>
       </c>
       <c r="E144" t="n">
-        <v>15.0841195987446</v>
+        <v>15.0026872921344</v>
       </c>
       <c r="F144" t="n">
-        <v>14.7556943065059</v>
+        <v>13.9184403803298</v>
       </c>
       <c r="G144" t="n">
-        <v>15.678472432431</v>
+        <v>16.9920005613437</v>
       </c>
       <c r="H144" t="n">
-        <v>17.284172516638</v>
+        <v>17.2889412523704</v>
       </c>
       <c r="I144" t="n">
-        <v>18.8435902263571</v>
+        <v>18.7486869062131</v>
       </c>
       <c r="J144" t="n">
-        <v>17.9057980799324</v>
+        <v>18.3549256539295</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.25185899798938</v>
+        <v>10.2882570612525</v>
       </c>
       <c r="B145" t="n">
-        <v>11.1087865016341</v>
+        <v>10.1163686557667</v>
       </c>
       <c r="C145" t="n">
-        <v>11.3230771517913</v>
+        <v>12.8861945298449</v>
       </c>
       <c r="D145" t="n">
-        <v>13.1990012416879</v>
+        <v>13.4490545203798</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.08191004391664</v>
+        <v>14.4430812971701</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.39989929386287</v>
+        <v>14.3075938984735</v>
       </c>
       <c r="G145" t="n">
-        <v>-7.88849862461416</v>
+        <v>16.2143970643907</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.42791266924399</v>
+        <v>16.7843942999849</v>
       </c>
       <c r="I145" t="n">
-        <v>-9.61752670939681</v>
+        <v>17.7292358639657</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.14111378181938</v>
+        <v>18.7694955731209</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.0125207466952</v>
+        <v>2.89227460909011</v>
       </c>
       <c r="B146" t="n">
-        <v>12.3150023126424</v>
+        <v>3.0639376100173</v>
       </c>
       <c r="C146" t="n">
-        <v>12.5532611168289</v>
+        <v>3.75938428187004</v>
       </c>
       <c r="D146" t="n">
-        <v>11.5640013666719</v>
+        <v>5.24371539159008</v>
       </c>
       <c r="E146" t="n">
-        <v>12.899523785858</v>
+        <v>5.11385562239317</v>
       </c>
       <c r="F146" t="n">
-        <v>-7.72878213337929</v>
+        <v>5.82185548764872</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.74622718542642</v>
+        <v>4.57223429054165</v>
       </c>
       <c r="H146" t="n">
-        <v>-8.59840446847188</v>
+        <v>6.29779531881537</v>
       </c>
       <c r="I146" t="n">
-        <v>-9.3368768015295</v>
+        <v>6.05970922068752</v>
       </c>
       <c r="J146" t="n">
-        <v>-9.50707264814479</v>
+        <v>7.08423906898494</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11.6570389523219</v>
+        <v>-4.55031570155413</v>
       </c>
       <c r="B147" t="n">
-        <v>11.5994523967189</v>
+        <v>-5.48712333243986</v>
       </c>
       <c r="C147" t="n">
-        <v>12.7768928674867</v>
+        <v>12.2928669750242</v>
       </c>
       <c r="D147" t="n">
-        <v>11.9583188518976</v>
+        <v>13.0440945289877</v>
       </c>
       <c r="E147" t="n">
-        <v>14.1978354161285</v>
+        <v>14.7737314853538</v>
       </c>
       <c r="F147" t="n">
-        <v>4.93349945679904</v>
+        <v>15.4052027998597</v>
       </c>
       <c r="G147" t="n">
-        <v>5.36496726934124</v>
+        <v>16.032776328598</v>
       </c>
       <c r="H147" t="n">
-        <v>6.09992886511076</v>
+        <v>16.8440412178421</v>
       </c>
       <c r="I147" t="n">
-        <v>6.0224492464644</v>
+        <v>17.6534327944795</v>
       </c>
       <c r="J147" t="n">
-        <v>7.53175181927918</v>
+        <v>19.3639805330179</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.15316928840785</v>
+        <v>10.4542492840097</v>
       </c>
       <c r="B148" t="n">
-        <v>2.68331294286781</v>
+        <v>12.7655345409698</v>
       </c>
       <c r="C148" t="n">
-        <v>3.26898357818638</v>
+        <v>10.5499520916463</v>
       </c>
       <c r="D148" t="n">
-        <v>4.5639758064327</v>
+        <v>12.8946216460154</v>
       </c>
       <c r="E148" t="n">
-        <v>4.26285626987581</v>
+        <v>11.7241782113814</v>
       </c>
       <c r="F148" t="n">
-        <v>4.55322613694243</v>
+        <v>15.7302488101273</v>
       </c>
       <c r="G148" t="n">
-        <v>5.93037792977406</v>
+        <v>16.0629050748796</v>
       </c>
       <c r="H148" t="n">
-        <v>6.52633892832851</v>
+        <v>-8.74586419017349</v>
       </c>
       <c r="I148" t="n">
-        <v>6.50226438268427</v>
+        <v>-9.21537155360597</v>
       </c>
       <c r="J148" t="n">
-        <v>7.13785606768778</v>
+        <v>-9.79362679011899</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.6106592757829</v>
+        <v>2.94918175799277</v>
       </c>
       <c r="B149" t="n">
-        <v>10.4362411328432</v>
+        <v>3.52184027600087</v>
       </c>
       <c r="C149" t="n">
-        <v>11.4472426932615</v>
+        <v>3.4820784690572</v>
       </c>
       <c r="D149" t="n">
-        <v>12.8854019489652</v>
+        <v>4.88572727774644</v>
       </c>
       <c r="E149" t="n">
-        <v>13.252123504222</v>
+        <v>4.39596704765583</v>
       </c>
       <c r="F149" t="n">
-        <v>15.0220581734233</v>
+        <v>5.50521342510807</v>
       </c>
       <c r="G149" t="n">
-        <v>15.4167717556553</v>
+        <v>5.09835257296645</v>
       </c>
       <c r="H149" t="n">
-        <v>17.9519399801996</v>
+        <v>5.97813000656841</v>
       </c>
       <c r="I149" t="n">
-        <v>17.0975058369052</v>
+        <v>6.0598206216881</v>
       </c>
       <c r="J149" t="n">
-        <v>19.147704355197</v>
+        <v>6.39802849210437</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.10076280983292</v>
+        <v>9.44254071926409</v>
       </c>
       <c r="B150" t="n">
-        <v>2.85899298139642</v>
+        <v>10.742945359402</v>
       </c>
       <c r="C150" t="n">
-        <v>3.44258520437915</v>
+        <v>12.4423534155183</v>
       </c>
       <c r="D150" t="n">
-        <v>4.05780741563922</v>
+        <v>12.8016499884685</v>
       </c>
       <c r="E150" t="n">
-        <v>3.57608078184684</v>
+        <v>13.8329353844129</v>
       </c>
       <c r="F150" t="n">
-        <v>4.3994070790459</v>
+        <v>14.1629445744953</v>
       </c>
       <c r="G150" t="n">
-        <v>5.16213271335317</v>
+        <v>16.99261885406</v>
       </c>
       <c r="H150" t="n">
-        <v>7.6738120260263</v>
+        <v>17.6940478143845</v>
       </c>
       <c r="I150" t="n">
-        <v>6.56855970910747</v>
+        <v>18.8010568172515</v>
       </c>
       <c r="J150" t="n">
-        <v>6.79456923487001</v>
+        <v>19.2224405830681</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.48736148704162</v>
+        <v>9.63897565825485</v>
       </c>
       <c r="B151" t="n">
-        <v>11.4918638573317</v>
+        <v>10.8624210912231</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.96162176737804</v>
+        <v>11.5260645672582</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.69186985420719</v>
+        <v>12.6891865263378</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.33725025073874</v>
+        <v>4.44637524292706</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.44700445795167</v>
+        <v>4.81616492635135</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.73189764742897</v>
+        <v>5.28089970122643</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.83694597155036</v>
+        <v>6.83559928543537</v>
       </c>
       <c r="I151" t="n">
-        <v>-8.84403820067089</v>
+        <v>6.58655996945085</v>
       </c>
       <c r="J151" t="n">
-        <v>-9.3845599184026</v>
+        <v>7.52430284584071</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-4.69736328536233</v>
+        <v>-4.51801856258453</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.51447530289788</v>
+        <v>-5.47520068971861</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.0965519146685</v>
+        <v>-6.46694861352717</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.37610852616258</v>
+        <v>13.6387638897627</v>
       </c>
       <c r="E152" t="n">
-        <v>-6.80738771709799</v>
+        <v>13.0087064226451</v>
       </c>
       <c r="F152" t="n">
-        <v>-7.50617516078524</v>
+        <v>14.1539177827699</v>
       </c>
       <c r="G152" t="n">
-        <v>-8.5595795848459</v>
+        <v>15.4351540923883</v>
       </c>
       <c r="H152" t="n">
-        <v>-8.48811984747379</v>
+        <v>16.2402207049852</v>
       </c>
       <c r="I152" t="n">
-        <v>-8.81075188100809</v>
+        <v>19.1140754047835</v>
       </c>
       <c r="J152" t="n">
-        <v>-8.99242778441807</v>
+        <v>18.2189988335345</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.90270958723481</v>
+        <v>-5.47897459499663</v>
       </c>
       <c r="B153" t="n">
-        <v>2.95255266008047</v>
+        <v>-5.84514181619501</v>
       </c>
       <c r="C153" t="n">
-        <v>3.13778864729061</v>
+        <v>-6.27170592513414</v>
       </c>
       <c r="D153" t="n">
-        <v>4.22282210842795</v>
+        <v>-6.55590597266288</v>
       </c>
       <c r="E153" t="n">
-        <v>4.11858846137731</v>
+        <v>-6.9104052383375</v>
       </c>
       <c r="F153" t="n">
-        <v>4.89836295062492</v>
+        <v>-7.39696997131168</v>
       </c>
       <c r="G153" t="n">
-        <v>5.29295931075187</v>
+        <v>-7.9751239911948</v>
       </c>
       <c r="H153" t="n">
-        <v>5.68589560217962</v>
+        <v>-8.41430273209017</v>
       </c>
       <c r="I153" t="n">
-        <v>7.13128868216913</v>
+        <v>-8.89670265130439</v>
       </c>
       <c r="J153" t="n">
-        <v>6.66680975826031</v>
+        <v>-9.47883753101024</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-4.8925598322366</v>
+        <v>10.3325788290353</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.25845392576486</v>
+        <v>11.6678850986781</v>
       </c>
       <c r="C154" t="n">
-        <v>-6.40603144622561</v>
+        <v>11.7436359147292</v>
       </c>
       <c r="D154" t="n">
-        <v>-6.20474177721343</v>
+        <v>14.2952828483812</v>
       </c>
       <c r="E154" t="n">
-        <v>-6.88353664324725</v>
+        <v>13.4473075734779</v>
       </c>
       <c r="F154" t="n">
-        <v>-7.60743513623861</v>
+        <v>-7.65740551268727</v>
       </c>
       <c r="G154" t="n">
-        <v>-8.17994307140186</v>
+        <v>-7.65945762761286</v>
       </c>
       <c r="H154" t="n">
-        <v>-8.49198472899571</v>
+        <v>-8.49704940557513</v>
       </c>
       <c r="I154" t="n">
-        <v>-9.15186157556973</v>
+        <v>-8.83084531694542</v>
       </c>
       <c r="J154" t="n">
-        <v>-9.09247727014624</v>
+        <v>-9.10542967495102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.96254783820053</v>
+        <v>10.5594414497321</v>
       </c>
       <c r="B155" t="n">
-        <v>2.37891047168258</v>
+        <v>11.0606648136024</v>
       </c>
       <c r="C155" t="n">
-        <v>2.07101145202722</v>
+        <v>12.5291150500443</v>
       </c>
       <c r="D155" t="n">
-        <v>3.66791001195495</v>
+        <v>12.3459170549315</v>
       </c>
       <c r="E155" t="n">
-        <v>5.29575575962114</v>
+        <v>13.9616339968588</v>
       </c>
       <c r="F155" t="n">
-        <v>3.87358091041796</v>
+        <v>14.5559599625997</v>
       </c>
       <c r="G155" t="n">
-        <v>5.03711585496391</v>
+        <v>15.620720688331</v>
       </c>
       <c r="H155" t="n">
-        <v>5.84720453503106</v>
+        <v>-8.54841562068493</v>
       </c>
       <c r="I155" t="n">
-        <v>5.5314087198267</v>
+        <v>-9.04660902347006</v>
       </c>
       <c r="J155" t="n">
-        <v>7.38224025015487</v>
+        <v>-9.17518467055306</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.80305790957627</v>
+        <v>2.37996652749067</v>
       </c>
       <c r="B156" t="n">
-        <v>9.95720824997922</v>
+        <v>2.68910491496037</v>
       </c>
       <c r="C156" t="n">
-        <v>10.9450971562567</v>
+        <v>3.7321294926234</v>
       </c>
       <c r="D156" t="n">
-        <v>13.5925752032554</v>
+        <v>4.07081039763784</v>
       </c>
       <c r="E156" t="n">
-        <v>14.1962022241461</v>
+        <v>5.15709718940496</v>
       </c>
       <c r="F156" t="n">
-        <v>14.6232020011595</v>
+        <v>5.04358766261629</v>
       </c>
       <c r="G156" t="n">
-        <v>17.2539386371804</v>
+        <v>5.93775551205838</v>
       </c>
       <c r="H156" t="n">
-        <v>16.0108667084726</v>
+        <v>6.42573396482882</v>
       </c>
       <c r="I156" t="n">
-        <v>17.6166143177812</v>
+        <v>6.68170197864058</v>
       </c>
       <c r="J156" t="n">
-        <v>19.1659640628278</v>
+        <v>6.92225572402112</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.38875863420268</v>
+        <v>10.1129511868418</v>
       </c>
       <c r="B157" t="n">
-        <v>11.8355839885884</v>
+        <v>13.817034098609</v>
       </c>
       <c r="C157" t="n">
-        <v>10.1337941411964</v>
+        <v>11.7010667297875</v>
       </c>
       <c r="D157" t="n">
-        <v>12.4683600348241</v>
+        <v>13.153600363579</v>
       </c>
       <c r="E157" t="n">
-        <v>13.0384508897053</v>
+        <v>14.6047697270195</v>
       </c>
       <c r="F157" t="n">
-        <v>15.060838473861</v>
+        <v>14.487955430193</v>
       </c>
       <c r="G157" t="n">
-        <v>16.3471834890205</v>
+        <v>16.3612313178433</v>
       </c>
       <c r="H157" t="n">
-        <v>17.461085654366</v>
+        <v>17.7179358782641</v>
       </c>
       <c r="I157" t="n">
-        <v>18.6125934603506</v>
+        <v>18.3091798561453</v>
       </c>
       <c r="J157" t="n">
-        <v>19.6773255957563</v>
+        <v>20.8467833946109</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-5.39939518899285</v>
+        <v>9.81227934831726</v>
       </c>
       <c r="B158" t="n">
-        <v>-5.70433601235988</v>
+        <v>10.2463675893102</v>
       </c>
       <c r="C158" t="n">
-        <v>-6.03306009402266</v>
+        <v>10.9594341357614</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.38486925350852</v>
+        <v>12.9956089378373</v>
       </c>
       <c r="E158" t="n">
-        <v>-7.08941296698881</v>
+        <v>14.7390391263838</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.50870868356577</v>
+        <v>4.52411092472597</v>
       </c>
       <c r="G158" t="n">
-        <v>-8.08123291612409</v>
+        <v>5.92682769660967</v>
       </c>
       <c r="H158" t="n">
-        <v>-8.64812612446924</v>
+        <v>5.53077657479636</v>
       </c>
       <c r="I158" t="n">
-        <v>-8.93754187628236</v>
+        <v>5.73853092883281</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.67171081619024</v>
+        <v>18.6743995104111</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.50078085008839</v>
+        <v>-4.96904454804999</v>
       </c>
       <c r="B159" t="n">
-        <v>2.56786629844743</v>
+        <v>-5.58809699750331</v>
       </c>
       <c r="C159" t="n">
-        <v>3.94715430030315</v>
+        <v>-5.8629599717285</v>
       </c>
       <c r="D159" t="n">
-        <v>3.99118100472109</v>
+        <v>-6.48287484347447</v>
       </c>
       <c r="E159" t="n">
-        <v>5.20634509929045</v>
+        <v>-7.1069364754461</v>
       </c>
       <c r="F159" t="n">
-        <v>4.46674714693913</v>
+        <v>-7.06382345929232</v>
       </c>
       <c r="G159" t="n">
-        <v>5.21442506588566</v>
+        <v>-7.64876778702181</v>
       </c>
       <c r="H159" t="n">
-        <v>5.47433302275564</v>
+        <v>-8.88097245884594</v>
       </c>
       <c r="I159" t="n">
-        <v>6.27019967776798</v>
+        <v>-8.99207970102723</v>
       </c>
       <c r="J159" t="n">
-        <v>6.95117467519142</v>
+        <v>-9.28461712179335</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.50171041853911</v>
+        <v>8.20658037428679</v>
       </c>
       <c r="B160" t="n">
-        <v>3.55426786468621</v>
+        <v>9.66814381520929</v>
       </c>
       <c r="C160" t="n">
-        <v>2.94871093979455</v>
+        <v>11.7230785243734</v>
       </c>
       <c r="D160" t="n">
-        <v>4.09225743872641</v>
+        <v>13.0677630721714</v>
       </c>
       <c r="E160" t="n">
-        <v>4.63431484546053</v>
+        <v>12.4321047585256</v>
       </c>
       <c r="F160" t="n">
-        <v>5.80156457897035</v>
+        <v>15.3162603866651</v>
       </c>
       <c r="G160" t="n">
-        <v>6.1151889249304</v>
+        <v>16.4561781718678</v>
       </c>
       <c r="H160" t="n">
-        <v>6.02194799496292</v>
+        <v>16.5729085067713</v>
       </c>
       <c r="I160" t="n">
-        <v>6.94196100106048</v>
+        <v>18.9320252088773</v>
       </c>
       <c r="J160" t="n">
-        <v>7.78559816536018</v>
+        <v>19.0634248339814</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-5.38787601497469</v>
+        <v>-4.82785122160318</v>
       </c>
       <c r="B161" t="n">
-        <v>-5.17593599689061</v>
+        <v>-5.57130224300723</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.45369758271194</v>
+        <v>-6.21019627518617</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.99575363748076</v>
+        <v>-6.60247641677313</v>
       </c>
       <c r="E161" t="n">
-        <v>-7.00356357553076</v>
+        <v>-7.06206331329303</v>
       </c>
       <c r="F161" t="n">
-        <v>-7.3033845229177</v>
+        <v>-7.65509945129719</v>
       </c>
       <c r="G161" t="n">
-        <v>-8.3593272289292</v>
+        <v>-7.33339225777246</v>
       </c>
       <c r="H161" t="n">
-        <v>-8.27493413287792</v>
+        <v>-8.01336940731878</v>
       </c>
       <c r="I161" t="n">
-        <v>-8.68628467601857</v>
+        <v>-9.22810159047143</v>
       </c>
       <c r="J161" t="n">
-        <v>-8.88873781788466</v>
+        <v>-9.27770913541458</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-4.85007697256229</v>
+        <v>9.21287359675974</v>
       </c>
       <c r="B162" t="n">
-        <v>-5.58315903084107</v>
+        <v>10.8761899075152</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.87232734941368</v>
+        <v>11.8856755031896</v>
       </c>
       <c r="D162" t="n">
-        <v>-6.52143618734295</v>
+        <v>12.4912458044529</v>
       </c>
       <c r="E162" t="n">
-        <v>-6.97475065145498</v>
+        <v>14.3501750623344</v>
       </c>
       <c r="F162" t="n">
-        <v>-7.34397736618166</v>
+        <v>15.4402815809648</v>
       </c>
       <c r="G162" t="n">
-        <v>15.1344070154075</v>
+        <v>14.3875848035306</v>
       </c>
       <c r="H162" t="n">
-        <v>17.3591116208112</v>
+        <v>16.8191886555952</v>
       </c>
       <c r="I162" t="n">
-        <v>18.1122232673446</v>
+        <v>17.2400756599468</v>
       </c>
       <c r="J162" t="n">
-        <v>19.2625877881018</v>
+        <v>18.6217083414315</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-4.98048225346913</v>
+        <v>9.3077469958309</v>
       </c>
       <c r="B163" t="n">
-        <v>-5.44832248313678</v>
+        <v>11.4455660916871</v>
       </c>
       <c r="C163" t="n">
-        <v>-6.05115301998403</v>
+        <v>12.7901652435177</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.57532622204643</v>
+        <v>13.5446302356765</v>
       </c>
       <c r="E163" t="n">
-        <v>13.9453415313764</v>
+        <v>14.3807767059157</v>
       </c>
       <c r="F163" t="n">
-        <v>3.96362411642447</v>
+        <v>15.1982626527808</v>
       </c>
       <c r="G163" t="n">
-        <v>5.5490111150721</v>
+        <v>16.5189188554797</v>
       </c>
       <c r="H163" t="n">
-        <v>5.49330983468066</v>
+        <v>16.2647912266115</v>
       </c>
       <c r="I163" t="n">
-        <v>7.32406964920888</v>
+        <v>19.2716329572313</v>
       </c>
       <c r="J163" t="n">
-        <v>7.63366207811379</v>
+        <v>17.5913040647563</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.58927027688614</v>
+        <v>9.96843062287128</v>
       </c>
       <c r="B164" t="n">
-        <v>11.2429870029633</v>
+        <v>11.7543223325507</v>
       </c>
       <c r="C164" t="n">
-        <v>11.5282806442424</v>
+        <v>11.9525199896489</v>
       </c>
       <c r="D164" t="n">
-        <v>11.4515026576918</v>
+        <v>13.9820193859372</v>
       </c>
       <c r="E164" t="n">
-        <v>14.5534186408488</v>
+        <v>14.0817017599184</v>
       </c>
       <c r="F164" t="n">
-        <v>15.0481297630062</v>
+        <v>16.4282116168079</v>
       </c>
       <c r="G164" t="n">
-        <v>16.8181869434597</v>
+        <v>16.0431683609297</v>
       </c>
       <c r="H164" t="n">
-        <v>17.7915428351374</v>
+        <v>17.156824992478</v>
       </c>
       <c r="I164" t="n">
-        <v>17.8248766945857</v>
+        <v>17.7924065717255</v>
       </c>
       <c r="J164" t="n">
-        <v>20.4042079042525</v>
+        <v>19.0775822116378</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8.98704659641214</v>
+        <v>11.7637658617888</v>
       </c>
       <c r="B165" t="n">
-        <v>10.5204337573314</v>
+        <v>10.7245299775075</v>
       </c>
       <c r="C165" t="n">
-        <v>12.0726523863285</v>
+        <v>12.0254160936351</v>
       </c>
       <c r="D165" t="n">
-        <v>13.1371107882754</v>
+        <v>13.5689835763165</v>
       </c>
       <c r="E165" t="n">
-        <v>11.1335870696603</v>
+        <v>12.3124347111508</v>
       </c>
       <c r="F165" t="n">
-        <v>15.2665123235922</v>
+        <v>14.8211906299635</v>
       </c>
       <c r="G165" t="n">
-        <v>15.8217133694659</v>
+        <v>15.7705934659021</v>
       </c>
       <c r="H165" t="n">
-        <v>15.9794396481868</v>
+        <v>16.8608937052367</v>
       </c>
       <c r="I165" t="n">
-        <v>18.1910703185795</v>
+        <v>18.0976830912297</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.53707622978844</v>
+        <v>18.0420664838353</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.1939196077591</v>
+        <v>2.49776570474422</v>
       </c>
       <c r="B166" t="n">
-        <v>9.95942829455857</v>
+        <v>2.03794567023073</v>
       </c>
       <c r="C166" t="n">
-        <v>11.8649555013624</v>
+        <v>3.30802951008962</v>
       </c>
       <c r="D166" t="n">
-        <v>12.2623702348003</v>
+        <v>5.08881403162215</v>
       </c>
       <c r="E166" t="n">
-        <v>13.4714953347599</v>
+        <v>4.6236931315288</v>
       </c>
       <c r="F166" t="n">
-        <v>5.44527277454495</v>
+        <v>5.69704932868448</v>
       </c>
       <c r="G166" t="n">
-        <v>5.52256554199488</v>
+        <v>4.44510141760526</v>
       </c>
       <c r="H166" t="n">
-        <v>4.26299874027298</v>
+        <v>5.60174068414593</v>
       </c>
       <c r="I166" t="n">
-        <v>6.15576011937492</v>
+        <v>6.91489103587365</v>
       </c>
       <c r="J166" t="n">
-        <v>6.42765811796735</v>
+        <v>7.69132209908666</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-5.04675476778217</v>
+        <v>9.69423654699746</v>
       </c>
       <c r="B167" t="n">
-        <v>-5.70108884444969</v>
+        <v>9.71450984266272</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.26080535092628</v>
+        <v>11.4179824444249</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.58367687587715</v>
+        <v>13.1931838379884</v>
       </c>
       <c r="E167" t="n">
-        <v>-6.97031795986046</v>
+        <v>4.5931216776611</v>
       </c>
       <c r="F167" t="n">
-        <v>-7.79456501910731</v>
+        <v>4.77621327979382</v>
       </c>
       <c r="G167" t="n">
-        <v>-8.10020189974045</v>
+        <v>6.04754442378155</v>
       </c>
       <c r="H167" t="n">
-        <v>-8.50797543895451</v>
+        <v>5.34409582970056</v>
       </c>
       <c r="I167" t="n">
-        <v>17.2354004745623</v>
+        <v>6.35442552645556</v>
       </c>
       <c r="J167" t="n">
-        <v>7.30131666441934</v>
+        <v>6.65990660151584</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.55298806644764</v>
+        <v>9.33622570566896</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.34729839153229</v>
+        <v>10.7006260275823</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.32213065243856</v>
+        <v>12.579923101556</v>
       </c>
       <c r="D168" t="n">
-        <v>13.350063048856</v>
+        <v>14.1958866583879</v>
       </c>
       <c r="E168" t="n">
-        <v>13.5916237475499</v>
+        <v>12.7596285284612</v>
       </c>
       <c r="F168" t="n">
-        <v>14.079714294972</v>
+        <v>14.5246643944568</v>
       </c>
       <c r="G168" t="n">
-        <v>14.8006590654408</v>
+        <v>15.8211348197027</v>
       </c>
       <c r="H168" t="n">
-        <v>15.7938501586555</v>
+        <v>17.5627611143038</v>
       </c>
       <c r="I168" t="n">
-        <v>16.4443350606608</v>
+        <v>19.3304827491682</v>
       </c>
       <c r="J168" t="n">
-        <v>18.8874853123995</v>
+        <v>19.4038454072112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-5.14782853006261</v>
+        <v>-5.07310797287645</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.61938644703012</v>
+        <v>-5.42141016801184</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.72064789510671</v>
+        <v>-5.79180542690518</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.170712164977</v>
+        <v>-6.48639715307929</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.11981728241904</v>
+        <v>-7.0129669272892</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.38998283858373</v>
+        <v>-7.61387696903806</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.92568368421401</v>
+        <v>-8.25886193828607</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.30731926873679</v>
+        <v>-8.5705418204626</v>
       </c>
       <c r="I169" t="n">
-        <v>-9.04601295916069</v>
+        <v>-9.34538271504153</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.38420531462278</v>
+        <v>-9.97696469451801</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-5.27896992670326</v>
+        <v>9.35445629552819</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.47511054301376</v>
+        <v>11.0704192882483</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.26285495159791</v>
+        <v>12.2143893184192</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.08170057242167</v>
+        <v>12.8302789006404</v>
       </c>
       <c r="E170" t="n">
-        <v>14.2060878937836</v>
+        <v>13.9773903801353</v>
       </c>
       <c r="F170" t="n">
-        <v>15.0663405861994</v>
+        <v>15.0984157962866</v>
       </c>
       <c r="G170" t="n">
-        <v>15.8708484906072</v>
+        <v>15.6594018699123</v>
       </c>
       <c r="H170" t="n">
-        <v>15.862662344646</v>
+        <v>16.5723887423804</v>
       </c>
       <c r="I170" t="n">
-        <v>17.020676926767</v>
+        <v>17.1201058379909</v>
       </c>
       <c r="J170" t="n">
-        <v>20.427746487353</v>
+        <v>18.8461621720606</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.6305648740641</v>
+        <v>9.59274869226837</v>
       </c>
       <c r="B171" t="n">
-        <v>11.0533289800776</v>
+        <v>10.5090888002335</v>
       </c>
       <c r="C171" t="n">
-        <v>12.1256650366848</v>
+        <v>11.6534151420167</v>
       </c>
       <c r="D171" t="n">
-        <v>14.1800919051847</v>
+        <v>12.8558632149664</v>
       </c>
       <c r="E171" t="n">
-        <v>13.6656595154226</v>
+        <v>15.10249272092</v>
       </c>
       <c r="F171" t="n">
-        <v>17.0441173032481</v>
+        <v>15.6015458517898</v>
       </c>
       <c r="G171" t="n">
-        <v>15.5810893852893</v>
+        <v>14.4120737970006</v>
       </c>
       <c r="H171" t="n">
-        <v>5.14562138226965</v>
+        <v>17.1452008663833</v>
       </c>
       <c r="I171" t="n">
-        <v>5.98531261333216</v>
+        <v>18.1713005926274</v>
       </c>
       <c r="J171" t="n">
-        <v>6.85206244186638</v>
+        <v>19.7220347728742</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-5.57324387909198</v>
+        <v>2.63855158190955</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.62059432386818</v>
+        <v>3.05425710024598</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.87524775789747</v>
+        <v>3.81605686927743</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.05797782255854</v>
+        <v>4.25108709699385</v>
       </c>
       <c r="E172" t="n">
-        <v>-6.40704643638097</v>
+        <v>3.82583463669506</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.3286312255631</v>
+        <v>5.23745631755754</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.43116882155726</v>
+        <v>5.31703327666095</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.64441750693238</v>
+        <v>6.57235149074511</v>
       </c>
       <c r="I172" t="n">
-        <v>-8.85632515616352</v>
+        <v>6.40800473320089</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.26695078435203</v>
+        <v>6.45602178897312</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.72729849236797</v>
+        <v>-5.11906738373881</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.07986576933528</v>
+        <v>-5.53063929145765</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.24169819361516</v>
+        <v>-5.75270174244836</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.39360805798147</v>
+        <v>-6.6230237175258</v>
       </c>
       <c r="E173" t="n">
-        <v>-6.66175751590803</v>
+        <v>-7.06941994321119</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.42740062412957</v>
+        <v>-7.28396542595091</v>
       </c>
       <c r="G173" t="n">
-        <v>-8.52619553006402</v>
+        <v>-7.68870029765263</v>
       </c>
       <c r="H173" t="n">
-        <v>7.31969628128047</v>
+        <v>-8.60684618340848</v>
       </c>
       <c r="I173" t="n">
-        <v>7.10624846039012</v>
+        <v>-9.31412937663898</v>
       </c>
       <c r="J173" t="n">
-        <v>7.14586112079858</v>
+        <v>-9.61534020518213</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9.92232518487988</v>
+        <v>-5.30819504699791</v>
       </c>
       <c r="B174" t="n">
-        <v>10.9630841789717</v>
+        <v>-5.38363154081239</v>
       </c>
       <c r="C174" t="n">
-        <v>3.18429073317157</v>
+        <v>-5.79836322536093</v>
       </c>
       <c r="D174" t="n">
-        <v>2.96928225034017</v>
+        <v>-6.60406609700627</v>
       </c>
       <c r="E174" t="n">
-        <v>4.67054192263629</v>
+        <v>-7.17789805005993</v>
       </c>
       <c r="F174" t="n">
-        <v>5.17980590133801</v>
+        <v>-7.36088256388726</v>
       </c>
       <c r="G174" t="n">
-        <v>5.62275341523273</v>
+        <v>-7.66297907990692</v>
       </c>
       <c r="H174" t="n">
-        <v>5.85928486574836</v>
+        <v>-8.64198667234394</v>
       </c>
       <c r="I174" t="n">
-        <v>5.66359027159587</v>
+        <v>-8.95361670407285</v>
       </c>
       <c r="J174" t="n">
-        <v>6.80331510376865</v>
+        <v>-9.74710158824148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.55199054383398</v>
+        <v>9.03125696168497</v>
       </c>
       <c r="B175" t="n">
-        <v>2.32628864191023</v>
+        <v>11.3403068853209</v>
       </c>
       <c r="C175" t="n">
-        <v>3.14872778174304</v>
+        <v>11.8656255760623</v>
       </c>
       <c r="D175" t="n">
-        <v>3.77236638900904</v>
+        <v>13.5278044480614</v>
       </c>
       <c r="E175" t="n">
-        <v>4.50311148977176</v>
+        <v>13.4387559321449</v>
       </c>
       <c r="F175" t="n">
-        <v>5.64422680217901</v>
+        <v>15.4037393855104</v>
       </c>
       <c r="G175" t="n">
-        <v>5.19534383037807</v>
+        <v>16.8713326575942</v>
       </c>
       <c r="H175" t="n">
-        <v>6.30875834279804</v>
+        <v>16.5290011132291</v>
       </c>
       <c r="I175" t="n">
-        <v>5.50726201687992</v>
+        <v>17.9545349781365</v>
       </c>
       <c r="J175" t="n">
-        <v>7.22078384645958</v>
+        <v>18.8383128648668</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8.29124549977676</v>
+        <v>10.2951846909749</v>
       </c>
       <c r="B176" t="n">
-        <v>11.7604535584116</v>
+        <v>11.9783697488425</v>
       </c>
       <c r="C176" t="n">
-        <v>12.19493044265</v>
+        <v>-6.44393643885177</v>
       </c>
       <c r="D176" t="n">
-        <v>13.6589209347164</v>
+        <v>-6.79374518205885</v>
       </c>
       <c r="E176" t="n">
-        <v>14.9635623563059</v>
+        <v>-7.31791313885609</v>
       </c>
       <c r="F176" t="n">
-        <v>16.6130311318411</v>
+        <v>16.2254215540062</v>
       </c>
       <c r="G176" t="n">
-        <v>14.8769702974608</v>
+        <v>15.7691961220712</v>
       </c>
       <c r="H176" t="n">
-        <v>16.8947059453823</v>
+        <v>17.7091103733867</v>
       </c>
       <c r="I176" t="n">
-        <v>16.6645750151314</v>
+        <v>17.4789644463181</v>
       </c>
       <c r="J176" t="n">
-        <v>19.2522981107442</v>
+        <v>18.6801534316392</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-5.07210040994612</v>
+        <v>9.97066666573935</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.61553367432882</v>
+        <v>11.2459521720066</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.74765949460723</v>
+        <v>-6.12921152806264</v>
       </c>
       <c r="D177" t="n">
-        <v>-6.49055218503708</v>
+        <v>-6.21424330302922</v>
       </c>
       <c r="E177" t="n">
-        <v>-6.73093158437562</v>
+        <v>-6.99315846883852</v>
       </c>
       <c r="F177" t="n">
-        <v>-7.75524106471113</v>
+        <v>-7.56435877258674</v>
       </c>
       <c r="G177" t="n">
-        <v>-8.19741739132018</v>
+        <v>-7.95817799959331</v>
       </c>
       <c r="H177" t="n">
-        <v>-8.4261825153755</v>
+        <v>-7.9811581862418</v>
       </c>
       <c r="I177" t="n">
-        <v>5.89080851841992</v>
+        <v>-8.69798830465438</v>
       </c>
       <c r="J177" t="n">
-        <v>7.15431047526866</v>
+        <v>-9.71871298502653</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.104357174851</v>
+        <v>-4.75492599306464</v>
       </c>
       <c r="B178" t="n">
-        <v>3.18600433487134</v>
+        <v>-5.27591286934946</v>
       </c>
       <c r="C178" t="n">
-        <v>2.97131875208606</v>
+        <v>-5.68121352524482</v>
       </c>
       <c r="D178" t="n">
-        <v>4.06708005299745</v>
+        <v>-6.79741014557192</v>
       </c>
       <c r="E178" t="n">
-        <v>3.63656263861533</v>
+        <v>13.1901464135972</v>
       </c>
       <c r="F178" t="n">
-        <v>5.57986788327333</v>
+        <v>14.39199800169</v>
       </c>
       <c r="G178" t="n">
-        <v>5.66883743768708</v>
+        <v>5.60109831781658</v>
       </c>
       <c r="H178" t="n">
-        <v>5.69042395234604</v>
+        <v>5.98795727133921</v>
       </c>
       <c r="I178" t="n">
-        <v>5.95894191129466</v>
+        <v>6.835685602913</v>
       </c>
       <c r="J178" t="n">
-        <v>7.3445033073392</v>
+        <v>7.10337183341582</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.91012754117397</v>
+        <v>10.479567641649</v>
       </c>
       <c r="B179" t="n">
-        <v>2.78275295191628</v>
+        <v>10.488735670667</v>
       </c>
       <c r="C179" t="n">
-        <v>3.23830863742934</v>
+        <v>11.3432733907523</v>
       </c>
       <c r="D179" t="n">
-        <v>4.12296742320507</v>
+        <v>11.9907224052528</v>
       </c>
       <c r="E179" t="n">
-        <v>4.3017533816791</v>
+        <v>13.7604213814671</v>
       </c>
       <c r="F179" t="n">
-        <v>4.08210615197597</v>
+        <v>14.5057642438146</v>
       </c>
       <c r="G179" t="n">
-        <v>4.46407016715868</v>
+        <v>16.279340867809</v>
       </c>
       <c r="H179" t="n">
-        <v>5.39677985656823</v>
+        <v>16.7689147505235</v>
       </c>
       <c r="I179" t="n">
-        <v>6.85554504864524</v>
+        <v>16.8033799380978</v>
       </c>
       <c r="J179" t="n">
-        <v>5.93339977622229</v>
+        <v>17.6613963757322</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.36511897980563</v>
+        <v>10.6323085846618</v>
       </c>
       <c r="B180" t="n">
-        <v>11.1296979486103</v>
+        <v>10.895851215167</v>
       </c>
       <c r="C180" t="n">
-        <v>12.7174817786818</v>
+        <v>11.3545222797112</v>
       </c>
       <c r="D180" t="n">
-        <v>13.4690305095591</v>
+        <v>13.4345080929396</v>
       </c>
       <c r="E180" t="n">
-        <v>14.1089019427328</v>
+        <v>14.9912349023272</v>
       </c>
       <c r="F180" t="n">
-        <v>14.7388087949244</v>
+        <v>16.0618206769203</v>
       </c>
       <c r="G180" t="n">
-        <v>15.7777714050556</v>
+        <v>16.4881378653351</v>
       </c>
       <c r="H180" t="n">
-        <v>16.2102790533105</v>
+        <v>16.4506934165854</v>
       </c>
       <c r="I180" t="n">
-        <v>16.9021830496954</v>
+        <v>17.5485267736004</v>
       </c>
       <c r="J180" t="n">
-        <v>6.46767870834833</v>
+        <v>19.1397510171383</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>10.6055959547877</v>
+        <v>10.5863552545052</v>
       </c>
       <c r="B181" t="n">
-        <v>9.85377229066206</v>
+        <v>11.4507882997452</v>
       </c>
       <c r="C181" t="n">
-        <v>11.0728237634006</v>
+        <v>12.795380302174</v>
       </c>
       <c r="D181" t="n">
-        <v>12.756032731894</v>
+        <v>12.5012327079109</v>
       </c>
       <c r="E181" t="n">
-        <v>14.8193966426229</v>
+        <v>3.58385044780712</v>
       </c>
       <c r="F181" t="n">
-        <v>14.9359429416645</v>
+        <v>5.48787850215581</v>
       </c>
       <c r="G181" t="n">
-        <v>15.4268508190765</v>
+        <v>5.83416726094878</v>
       </c>
       <c r="H181" t="n">
-        <v>16.5192195784959</v>
+        <v>5.42887274527229</v>
       </c>
       <c r="I181" t="n">
-        <v>18.7014580546648</v>
+        <v>6.73382143933202</v>
       </c>
       <c r="J181" t="n">
-        <v>18.5853184205685</v>
+        <v>6.71617426046985</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9.27204271609289</v>
+        <v>-4.96594909992929</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.41992802234954</v>
+        <v>-5.5694282681858</v>
       </c>
       <c r="C182" t="n">
-        <v>-5.97362220977676</v>
+        <v>-5.52912368797091</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.69925402965896</v>
+        <v>-6.40712901761399</v>
       </c>
       <c r="E182" t="n">
-        <v>-7.27482917468014</v>
+        <v>-7.16743574882172</v>
       </c>
       <c r="F182" t="n">
-        <v>-7.84872230255171</v>
+        <v>-7.94384707340711</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.70622723647269</v>
+        <v>-8.10820154713109</v>
       </c>
       <c r="H182" t="n">
-        <v>-8.85009427141186</v>
+        <v>-8.75700074269108</v>
       </c>
       <c r="I182" t="n">
-        <v>-8.98544264237223</v>
+        <v>-9.23572629023716</v>
       </c>
       <c r="J182" t="n">
-        <v>-9.73194049422623</v>
+        <v>-9.16441463562235</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8.89449780050038</v>
+        <v>2.60826863694058</v>
       </c>
       <c r="B183" t="n">
-        <v>10.9269180111645</v>
+        <v>2.98325541702763</v>
       </c>
       <c r="C183" t="n">
-        <v>12.6754956136399</v>
+        <v>3.75734797752968</v>
       </c>
       <c r="D183" t="n">
-        <v>13.0041301226587</v>
+        <v>4.07205679403491</v>
       </c>
       <c r="E183" t="n">
-        <v>13.6255441265961</v>
+        <v>4.46967182781372</v>
       </c>
       <c r="F183" t="n">
-        <v>15.4757652719558</v>
+        <v>4.72357048847412</v>
       </c>
       <c r="G183" t="n">
-        <v>15.5455110408875</v>
+        <v>6.53903268613906</v>
       </c>
       <c r="H183" t="n">
-        <v>15.7377107781933</v>
+        <v>6.58876184488659</v>
       </c>
       <c r="I183" t="n">
-        <v>18.6963152359168</v>
+        <v>7.51992591300018</v>
       </c>
       <c r="J183" t="n">
-        <v>19.0126979615246</v>
+        <v>7.44483668176946</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.34504024566802</v>
+        <v>3.1151904327389</v>
       </c>
       <c r="B184" t="n">
-        <v>2.93381281448218</v>
+        <v>3.00225312568221</v>
       </c>
       <c r="C184" t="n">
-        <v>2.80954787777752</v>
+        <v>4.33425301166889</v>
       </c>
       <c r="D184" t="n">
-        <v>4.61401264411878</v>
+        <v>3.89072285877641</v>
       </c>
       <c r="E184" t="n">
-        <v>4.83352033092088</v>
+        <v>4.60391909540044</v>
       </c>
       <c r="F184" t="n">
-        <v>5.46082786194936</v>
+        <v>4.75441000166223</v>
       </c>
       <c r="G184" t="n">
-        <v>5.49868299710544</v>
+        <v>5.84120413055115</v>
       </c>
       <c r="H184" t="n">
-        <v>6.48135143154111</v>
+        <v>6.34726175878405</v>
       </c>
       <c r="I184" t="n">
-        <v>5.89303243694964</v>
+        <v>6.66413186763898</v>
       </c>
       <c r="J184" t="n">
-        <v>7.02801319990478</v>
+        <v>7.1779038769515</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-4.74588527562415</v>
+        <v>-4.89593398585209</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.57976531941551</v>
+        <v>-5.49918807282494</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.00887144134266</v>
+        <v>-5.97361804656695</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.80291459717199</v>
+        <v>13.2055209560153</v>
       </c>
       <c r="E185" t="n">
-        <v>-7.09556860422589</v>
+        <v>14.4046725069085</v>
       </c>
       <c r="F185" t="n">
-        <v>-7.84498685722017</v>
+        <v>15.4661591677893</v>
       </c>
       <c r="G185" t="n">
-        <v>-7.74904771569108</v>
+        <v>16.5881162835733</v>
       </c>
       <c r="H185" t="n">
-        <v>-8.35040395359497</v>
+        <v>17.4268067973455</v>
       </c>
       <c r="I185" t="n">
-        <v>-9.00803938699801</v>
+        <v>18.3753142951798</v>
       </c>
       <c r="J185" t="n">
-        <v>-9.56636224372034</v>
+        <v>19.0801394627809</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.74563897022722</v>
+        <v>-4.61156437985816</v>
       </c>
       <c r="B186" t="n">
-        <v>3.97413640468681</v>
+        <v>-5.25463635588692</v>
       </c>
       <c r="C186" t="n">
-        <v>2.40736754922258</v>
+        <v>-5.78503090019367</v>
       </c>
       <c r="D186" t="n">
-        <v>4.78033430665439</v>
+        <v>-6.82437637961545</v>
       </c>
       <c r="E186" t="n">
-        <v>4.7116633192551</v>
+        <v>-7.40190889213023</v>
       </c>
       <c r="F186" t="n">
-        <v>4.16938651439631</v>
+        <v>-7.39730855996299</v>
       </c>
       <c r="G186" t="n">
-        <v>5.39966486530489</v>
+        <v>-7.85232275613183</v>
       </c>
       <c r="H186" t="n">
-        <v>6.40338056805599</v>
+        <v>-8.44214204527994</v>
       </c>
       <c r="I186" t="n">
-        <v>6.18505968747875</v>
+        <v>-9.00057879347882</v>
       </c>
       <c r="J186" t="n">
-        <v>6.56491613677079</v>
+        <v>-9.21930810219433</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.1970029754963</v>
+        <v>9.64787854585069</v>
       </c>
       <c r="B187" t="n">
-        <v>3.23931441725798</v>
+        <v>11.0187391086824</v>
       </c>
       <c r="C187" t="n">
-        <v>3.12475825755211</v>
+        <v>10.6907597853747</v>
       </c>
       <c r="D187" t="n">
-        <v>2.60894993301284</v>
+        <v>13.414024342272</v>
       </c>
       <c r="E187" t="n">
-        <v>4.82703968443303</v>
+        <v>14.2146442405411</v>
       </c>
       <c r="F187" t="n">
-        <v>4.73111577529113</v>
+        <v>15.2016210376032</v>
       </c>
       <c r="G187" t="n">
-        <v>5.40739853811841</v>
+        <v>16.9888375924531</v>
       </c>
       <c r="H187" t="n">
-        <v>5.19207847350049</v>
+        <v>17.1892087673545</v>
       </c>
       <c r="I187" t="n">
-        <v>5.90343858553726</v>
+        <v>18.138087937901</v>
       </c>
       <c r="J187" t="n">
-        <v>6.21255561338152</v>
+        <v>20.1614423842832</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.6669686038642</v>
+        <v>10.2662010683441</v>
       </c>
       <c r="B188" t="n">
-        <v>10.6764036390422</v>
+        <v>10.3432182572058</v>
       </c>
       <c r="C188" t="n">
-        <v>12.6635910635112</v>
+        <v>12.0216993633789</v>
       </c>
       <c r="D188" t="n">
-        <v>13.1700653601212</v>
+        <v>13.7688336036496</v>
       </c>
       <c r="E188" t="n">
-        <v>15.0233243438366</v>
+        <v>15.9284479660609</v>
       </c>
       <c r="F188" t="n">
-        <v>13.5156078413348</v>
+        <v>14.513654583566</v>
       </c>
       <c r="G188" t="n">
-        <v>16.0384982142193</v>
+        <v>17.0594746935787</v>
       </c>
       <c r="H188" t="n">
-        <v>17.5458660064215</v>
+        <v>16.1884768024201</v>
       </c>
       <c r="I188" t="n">
-        <v>18.9395730306539</v>
+        <v>19.0782504039946</v>
       </c>
       <c r="J188" t="n">
-        <v>18.7714074311912</v>
+        <v>18.4309266277826</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8.90976589055953</v>
+        <v>10.246423905952</v>
       </c>
       <c r="B189" t="n">
-        <v>10.5818234324688</v>
+        <v>11.5806514480926</v>
       </c>
       <c r="C189" t="n">
-        <v>10.7379933627418</v>
+        <v>12.0127855420129</v>
       </c>
       <c r="D189" t="n">
-        <v>13.956055838848</v>
+        <v>13.6332371092551</v>
       </c>
       <c r="E189" t="n">
-        <v>14.5280399398587</v>
+        <v>14.2115019102004</v>
       </c>
       <c r="F189" t="n">
-        <v>14.079245874341</v>
+        <v>15.1214113956751</v>
       </c>
       <c r="G189" t="n">
-        <v>15.8683895655929</v>
+        <v>16.9036968021188</v>
       </c>
       <c r="H189" t="n">
-        <v>6.29653686220191</v>
+        <v>17.0825457164724</v>
       </c>
       <c r="I189" t="n">
-        <v>6.77597123930257</v>
+        <v>17.7612756384739</v>
       </c>
       <c r="J189" t="n">
-        <v>7.29026665232631</v>
+        <v>18.674416649557</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-5.03731557720406</v>
+        <v>-5.12791394979193</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.36925505362235</v>
+        <v>-5.76577652390881</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.6551405866395</v>
+        <v>-6.11090575816949</v>
       </c>
       <c r="D190" t="n">
-        <v>-6.30207510178149</v>
+        <v>-6.42387347956266</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.32496401166729</v>
+        <v>-7.20103773567196</v>
       </c>
       <c r="F190" t="n">
-        <v>-7.83960925851318</v>
+        <v>-7.77541889732469</v>
       </c>
       <c r="G190" t="n">
-        <v>-7.90006598715187</v>
+        <v>-8.02608138021663</v>
       </c>
       <c r="H190" t="n">
-        <v>17.2603946732366</v>
+        <v>-8.25304467180808</v>
       </c>
       <c r="I190" t="n">
-        <v>16.3158654497642</v>
+        <v>-8.81959946183869</v>
       </c>
       <c r="J190" t="n">
-        <v>18.5171283017716</v>
+        <v>18.9171028312207</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-5.15560613826628</v>
+        <v>2.66054437874271</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.09566379506136</v>
+        <v>2.58323174256871</v>
       </c>
       <c r="C191" t="n">
-        <v>-6.10260997394195</v>
+        <v>4.06796042602025</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.28482441007756</v>
+        <v>3.90251736466968</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.80693672542657</v>
+        <v>4.52575782386508</v>
       </c>
       <c r="F191" t="n">
-        <v>-7.17339153382921</v>
+        <v>5.23130047330712</v>
       </c>
       <c r="G191" t="n">
-        <v>-8.10363005311658</v>
+        <v>5.49713819597769</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.75974445128342</v>
+        <v>6.18213131639586</v>
       </c>
       <c r="I191" t="n">
-        <v>-8.9409252694359</v>
+        <v>6.84242093879588</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.55951444710187</v>
+        <v>7.18881968366816</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.0243610738477</v>
+        <v>9.98381110998364</v>
       </c>
       <c r="B192" t="n">
-        <v>11.0518130102437</v>
+        <v>11.5221419819852</v>
       </c>
       <c r="C192" t="n">
-        <v>11.1804751951379</v>
+        <v>13.4644729300811</v>
       </c>
       <c r="D192" t="n">
-        <v>12.1979063142218</v>
+        <v>12.1202611735775</v>
       </c>
       <c r="E192" t="n">
-        <v>14.4083161725944</v>
+        <v>13.4129067019663</v>
       </c>
       <c r="F192" t="n">
-        <v>14.5882129553226</v>
+        <v>14.9860090474821</v>
       </c>
       <c r="G192" t="n">
-        <v>16.4994929777383</v>
+        <v>15.1790993121274</v>
       </c>
       <c r="H192" t="n">
-        <v>17.255360034891</v>
+        <v>16.6643378680302</v>
       </c>
       <c r="I192" t="n">
-        <v>18.8535888765133</v>
+        <v>18.7241578432321</v>
       </c>
       <c r="J192" t="n">
-        <v>18.8832155500597</v>
+        <v>18.9137536704581</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.0282923320436</v>
+        <v>10.5359919390549</v>
       </c>
       <c r="B193" t="n">
-        <v>2.89004589623946</v>
+        <v>11.2408068248046</v>
       </c>
       <c r="C193" t="n">
-        <v>3.13942888538871</v>
+        <v>11.6948081376225</v>
       </c>
       <c r="D193" t="n">
-        <v>4.03523764290756</v>
+        <v>12.7667216794401</v>
       </c>
       <c r="E193" t="n">
-        <v>5.04370041630866</v>
+        <v>14.0369699041676</v>
       </c>
       <c r="F193" t="n">
-        <v>5.23895026847044</v>
+        <v>15.568640497833</v>
       </c>
       <c r="G193" t="n">
-        <v>5.40342577409537</v>
+        <v>16.1661221488626</v>
       </c>
       <c r="H193" t="n">
-        <v>5.57224275756365</v>
+        <v>17.7634064759016</v>
       </c>
       <c r="I193" t="n">
-        <v>5.93865871476284</v>
+        <v>18.1081272540731</v>
       </c>
       <c r="J193" t="n">
-        <v>7.21928587802268</v>
+        <v>19.6340003614463</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.59824145567451</v>
+        <v>8.31591595257666</v>
       </c>
       <c r="B194" t="n">
-        <v>2.6040861723627</v>
+        <v>11.9265165914758</v>
       </c>
       <c r="C194" t="n">
-        <v>3.82877641417641</v>
+        <v>12.190572452228</v>
       </c>
       <c r="D194" t="n">
-        <v>4.02071434316555</v>
+        <v>12.1249550874472</v>
       </c>
       <c r="E194" t="n">
-        <v>4.16175113186029</v>
+        <v>12.7057083548203</v>
       </c>
       <c r="F194" t="n">
-        <v>4.69890184172644</v>
+        <v>15.5641723985426</v>
       </c>
       <c r="G194" t="n">
-        <v>5.5008014549921</v>
+        <v>15.9956440714113</v>
       </c>
       <c r="H194" t="n">
-        <v>6.17261226595275</v>
+        <v>16.8562480276253</v>
       </c>
       <c r="I194" t="n">
-        <v>5.81932017462677</v>
+        <v>17.5403179255208</v>
       </c>
       <c r="J194" t="n">
-        <v>7.36500774394525</v>
+        <v>19.0119869209035</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-5.07088828830921</v>
+        <v>2.31993616713801</v>
       </c>
       <c r="B195" t="n">
-        <v>-5.46588671544094</v>
+        <v>2.790706747321</v>
       </c>
       <c r="C195" t="n">
-        <v>-5.4541503758661</v>
+        <v>3.0307374025271</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.58828805491146</v>
+        <v>4.05393650087232</v>
       </c>
       <c r="E195" t="n">
-        <v>-7.42712000860801</v>
+        <v>4.54663475099928</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.13182657467828</v>
+        <v>4.68900920674994</v>
       </c>
       <c r="G195" t="n">
-        <v>-8.03802525251677</v>
+        <v>5.46672806109266</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.53277378833261</v>
+        <v>5.57859387617839</v>
       </c>
       <c r="I195" t="n">
-        <v>-8.76345745009658</v>
+        <v>6.58766447507673</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.26488547878495</v>
+        <v>7.03642162315855</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-4.85812322089518</v>
+        <v>-4.70808651458816</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.57468350718261</v>
+        <v>-5.26939181610894</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.76141079333085</v>
+        <v>-5.65237712095696</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.50796404636362</v>
+        <v>-6.28528722732495</v>
       </c>
       <c r="E196" t="n">
-        <v>-7.01482285439208</v>
+        <v>-7.27334337869678</v>
       </c>
       <c r="F196" t="n">
-        <v>-7.4213249271531</v>
+        <v>-7.32469743837063</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.99016136994252</v>
+        <v>-8.19938317331804</v>
       </c>
       <c r="H196" t="n">
-        <v>-8.58261256515399</v>
+        <v>-8.67843277473547</v>
       </c>
       <c r="I196" t="n">
-        <v>-8.83691829514023</v>
+        <v>-8.81683787124239</v>
       </c>
       <c r="J196" t="n">
-        <v>-9.74892974456696</v>
+        <v>-9.11261109906971</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.9124520839372</v>
+        <v>-4.99091249413133</v>
       </c>
       <c r="B197" t="n">
-        <v>10.5139459431927</v>
+        <v>-5.90422289106916</v>
       </c>
       <c r="C197" t="n">
-        <v>12.055879422358</v>
+        <v>-5.72611822614847</v>
       </c>
       <c r="D197" t="n">
-        <v>-6.44636863383717</v>
+        <v>-6.89463731675392</v>
       </c>
       <c r="E197" t="n">
-        <v>-6.79791966790303</v>
+        <v>-7.55320700234891</v>
       </c>
       <c r="F197" t="n">
-        <v>-7.4345147868834</v>
+        <v>-7.40867325482229</v>
       </c>
       <c r="G197" t="n">
-        <v>-8.17781050553223</v>
+        <v>-8.12683472850081</v>
       </c>
       <c r="H197" t="n">
-        <v>-8.60232221588254</v>
+        <v>-8.40801371103437</v>
       </c>
       <c r="I197" t="n">
-        <v>-8.88749196353799</v>
+        <v>-9.3217470527726</v>
       </c>
       <c r="J197" t="n">
-        <v>-9.3514355631461</v>
+        <v>-9.22361302271566</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.84084236105391</v>
+        <v>8.66051286400961</v>
       </c>
       <c r="B198" t="n">
-        <v>2.87441213893441</v>
+        <v>9.39372335115169</v>
       </c>
       <c r="C198" t="n">
-        <v>3.43920567982057</v>
+        <v>13.0386640321386</v>
       </c>
       <c r="D198" t="n">
-        <v>3.62543778049483</v>
+        <v>13.9743364321283</v>
       </c>
       <c r="E198" t="n">
-        <v>3.78011651624366</v>
+        <v>14.3414337549827</v>
       </c>
       <c r="F198" t="n">
-        <v>4.90661603412518</v>
+        <v>14.9248153498889</v>
       </c>
       <c r="G198" t="n">
-        <v>5.70876734520829</v>
+        <v>15.6556612306645</v>
       </c>
       <c r="H198" t="n">
-        <v>6.31553206129537</v>
+        <v>17.2353404509679</v>
       </c>
       <c r="I198" t="n">
-        <v>7.29138096833641</v>
+        <v>17.647597336529</v>
       </c>
       <c r="J198" t="n">
-        <v>7.15292415267158</v>
+        <v>19.5939130590911</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-4.77420009682109</v>
+        <v>-5.1715554312058</v>
       </c>
       <c r="B199" t="n">
-        <v>-5.64745160426397</v>
+        <v>-5.87666235773679</v>
       </c>
       <c r="C199" t="n">
-        <v>-5.86056864684173</v>
+        <v>-5.95452796866133</v>
       </c>
       <c r="D199" t="n">
-        <v>-6.3710913317318</v>
+        <v>-6.15724379894625</v>
       </c>
       <c r="E199" t="n">
-        <v>-6.72750760006595</v>
+        <v>-6.88444300222929</v>
       </c>
       <c r="F199" t="n">
-        <v>-7.46052152598578</v>
+        <v>-7.50763201026695</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.10004992566051</v>
+        <v>-8.00616355888546</v>
       </c>
       <c r="H199" t="n">
-        <v>-8.67981968862852</v>
+        <v>-8.43413205883319</v>
       </c>
       <c r="I199" t="n">
-        <v>-9.01115607829327</v>
+        <v>-9.41245080912726</v>
       </c>
       <c r="J199" t="n">
-        <v>-9.47016100209759</v>
+        <v>-8.95760189994886</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.43310621081824</v>
+        <v>9.89718999578937</v>
       </c>
       <c r="B200" t="n">
-        <v>10.386265683805</v>
+        <v>11.2802640710107</v>
       </c>
       <c r="C200" t="n">
-        <v>13.1911608130251</v>
+        <v>11.4729364836095</v>
       </c>
       <c r="D200" t="n">
-        <v>11.9129714735174</v>
+        <v>15.0252156818336</v>
       </c>
       <c r="E200" t="n">
-        <v>14.3281729881642</v>
+        <v>14.0578748505904</v>
       </c>
       <c r="F200" t="n">
-        <v>14.6956854676698</v>
+        <v>14.4941634737208</v>
       </c>
       <c r="G200" t="n">
-        <v>15.4901589691833</v>
+        <v>15.800119643984</v>
       </c>
       <c r="H200" t="n">
-        <v>17.1863029307914</v>
+        <v>16.8927739557241</v>
       </c>
       <c r="I200" t="n">
-        <v>18.204119116936</v>
+        <v>18.4622951432131</v>
       </c>
       <c r="J200" t="n">
-        <v>19.9883694303329</v>
+        <v>19.0184973391896</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.0406300251389</v>
+        <v>9.22795174191294</v>
       </c>
       <c r="B201" t="n">
-        <v>12.1302915843697</v>
+        <v>11.0999551690647</v>
       </c>
       <c r="C201" t="n">
-        <v>3.52116850656733</v>
+        <v>11.4814056737046</v>
       </c>
       <c r="D201" t="n">
-        <v>3.78325537392274</v>
+        <v>12.8351146492137</v>
       </c>
       <c r="E201" t="n">
-        <v>4.96466704384985</v>
+        <v>13.1938462341369</v>
       </c>
       <c r="F201" t="n">
-        <v>5.13773157730967</v>
+        <v>14.723928901091</v>
       </c>
       <c r="G201" t="n">
-        <v>5.49292255611368</v>
+        <v>16.8328245272351</v>
       </c>
       <c r="H201" t="n">
-        <v>7.07568859335496</v>
+        <v>16.9804723855149</v>
       </c>
       <c r="I201" t="n">
-        <v>6.63828327715774</v>
+        <v>17.7479097889131</v>
       </c>
       <c r="J201" t="n">
-        <v>8.03222486051759</v>
+        <v>20.3468758770024</v>
       </c>
     </row>
   </sheetData>
